--- a/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
@@ -12,27 +12,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP3两类平台板卡兼容性'!$A$1:$Q$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP3两类平台板卡兼容性'!$A$1:$Q$64</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="295">
   <si>
     <t>vendorID</t>
   </si>
@@ -833,6 +820,84 @@
   </si>
   <si>
     <t>03024JNE</t>
+  </si>
+  <si>
+    <t>2261</t>
+  </si>
+  <si>
+    <t>029b</t>
+  </si>
+  <si>
+    <t>10.02.09.00-k</t>
+  </si>
+  <si>
+    <t>2023.11.14</t>
+  </si>
+  <si>
+    <t>dab4dd5eb6dbcd2059e970896ac968992a2313fba68697db0e48c1096c5e9e17</t>
+  </si>
+  <si>
+    <t>636KB</t>
+  </si>
+  <si>
+    <t>Marvell/QLogic</t>
+  </si>
+  <si>
+    <t>QLE2690</t>
+  </si>
+  <si>
+    <t>ISP2722</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP4/contrib/drivers/source/Packages/qla2xxx-src-v10.02.09.00-k.tar.gz</t>
+  </si>
+  <si>
+    <t>029c</t>
+  </si>
+  <si>
+    <t>QLE2692</t>
+  </si>
+  <si>
+    <t>0299</t>
+  </si>
+  <si>
+    <t>QLE2740</t>
+  </si>
+  <si>
+    <t>029a</t>
+  </si>
+  <si>
+    <t>QLE2742</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>02f0</t>
+  </si>
+  <si>
+    <t>QLE2770</t>
+  </si>
+  <si>
+    <t>ISP2812</t>
+  </si>
+  <si>
+    <t>02e4</t>
+  </si>
+  <si>
+    <t>QLE2772</t>
+  </si>
+  <si>
+    <t>02ee</t>
+  </si>
+  <si>
+    <t>QLE2870</t>
+  </si>
+  <si>
+    <t>02e2</t>
+  </si>
+  <si>
+    <t>QLE2872</t>
   </si>
   <si>
     <t>板卡</t>
@@ -844,7 +909,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -872,12 +937,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -887,6 +946,14 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1382,7 +1449,7 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1519,7 +1586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
@@ -1537,6 +1604,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1563,7 +1631,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1571,8 +1639,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1585,8 +1656,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1977,991 +2049,991 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ48"/>
+  <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomLeft" activeCell="M49" sqref="M49:M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="10" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="24.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="62.625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="6.625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="9" customWidth="1"/>
-    <col min="14" max="14" width="25" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24.0333333333333" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="62.625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="6.625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="20.675" style="10" customWidth="1"/>
+    <col min="14" max="14" width="25" style="12" customWidth="1"/>
     <col min="15" max="15" width="18.125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="26.875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="162.875" style="9" customWidth="1"/>
-    <col min="18" max="18" width="43.375" style="9" customWidth="1"/>
-    <col min="19" max="1024" width="9" style="9"/>
+    <col min="16" max="16" width="26.875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="162.875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="43.375" style="10" customWidth="1"/>
+    <col min="19" max="1024" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="27" spans="1:18">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:17">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" ht="12" customHeight="1" spans="1:17">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="12" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="12" t="s">
         <v>47</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="12" t="s">
         <v>47</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="12" t="s">
         <v>62</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="12" t="s">
         <v>92</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="12" t="s">
         <v>92</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="12" t="s">
         <v>107</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="12" t="s">
         <v>107</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P14" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="12" t="s">
         <v>135</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="12" t="s">
         <v>135</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2969,7 +3041,7 @@
       <c r="A19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2981,7 +3053,7 @@
       <c r="E19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -2993,28 +3065,28 @@
       <c r="I19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="20" t="s">
         <v>146</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="N19" s="27" t="s">
+      <c r="N19" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="O19" s="28" t="s">
+      <c r="O19" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="21" t="s">
         <v>34</v>
       </c>
       <c r="R19" s="7"/>
@@ -4026,10 +4098,10 @@
       <c r="AMJ19" s="7"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:1024">
-      <c r="A20" s="18">
+      <c r="A20" s="19">
         <v>1000</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>150</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -4041,40 +4113,40 @@
       <c r="E20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="19" t="s">
         <v>153</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="20" t="s">
         <v>155</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N20" s="27" t="s">
+      <c r="N20" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="O20" s="28" t="s">
+      <c r="O20" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="21" t="s">
         <v>34</v>
       </c>
       <c r="R20" s="7"/>
@@ -5086,7 +5158,7 @@
       <c r="AMJ20" s="7"/>
     </row>
     <row r="21" s="7" customFormat="1" spans="1:17">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -5101,7 +5173,7 @@
       <c r="E21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -5113,28 +5185,28 @@
       <c r="I21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N21" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="O21" s="28" t="s">
+      <c r="O21" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="P21" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5142,7 +5214,7 @@
       <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>168</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -5154,40 +5226,40 @@
       <c r="E22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="20" t="s">
         <v>170</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="20" t="s">
         <v>60</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="N22" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="O22" s="28" t="s">
+      <c r="O22" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="Q22" s="29" t="s">
+      <c r="Q22" s="31" t="s">
         <v>175</v>
       </c>
       <c r="R22" s="7"/>
@@ -6202,7 +6274,7 @@
       <c r="A23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>176</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -6214,40 +6286,40 @@
       <c r="E23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="20" t="s">
         <v>57</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="20" t="s">
         <v>68</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="27" t="s">
+      <c r="N23" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="O23" s="28" t="s">
+      <c r="O23" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="P23" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="Q23" s="30" t="s">
+      <c r="Q23" s="32" t="s">
         <v>69</v>
       </c>
       <c r="R23" s="7"/>
@@ -7262,7 +7334,7 @@
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>181</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -7271,10 +7343,10 @@
       <c r="D24" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -7286,10 +7358,10 @@
       <c r="I24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="20" t="s">
         <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
@@ -7298,16 +7370,16 @@
       <c r="M24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="27" t="s">
+      <c r="N24" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="O24" s="28" t="s">
+      <c r="O24" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="P24" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="Q24" s="21" t="s">
         <v>34</v>
       </c>
       <c r="R24" s="7"/>
@@ -8322,7 +8394,7 @@
       <c r="A25" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="19" t="s">
         <v>188</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -8334,7 +8406,7 @@
       <c r="E25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="7" t="s">
@@ -8346,81 +8418,81 @@
       <c r="I25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="24" t="s">
         <v>193</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="N25" s="27" t="s">
+      <c r="N25" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="O25" s="28" t="s">
+      <c r="O25" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="P25" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="Q25" s="28" t="s">
+      <c r="Q25" s="30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" s="6" customFormat="1" ht="12.95" customHeight="1" spans="1:1024">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="23">
         <v>1017</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="N26" s="27" t="s">
+      <c r="N26" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="O26" s="28" t="s">
+      <c r="O26" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="P26" s="22" t="s">
+      <c r="P26" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="Q26" s="20" t="s">
+      <c r="Q26" s="21" t="s">
         <v>34</v>
       </c>
       <c r="R26" s="7"/>
@@ -9435,7 +9507,7 @@
       <c r="A27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>168</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -9444,43 +9516,43 @@
       <c r="D27" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="20" t="s">
         <v>170</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="20" t="s">
         <v>203</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N27" s="27" t="s">
+      <c r="N27" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="O27" s="28" t="s">
+      <c r="O27" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="P27" s="18" t="s">
+      <c r="P27" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" s="29" t="s">
+      <c r="Q27" s="31" t="s">
         <v>204</v>
       </c>
       <c r="R27" s="7"/>
@@ -10492,10 +10564,10 @@
       <c r="AMJ27" s="7"/>
     </row>
     <row r="28" s="6" customFormat="1" spans="1:1024">
-      <c r="A28" s="18">
+      <c r="A28" s="19">
         <v>1000</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>150</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -10504,43 +10576,43 @@
       <c r="D28" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="19" t="s">
         <v>153</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="20" t="s">
         <v>206</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="27" t="s">
+      <c r="N28" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="O28" s="28" t="s">
+      <c r="O28" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="Q28" s="20" t="s">
+      <c r="Q28" s="21" t="s">
         <v>34</v>
       </c>
       <c r="R28" s="7"/>
@@ -11552,7 +11624,7 @@
       <c r="AMJ28" s="7"/>
     </row>
     <row r="29" s="7" customFormat="1" spans="1:17">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -11564,10 +11636,10 @@
       <c r="D29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -11579,28 +11651,28 @@
       <c r="I29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="N29" s="27" t="s">
+      <c r="N29" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="O29" s="28" t="s">
+      <c r="O29" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="P29" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="Q29" s="20" t="s">
+      <c r="Q29" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -11608,7 +11680,7 @@
       <c r="A30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
         <v>140</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -11617,10 +11689,10 @@
       <c r="D30" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -11632,28 +11704,28 @@
       <c r="I30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="20" t="s">
         <v>210</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="O30" s="28" t="s">
+      <c r="O30" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="P30" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="Q30" s="20" t="s">
+      <c r="Q30" s="21" t="s">
         <v>34</v>
       </c>
       <c r="R30" s="7"/>
@@ -12668,7 +12740,7 @@
       <c r="A31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="19" t="s">
         <v>176</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -12677,43 +12749,43 @@
       <c r="D31" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="20" t="s">
         <v>170</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="20" t="s">
         <v>203</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="27" t="s">
+      <c r="N31" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="O31" s="28" t="s">
+      <c r="O31" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P31" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="Q31" s="29" t="s">
+      <c r="Q31" s="31" t="s">
         <v>204</v>
       </c>
       <c r="R31" s="7"/>
@@ -13728,7 +13800,7 @@
       <c r="A32" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>188</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -13737,10 +13809,10 @@
       <c r="D32" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -13752,81 +13824,81 @@
       <c r="I32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="24" t="s">
         <v>212</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="N32" s="27" t="s">
+      <c r="N32" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="O32" s="28" t="s">
+      <c r="O32" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="P32" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="Q32" s="28" t="s">
+      <c r="Q32" s="30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" s="6" customFormat="1" ht="12.95" customHeight="1" spans="1:1024">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="23">
         <v>1017</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="M33" s="21" t="s">
+      <c r="M33" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="N33" s="27" t="s">
+      <c r="N33" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="O33" s="28" t="s">
+      <c r="O33" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="P33" s="22" t="s">
+      <c r="P33" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="Q33" s="20" t="s">
+      <c r="Q33" s="21" t="s">
         <v>34</v>
       </c>
       <c r="R33" s="7"/>
@@ -14841,19 +14913,19 @@
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="19" t="s">
         <v>213</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="20" t="s">
         <v>214</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="21" t="s">
         <v>215</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -14865,28 +14937,28 @@
       <c r="I34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="20" t="s">
         <v>206</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N34" s="27" t="s">
+      <c r="N34" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="O34" s="28" t="s">
+      <c r="O34" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="P34" s="18" t="s">
+      <c r="P34" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="Q34" s="20" t="s">
+      <c r="Q34" s="21" t="s">
         <v>34</v>
       </c>
       <c r="R34" s="7"/>
@@ -15898,749 +15970,1565 @@
       <c r="AMJ34" s="7"/>
     </row>
     <row r="35" s="8" customFormat="1" spans="1:17">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="L35" s="24" t="s">
+      <c r="L35" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="M35" s="24" t="s">
+      <c r="M35" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N35" s="24" t="s">
+      <c r="N35" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="O35" s="24" t="s">
+      <c r="O35" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P35" s="24" t="s">
+      <c r="P35" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="Q35" s="24" t="s">
+      <c r="Q35" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" s="8" customFormat="1" spans="1:17">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="L36" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="24" t="s">
+      <c r="N36" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="O36" s="24" t="s">
+      <c r="O36" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P36" s="24" t="s">
+      <c r="P36" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="Q36" s="24" t="s">
+      <c r="Q36" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" s="8" customFormat="1" spans="1:17">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="K37" s="24" t="s">
+      <c r="K37" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="L37" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="M37" s="24" t="s">
+      <c r="M37" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="N37" s="24" t="s">
+      <c r="N37" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="O37" s="24" t="s">
+      <c r="O37" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="P37" s="24" t="s">
+      <c r="P37" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="Q37" s="24" t="s">
+      <c r="Q37" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" spans="1:17">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="K38" s="24" t="s">
+      <c r="K38" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="M38" s="24" t="s">
+      <c r="M38" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="N38" s="24" t="s">
+      <c r="N38" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="O38" s="24" t="s">
+      <c r="O38" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="P38" s="24" t="s">
+      <c r="P38" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="Q38" s="24" t="s">
+      <c r="Q38" s="25" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="39" s="8" customFormat="1" spans="1:17">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="K39" s="24" t="s">
+      <c r="K39" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="24" t="s">
+      <c r="M39" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="N39" s="24" t="s">
+      <c r="N39" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="O39" s="24" t="s">
+      <c r="O39" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="P39" s="24" t="s">
+      <c r="P39" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="Q39" s="24" t="s">
+      <c r="Q39" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" s="8" customFormat="1" spans="1:17">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="K40" s="24" t="s">
+      <c r="K40" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="L40" s="24" t="s">
+      <c r="L40" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="M40" s="24" t="s">
+      <c r="M40" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="N40" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="O40" s="24" t="s">
+      <c r="O40" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="P40" s="24" t="s">
+      <c r="P40" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="Q40" s="24" t="s">
+      <c r="Q40" s="25" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="41" s="8" customFormat="1" spans="1:17">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="K41" s="24" t="s">
+      <c r="K41" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="L41" s="24" t="s">
+      <c r="L41" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="M41" s="24" t="s">
+      <c r="M41" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="N41" s="24" t="s">
+      <c r="N41" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="O41" s="24" t="s">
+      <c r="O41" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="P41" s="24" t="s">
+      <c r="P41" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="Q41" s="24" t="s">
+      <c r="Q41" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" s="8" customFormat="1" spans="1:17">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="K42" s="24" t="s">
+      <c r="K42" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="L42" s="24" t="s">
+      <c r="L42" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="M42" s="24" t="s">
+      <c r="M42" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="N42" s="24" t="s">
+      <c r="N42" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="O42" s="24" t="s">
+      <c r="O42" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="P42" s="24" t="s">
+      <c r="P42" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="Q42" s="24" t="s">
+      <c r="Q42" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" s="8" customFormat="1" spans="1:17">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="I43" s="24" t="s">
+      <c r="I43" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="K43" s="24" t="s">
+      <c r="K43" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="L43" s="24" t="s">
+      <c r="L43" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="M43" s="24" t="s">
+      <c r="M43" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="N43" s="24" t="s">
+      <c r="N43" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="O43" s="24" t="s">
+      <c r="O43" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="P43" s="24" t="s">
+      <c r="P43" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="Q43" s="24" t="s">
+      <c r="Q43" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" s="8" customFormat="1" spans="1:17">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="L44" s="24" t="s">
+      <c r="L44" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="M44" s="24" t="s">
+      <c r="M44" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="N44" s="24" t="s">
+      <c r="N44" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="O44" s="24" t="s">
+      <c r="O44" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="P44" s="24" t="s">
+      <c r="P44" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="Q44" s="24" t="s">
+      <c r="Q44" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" s="8" customFormat="1" spans="1:17">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="24" t="s">
+      <c r="K45" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="L45" s="24" t="s">
+      <c r="L45" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="M45" s="24" t="s">
+      <c r="M45" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="N45" s="24" t="s">
+      <c r="N45" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="O45" s="24" t="s">
+      <c r="O45" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="P45" s="24" t="s">
+      <c r="P45" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="Q45" s="24" t="s">
+      <c r="Q45" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="46" s="8" customFormat="1" spans="1:17">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H46" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="K46" s="24" t="s">
+      <c r="K46" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="L46" s="24" t="s">
+      <c r="L46" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="M46" s="24" t="s">
+      <c r="M46" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="N46" s="24" t="s">
+      <c r="N46" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="O46" s="24" t="s">
+      <c r="O46" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="P46" s="24" t="s">
+      <c r="P46" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="Q46" s="24" t="s">
+      <c r="Q46" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" s="8" customFormat="1" spans="1:17">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="K47" s="24" t="s">
+      <c r="K47" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="L47" s="24" t="s">
+      <c r="L47" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="M47" s="24" t="s">
+      <c r="M47" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N47" s="24" t="s">
+      <c r="N47" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="O47" s="24" t="s">
+      <c r="O47" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="P47" s="24" t="s">
+      <c r="P47" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="Q47" s="24" t="s">
+      <c r="Q47" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="48" s="8" customFormat="1" spans="1:17">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="I48" s="24" t="s">
+      <c r="I48" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="K48" s="24" t="s">
+      <c r="K48" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="L48" s="24" t="s">
+      <c r="L48" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="M48" s="24" t="s">
+      <c r="M48" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N48" s="24" t="s">
+      <c r="N48" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="O48" s="24" t="s">
+      <c r="O48" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="P48" s="24" t="s">
+      <c r="P48" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="Q48" s="24" t="s">
+      <c r="Q48" s="25" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" spans="1:17">
+      <c r="A49" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" spans="1:17">
+      <c r="A50" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" s="9" customFormat="1" spans="1:17">
+      <c r="A51" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" s="9" customFormat="1" spans="1:17">
+      <c r="A52" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" s="9" customFormat="1" spans="1:17">
+      <c r="A53" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" s="9" customFormat="1" spans="1:17">
+      <c r="A54" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="O54" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" s="9" customFormat="1" spans="1:17">
+      <c r="A55" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="O55" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" s="9" customFormat="1" spans="1:17">
+      <c r="A56" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" s="9" customFormat="1" spans="1:17">
+      <c r="A57" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" s="9" customFormat="1" spans="1:17">
+      <c r="A58" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" s="9" customFormat="1" spans="1:17">
+      <c r="A59" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" s="9" customFormat="1" spans="1:17">
+      <c r="A60" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N60" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" s="9" customFormat="1" spans="1:17">
+      <c r="A61" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" s="9" customFormat="1" spans="1:17">
+      <c r="A62" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N62" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" s="9" customFormat="1" spans="1:17">
+      <c r="A63" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" s="9" customFormat="1" spans="1:17">
+      <c r="A64" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q34">
+  <autoFilter ref="A1:Q64">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -16695,10 +17583,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1"/>

--- a/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
@@ -14,12 +14,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP3两类平台板卡兼容性'!$A$1:$Q$64</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="294">
   <si>
     <t>vendorID</t>
   </si>
@@ -766,9 +779,6 @@
   </si>
   <si>
     <t>5.1.0-k</t>
-  </si>
-  <si>
-    <t>ETHERNET</t>
   </si>
   <si>
     <t>70b3963eacdc4571a439b5f7a22835a9aadfb7227dca50d6d0475eefd725e5f1</t>
@@ -909,7 +919,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2051,10 +2061,10 @@
   <sheetPr/>
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M49" sqref="M49:M64"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16419,28 +16429,28 @@
         <v>248</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="J43" s="25" t="s">
         <v>131</v>
       </c>
       <c r="K43" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="L43" s="25" t="s">
         <v>250</v>
-      </c>
-      <c r="L43" s="25" t="s">
-        <v>251</v>
       </c>
       <c r="M43" s="25" t="s">
         <v>91</v>
       </c>
       <c r="N43" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="O43" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="O43" s="25" t="s">
+      <c r="P43" s="25" t="s">
         <v>253</v>
-      </c>
-      <c r="P43" s="25" t="s">
-        <v>254</v>
       </c>
       <c r="Q43" s="25" t="s">
         <v>34</v>
@@ -16472,28 +16482,28 @@
         <v>248</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="J44" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="K44" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="L44" s="25" t="s">
         <v>256</v>
-      </c>
-      <c r="L44" s="25" t="s">
-        <v>257</v>
       </c>
       <c r="M44" s="25" t="s">
         <v>91</v>
       </c>
       <c r="N44" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="O44" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="O44" s="25" t="s">
+      <c r="P44" s="25" t="s">
         <v>253</v>
-      </c>
-      <c r="P44" s="25" t="s">
-        <v>254</v>
       </c>
       <c r="Q44" s="25" t="s">
         <v>34</v>
@@ -16504,13 +16514,13 @@
         <v>187</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>22</v>
@@ -16540,13 +16550,13 @@
         <v>194</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O45" s="25" t="s">
         <v>200</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q45" s="25" t="s">
         <v>34</v>
@@ -16557,13 +16567,13 @@
         <v>187</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>35</v>
@@ -16593,13 +16603,13 @@
         <v>194</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O46" s="25" t="s">
         <v>200</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q46" s="25" t="s">
         <v>34</v>
@@ -16610,13 +16620,13 @@
         <v>38</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>22</v>
@@ -16634,7 +16644,7 @@
         <v>43</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K47" s="25" t="s">
         <v>221</v>
@@ -16646,13 +16656,13 @@
         <v>30</v>
       </c>
       <c r="N47" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="O47" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="O47" s="25" t="s">
+      <c r="P47" s="25" t="s">
         <v>265</v>
-      </c>
-      <c r="P47" s="25" t="s">
-        <v>266</v>
       </c>
       <c r="Q47" s="25" t="s">
         <v>34</v>
@@ -16663,13 +16673,13 @@
         <v>38</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>35</v>
@@ -16687,7 +16697,7 @@
         <v>43</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K48" s="25" t="s">
         <v>225</v>
@@ -16699,13 +16709,13 @@
         <v>30</v>
       </c>
       <c r="N48" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="O48" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="O48" s="25" t="s">
+      <c r="P48" s="25" t="s">
         <v>265</v>
-      </c>
-      <c r="P48" s="25" t="s">
-        <v>266</v>
       </c>
       <c r="Q48" s="25" t="s">
         <v>34</v>
@@ -16716,13 +16726,13 @@
         <v>70</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>22</v>
@@ -16734,32 +16744,32 @@
         <v>73</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J49" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K49" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="L49" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="M49" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="N49" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="O49" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="P49" s="26"/>
       <c r="Q49" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" s="9" customFormat="1" spans="1:17">
@@ -16767,13 +16777,13 @@
         <v>70</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>22</v>
@@ -16785,32 +16795,32 @@
         <v>73</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J50" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K50" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="L50" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="M50" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M50" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N50" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P50" s="26"/>
       <c r="Q50" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" s="9" customFormat="1" spans="1:17">
@@ -16818,13 +16828,13 @@
         <v>70</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>22</v>
@@ -16836,32 +16846,32 @@
         <v>73</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J51" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K51" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="L51" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="M51" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M51" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N51" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P51" s="26"/>
       <c r="Q51" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" s="9" customFormat="1" spans="1:17">
@@ -16869,13 +16879,13 @@
         <v>70</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>22</v>
@@ -16887,32 +16897,32 @@
         <v>73</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J52" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K52" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="L52" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="M52" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M52" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N52" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P52" s="26"/>
       <c r="Q52" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" s="9" customFormat="1" spans="1:17">
@@ -16920,13 +16930,13 @@
         <v>70</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>22</v>
@@ -16938,32 +16948,32 @@
         <v>73</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J53" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K53" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="L53" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L53" s="9" t="s">
+      <c r="M53" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M53" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N53" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="O53" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="O53" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="P53" s="26"/>
       <c r="Q53" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" s="9" customFormat="1" spans="1:17">
@@ -16971,13 +16981,13 @@
         <v>70</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>22</v>
@@ -16989,32 +16999,32 @@
         <v>73</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J54" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K54" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="L54" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="M54" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M54" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N54" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P54" s="26"/>
       <c r="Q54" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" s="9" customFormat="1" spans="1:17">
@@ -17022,13 +17032,13 @@
         <v>70</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>22</v>
@@ -17040,32 +17050,32 @@
         <v>73</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J55" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K55" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="L55" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="M55" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M55" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N55" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P55" s="26"/>
       <c r="Q55" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" s="9" customFormat="1" spans="1:17">
@@ -17073,13 +17083,13 @@
         <v>70</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>22</v>
@@ -17091,32 +17101,32 @@
         <v>73</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J56" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K56" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="L56" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="M56" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M56" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N56" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P56" s="26"/>
       <c r="Q56" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" s="9" customFormat="1" spans="1:17">
@@ -17124,13 +17134,13 @@
         <v>70</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>35</v>
@@ -17142,32 +17152,32 @@
         <v>73</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J57" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K57" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="L57" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="M57" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M57" s="9" t="s">
+      <c r="N57" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="O57" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="O57" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="P57" s="26"/>
       <c r="Q57" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" s="9" customFormat="1" spans="1:17">
@@ -17175,13 +17185,13 @@
         <v>70</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>35</v>
@@ -17193,32 +17203,32 @@
         <v>73</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J58" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K58" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="L58" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="M58" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M58" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N58" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P58" s="26"/>
       <c r="Q58" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" s="9" customFormat="1" spans="1:17">
@@ -17226,13 +17236,13 @@
         <v>70</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>35</v>
@@ -17244,32 +17254,32 @@
         <v>73</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J59" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K59" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="L59" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="M59" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M59" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N59" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P59" s="26"/>
       <c r="Q59" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" s="9" customFormat="1" spans="1:17">
@@ -17277,13 +17287,13 @@
         <v>70</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>35</v>
@@ -17295,32 +17305,32 @@
         <v>73</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J60" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K60" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="L60" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L60" s="9" t="s">
+      <c r="M60" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M60" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N60" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P60" s="26"/>
       <c r="Q60" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" s="9" customFormat="1" spans="1:17">
@@ -17328,13 +17338,13 @@
         <v>70</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>35</v>
@@ -17346,32 +17356,32 @@
         <v>73</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J61" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K61" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="L61" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="M61" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M61" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N61" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="O61" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="O61" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="P61" s="26"/>
       <c r="Q61" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" s="9" customFormat="1" spans="1:17">
@@ -17379,13 +17389,13 @@
         <v>70</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>35</v>
@@ -17397,32 +17407,32 @@
         <v>73</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J62" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K62" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K62" s="9" t="s">
+      <c r="L62" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="M62" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M62" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N62" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P62" s="26"/>
       <c r="Q62" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" s="9" customFormat="1" spans="1:17">
@@ -17430,13 +17440,13 @@
         <v>70</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>35</v>
@@ -17448,32 +17458,32 @@
         <v>73</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J63" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K63" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="L63" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="M63" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M63" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N63" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P63" s="26"/>
       <c r="Q63" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" s="9" customFormat="1" spans="1:17">
@@ -17481,13 +17491,13 @@
         <v>70</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>35</v>
@@ -17499,32 +17509,32 @@
         <v>73</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J64" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K64" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K64" s="9" t="s">
+      <c r="L64" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="L64" s="9" t="s">
+      <c r="M64" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="M64" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="N64" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P64" s="26"/>
       <c r="Q64" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -17583,10 +17593,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1"/>

--- a/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="318">
   <si>
     <t>vendorID</t>
   </si>
@@ -908,6 +908,78 @@
   </si>
   <si>
     <t>QLE2872</t>
+  </si>
+  <si>
+    <t>1f3f</t>
+  </si>
+  <si>
+    <t>9020</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>sssdk</t>
+  </si>
+  <si>
+    <t>1.1.0.0</t>
+  </si>
+  <si>
+    <t>2023.12.05</t>
+  </si>
+  <si>
+    <t>1e3fbfb1f8ea199bff23068b72ef13ff794c2a3aa5b84b295622fbaeed8d5cbe</t>
+  </si>
+  <si>
+    <t>311K</t>
+  </si>
+  <si>
+    <t>Ramaxel</t>
+  </si>
+  <si>
+    <t>3S910</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>fd65481daf55fb54be5e0c31c1e9f64f9a121fb5de63d72494f90d57b851aa15</t>
+  </si>
+  <si>
+    <t>340K</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>0185</t>
+  </si>
+  <si>
+    <t>sssraid</t>
+  </si>
+  <si>
+    <t>1.0.0.0</t>
+  </si>
+  <si>
+    <t>2023.12.08</t>
+  </si>
+  <si>
+    <t>10bfcee5f7481b5873f9b6f82247c688dedea9e9e3ca228a03fb9a1d09f1be19</t>
+  </si>
+  <si>
+    <t>133K</t>
+  </si>
+  <si>
+    <t>3S580</t>
+  </si>
+  <si>
+    <t>2023.12.11</t>
+  </si>
+  <si>
+    <t>61e9b53094b02cb9dcb88c8ffd724425e7cab7f7fc873b80c572abbd24c792b4</t>
+  </si>
+  <si>
+    <t>145K</t>
   </si>
   <si>
     <t>板卡</t>
@@ -2059,12 +2131,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ64"/>
+  <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17537,6 +17609,206 @@
         <v>275</v>
       </c>
     </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q66" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q67" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q64">
     <extLst/>
@@ -17593,10 +17865,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1"/>

--- a/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8BBC9D-38BB-406A-8A7C-90718988D303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="openEuler20.03-LTS-SP3两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
+    <sheet name="openEuler20.03-LTS-SP4两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP3两类平台板卡兼容性'!$A$1:$Q$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP4两类平台板卡兼容性'!$A$1:$Q$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="317">
   <si>
     <t>vendorID</t>
   </si>
@@ -677,9 +683,6 @@
   </si>
   <si>
     <t>da15</t>
-  </si>
-  <si>
-    <t>openEuler 20.03 LTS SP3</t>
   </si>
   <si>
     <t>SR450C-M</t>
@@ -991,14 +994,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1038,143 +1035,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,194 +1071,8 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1415,249 +1095,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1670,13 +1111,13 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1738,64 +1179,18 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1868,6 +1263,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2125,35 +1523,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="11" customWidth="1"/>
     <col min="3" max="3" width="4.75" style="10" customWidth="1"/>
     <col min="4" max="4" width="5" style="10" customWidth="1"/>
     <col min="5" max="5" width="7.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="24.0333333333333" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24" style="10" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="10" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="10" customWidth="1"/>
     <col min="9" max="9" width="12" style="10" customWidth="1"/>
     <col min="10" max="10" width="12.125" style="10" customWidth="1"/>
     <col min="11" max="11" width="62.625" style="10" customWidth="1"/>
     <col min="12" max="12" width="6.625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="20.675" style="10" customWidth="1"/>
+    <col min="13" max="13" width="20.625" style="10" customWidth="1"/>
     <col min="14" max="14" width="25" style="12" customWidth="1"/>
     <col min="15" max="15" width="18.125" style="4" customWidth="1"/>
     <col min="16" max="16" width="26.875" style="11" customWidth="1"/>
@@ -2162,7 +1559,7 @@
     <col min="19" max="1024" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="27" spans="1:18">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2218,7 +1615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:17">
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
@@ -2271,7 +1668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="12" customHeight="1" spans="1:17">
+    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2324,7 +1721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -2377,7 +1774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>38</v>
       </c>
@@ -2430,7 +1827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
@@ -2483,7 +1880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>53</v>
       </c>
@@ -2536,7 +1933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>53</v>
       </c>
@@ -2589,7 +1986,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>70</v>
       </c>
@@ -2642,7 +2039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>70</v>
       </c>
@@ -2695,7 +2092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>84</v>
       </c>
@@ -2748,7 +2145,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>84</v>
       </c>
@@ -2801,7 +2198,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>98</v>
       </c>
@@ -2854,7 +2251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>98</v>
       </c>
@@ -2907,7 +2304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>113</v>
       </c>
@@ -2960,7 +2357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>113</v>
       </c>
@@ -3013,7 +2410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>126</v>
       </c>
@@ -3066,7 +2463,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>126</v>
       </c>
@@ -3119,7 +2516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" spans="1:1024">
+    <row r="19" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>98</v>
       </c>
@@ -4179,7 +3576,7 @@
       <c r="AMI19" s="7"/>
       <c r="AMJ19" s="7"/>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:1024">
+    <row r="20" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>1000</v>
       </c>
@@ -5239,7 +4636,7 @@
       <c r="AMI20" s="7"/>
       <c r="AMJ20" s="7"/>
     </row>
-    <row r="21" s="7" customFormat="1" spans="1:17">
+    <row r="21" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
         <v>84</v>
       </c>
@@ -5292,7 +4689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:1024">
+    <row r="22" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
@@ -6352,7 +5749,7 @@
       <c r="AMI22" s="7"/>
       <c r="AMJ22" s="7"/>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:1024">
+    <row r="23" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>53</v>
       </c>
@@ -7412,7 +6809,7 @@
       <c r="AMI23" s="7"/>
       <c r="AMJ23" s="7"/>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:1024">
+    <row r="24" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -8472,7 +7869,7 @@
       <c r="AMI24" s="7"/>
       <c r="AMJ24" s="7"/>
     </row>
-    <row r="25" s="7" customFormat="1" spans="1:17">
+    <row r="25" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>187</v>
       </c>
@@ -8525,7 +7922,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" ht="12.95" customHeight="1" spans="1:1024">
+    <row r="26" spans="1:1024" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22" t="s">
         <v>187</v>
       </c>
@@ -9585,7 +8982,7 @@
       <c r="AMI26" s="7"/>
       <c r="AMJ26" s="7"/>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:1024">
+    <row r="27" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>53</v>
       </c>
@@ -10645,7 +10042,7 @@
       <c r="AMI27" s="7"/>
       <c r="AMJ27" s="7"/>
     </row>
-    <row r="28" s="6" customFormat="1" spans="1:1024">
+    <row r="28" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>1000</v>
       </c>
@@ -11705,7 +11102,7 @@
       <c r="AMI28" s="7"/>
       <c r="AMJ28" s="7"/>
     </row>
-    <row r="29" s="7" customFormat="1" spans="1:17">
+    <row r="29" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
         <v>84</v>
       </c>
@@ -11758,7 +11155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" spans="1:1024">
+    <row r="30" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>98</v>
       </c>
@@ -12818,7 +12215,7 @@
       <c r="AMI30" s="7"/>
       <c r="AMJ30" s="7"/>
     </row>
-    <row r="31" s="6" customFormat="1" spans="1:1024">
+    <row r="31" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>53</v>
       </c>
@@ -13878,7 +13275,7 @@
       <c r="AMI31" s="7"/>
       <c r="AMJ31" s="7"/>
     </row>
-    <row r="32" s="7" customFormat="1" spans="1:17">
+    <row r="32" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>187</v>
       </c>
@@ -13931,7 +13328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="1" ht="12.95" customHeight="1" spans="1:1024">
+    <row r="33" spans="1:1024" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
         <v>187</v>
       </c>
@@ -14991,7 +14388,7 @@
       <c r="AMI33" s="7"/>
       <c r="AMJ33" s="7"/>
     </row>
-    <row r="34" s="6" customFormat="1" spans="1:1024">
+    <row r="34" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -15007,8 +14404,8 @@
       <c r="E34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>215</v>
+      <c r="F34" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>152</v>
@@ -15032,13 +14429,13 @@
         <v>46</v>
       </c>
       <c r="N34" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="O34" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="O34" s="30" t="s">
+      <c r="P34" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="P34" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="Q34" s="21" t="s">
         <v>34</v>
@@ -16051,18 +15448,18 @@
       <c r="AMI34" s="7"/>
       <c r="AMJ34" s="7"/>
     </row>
-    <row r="35" s="8" customFormat="1" spans="1:17">
+    <row r="35" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>22</v>
@@ -16083,7 +15480,7 @@
         <v>131</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L35" s="25" t="s">
         <v>206</v>
@@ -16092,30 +15489,30 @@
         <v>30</v>
       </c>
       <c r="N35" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="O35" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="P35" s="25" t="s">
         <v>223</v>
-      </c>
-      <c r="P35" s="25" t="s">
-        <v>224</v>
       </c>
       <c r="Q35" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" s="8" customFormat="1" spans="1:17">
+    <row r="36" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>35</v>
@@ -16136,7 +15533,7 @@
         <v>144</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L36" s="25" t="s">
         <v>155</v>
@@ -16145,30 +15542,30 @@
         <v>30</v>
       </c>
       <c r="N36" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="O36" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="O36" s="25" t="s">
+      <c r="P36" s="25" t="s">
         <v>223</v>
-      </c>
-      <c r="P36" s="25" t="s">
-        <v>224</v>
       </c>
       <c r="Q36" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" s="8" customFormat="1" spans="1:17">
+    <row r="37" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>113</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>22</v>
@@ -16189,7 +15586,7 @@
         <v>82</v>
       </c>
       <c r="K37" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L37" s="25" t="s">
         <v>120</v>
@@ -16198,30 +15595,30 @@
         <v>121</v>
       </c>
       <c r="N37" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O37" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="O37" s="25" t="s">
+      <c r="P37" s="25" t="s">
         <v>230</v>
-      </c>
-      <c r="P37" s="25" t="s">
-        <v>231</v>
       </c>
       <c r="Q37" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" s="8" customFormat="1" spans="1:17">
+    <row r="38" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>22</v>
@@ -16233,7 +15630,7 @@
         <v>116</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I38" s="25" t="s">
         <v>75</v>
@@ -16242,39 +15639,39 @@
         <v>82</v>
       </c>
       <c r="K38" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" s="25" t="s">
         <v>233</v>
-      </c>
-      <c r="L38" s="25" t="s">
-        <v>234</v>
       </c>
       <c r="M38" s="25" t="s">
         <v>121</v>
       </c>
       <c r="N38" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O38" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="P38" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="P38" s="25" t="s">
-        <v>231</v>
-      </c>
       <c r="Q38" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="39" s="8" customFormat="1" spans="1:17">
+    <row r="39" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C39" s="25" t="s">
         <v>113</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>35</v>
@@ -16295,7 +15692,7 @@
         <v>144</v>
       </c>
       <c r="K39" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L39" s="25" t="s">
         <v>120</v>
@@ -16304,30 +15701,30 @@
         <v>121</v>
       </c>
       <c r="N39" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O39" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="O39" s="25" t="s">
+      <c r="P39" s="25" t="s">
         <v>230</v>
-      </c>
-      <c r="P39" s="25" t="s">
-        <v>231</v>
       </c>
       <c r="Q39" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" s="8" customFormat="1" spans="1:17">
+    <row r="40" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>113</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>35</v>
@@ -16339,7 +15736,7 @@
         <v>116</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I40" s="25" t="s">
         <v>75</v>
@@ -16348,39 +15745,39 @@
         <v>82</v>
       </c>
       <c r="K40" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L40" s="25" t="s">
         <v>233</v>
-      </c>
-      <c r="L40" s="25" t="s">
-        <v>234</v>
       </c>
       <c r="M40" s="25" t="s">
         <v>121</v>
       </c>
       <c r="N40" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O40" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="O40" s="25" t="s">
+      <c r="P40" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="P40" s="25" t="s">
-        <v>231</v>
-      </c>
       <c r="Q40" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="41" s="8" customFormat="1" spans="1:17">
+    <row r="41" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>187</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E41" s="25" t="s">
         <v>22</v>
@@ -16395,13 +15792,13 @@
         <v>191</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J41" s="25" t="s">
         <v>144</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L41" s="25" t="s">
         <v>212</v>
@@ -16410,30 +15807,30 @@
         <v>194</v>
       </c>
       <c r="N41" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="O41" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="O41" s="25" t="s">
+      <c r="P41" s="25" t="s">
         <v>242</v>
-      </c>
-      <c r="P41" s="25" t="s">
-        <v>243</v>
       </c>
       <c r="Q41" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" s="8" customFormat="1" spans="1:17">
+    <row r="42" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C42" s="25" t="s">
         <v>187</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>35</v>
@@ -16448,13 +15845,13 @@
         <v>191</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J42" s="25" t="s">
         <v>144</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L42" s="25" t="s">
         <v>193</v>
@@ -16463,30 +15860,30 @@
         <v>194</v>
       </c>
       <c r="N42" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="O42" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="O42" s="25" t="s">
+      <c r="P42" s="25" t="s">
         <v>242</v>
-      </c>
-      <c r="P42" s="25" t="s">
-        <v>243</v>
       </c>
       <c r="Q42" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" s="8" customFormat="1" spans="1:17">
+    <row r="43" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C43" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>22</v>
@@ -16495,10 +15892,10 @@
         <v>23</v>
       </c>
       <c r="G43" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43" s="25" t="s">
         <v>247</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>248</v>
       </c>
       <c r="I43" s="25" t="s">
         <v>26</v>
@@ -16507,39 +15904,39 @@
         <v>131</v>
       </c>
       <c r="K43" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L43" s="25" t="s">
         <v>249</v>
-      </c>
-      <c r="L43" s="25" t="s">
-        <v>250</v>
       </c>
       <c r="M43" s="25" t="s">
         <v>91</v>
       </c>
       <c r="N43" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="O43" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="O43" s="25" t="s">
+      <c r="P43" s="25" t="s">
         <v>252</v>
-      </c>
-      <c r="P43" s="25" t="s">
-        <v>253</v>
       </c>
       <c r="Q43" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" s="8" customFormat="1" spans="1:17">
+    <row r="44" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C44" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>35</v>
@@ -16548,51 +15945,51 @@
         <v>23</v>
       </c>
       <c r="G44" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="H44" s="25" t="s">
         <v>247</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>248</v>
       </c>
       <c r="I44" s="25" t="s">
         <v>26</v>
       </c>
       <c r="J44" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K44" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="K44" s="25" t="s">
+      <c r="L44" s="25" t="s">
         <v>255</v>
-      </c>
-      <c r="L44" s="25" t="s">
-        <v>256</v>
       </c>
       <c r="M44" s="25" t="s">
         <v>91</v>
       </c>
       <c r="N44" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="O44" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="O44" s="25" t="s">
+      <c r="P44" s="25" t="s">
         <v>252</v>
-      </c>
-      <c r="P44" s="25" t="s">
-        <v>253</v>
       </c>
       <c r="Q44" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" s="8" customFormat="1" spans="1:17">
+    <row r="45" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>22</v>
@@ -16607,13 +16004,13 @@
         <v>191</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J45" s="25" t="s">
         <v>66</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L45" s="25" t="s">
         <v>212</v>
@@ -16622,30 +16019,30 @@
         <v>194</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O45" s="25" t="s">
         <v>200</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q45" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" s="8" customFormat="1" spans="1:17">
+    <row r="46" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>35</v>
@@ -16660,13 +16057,13 @@
         <v>191</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>66</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L46" s="25" t="s">
         <v>193</v>
@@ -16675,30 +16072,30 @@
         <v>194</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O46" s="25" t="s">
         <v>200</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q46" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" s="8" customFormat="1" spans="1:17">
+    <row r="47" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C47" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>22</v>
@@ -16716,10 +16113,10 @@
         <v>43</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L47" s="25" t="s">
         <v>206</v>
@@ -16728,30 +16125,30 @@
         <v>30</v>
       </c>
       <c r="N47" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="O47" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="O47" s="25" t="s">
+      <c r="P47" s="25" t="s">
         <v>264</v>
-      </c>
-      <c r="P47" s="25" t="s">
-        <v>265</v>
       </c>
       <c r="Q47" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" s="8" customFormat="1" spans="1:17">
+    <row r="48" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C48" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>35</v>
@@ -16769,10 +16166,10 @@
         <v>43</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K48" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L48" s="25" t="s">
         <v>155</v>
@@ -16781,30 +16178,30 @@
         <v>30</v>
       </c>
       <c r="N48" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="O48" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="O48" s="25" t="s">
+      <c r="P48" s="25" t="s">
         <v>264</v>
-      </c>
-      <c r="P48" s="25" t="s">
-        <v>265</v>
       </c>
       <c r="Q48" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" s="9" customFormat="1" spans="1:17">
+    <row r="49" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>22</v>
@@ -16816,46 +16213,46 @@
         <v>73</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J49" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K49" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K49" s="9" t="s">
+      <c r="L49" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="M49" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="N49" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="O49" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="P49" s="26"/>
       <c r="Q49" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="50" s="9" customFormat="1" spans="1:17">
+    <row r="50" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>22</v>
@@ -16867,46 +16264,46 @@
         <v>73</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J50" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K50" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="L50" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="M50" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M50" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N50" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P50" s="26"/>
       <c r="Q50" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="51" s="9" customFormat="1" spans="1:17">
+    <row r="51" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>22</v>
@@ -16918,46 +16315,46 @@
         <v>73</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J51" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K51" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="L51" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="M51" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M51" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N51" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P51" s="26"/>
       <c r="Q51" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="52" s="9" customFormat="1" spans="1:17">
+    <row r="52" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>22</v>
@@ -16969,46 +16366,46 @@
         <v>73</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J52" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K52" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="L52" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="M52" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M52" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N52" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P52" s="26"/>
       <c r="Q52" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="53" s="9" customFormat="1" spans="1:17">
+    <row r="53" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>22</v>
@@ -17020,46 +16417,46 @@
         <v>73</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J53" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K53" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="L53" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L53" s="9" t="s">
+      <c r="M53" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M53" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N53" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="O53" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="O53" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="P53" s="26"/>
       <c r="Q53" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="54" s="9" customFormat="1" spans="1:17">
+    <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>22</v>
@@ -17071,46 +16468,46 @@
         <v>73</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J54" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K54" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="L54" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="M54" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M54" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N54" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P54" s="26"/>
       <c r="Q54" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="55" s="9" customFormat="1" spans="1:17">
+    <row r="55" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>22</v>
@@ -17122,46 +16519,46 @@
         <v>73</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J55" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K55" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="L55" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="M55" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M55" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N55" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P55" s="26"/>
       <c r="Q55" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="56" s="9" customFormat="1" spans="1:17">
+    <row r="56" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>22</v>
@@ -17173,46 +16570,46 @@
         <v>73</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J56" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K56" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="L56" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="M56" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M56" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N56" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P56" s="26"/>
       <c r="Q56" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="57" s="9" customFormat="1" spans="1:17">
+    <row r="57" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>35</v>
@@ -17224,46 +16621,46 @@
         <v>73</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J57" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K57" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="L57" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="M57" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M57" s="9" t="s">
+      <c r="N57" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="O57" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="O57" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="P57" s="26"/>
       <c r="Q57" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="58" s="9" customFormat="1" spans="1:17">
+    <row r="58" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>35</v>
@@ -17275,46 +16672,46 @@
         <v>73</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J58" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K58" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="L58" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="M58" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M58" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N58" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P58" s="26"/>
       <c r="Q58" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="59" s="9" customFormat="1" spans="1:17">
+    <row r="59" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>35</v>
@@ -17326,46 +16723,46 @@
         <v>73</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J59" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K59" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="L59" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="M59" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M59" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N59" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P59" s="26"/>
       <c r="Q59" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="60" s="9" customFormat="1" spans="1:17">
+    <row r="60" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>35</v>
@@ -17377,46 +16774,46 @@
         <v>73</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J60" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K60" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="L60" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L60" s="9" t="s">
+      <c r="M60" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M60" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N60" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P60" s="26"/>
       <c r="Q60" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="61" s="9" customFormat="1" spans="1:17">
+    <row r="61" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>35</v>
@@ -17428,46 +16825,46 @@
         <v>73</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J61" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K61" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="L61" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="M61" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M61" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N61" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="O61" s="9" t="s">
         <v>284</v>
-      </c>
-      <c r="O61" s="9" t="s">
-        <v>285</v>
       </c>
       <c r="P61" s="26"/>
       <c r="Q61" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="62" s="9" customFormat="1" spans="1:17">
+    <row r="62" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>35</v>
@@ -17479,46 +16876,46 @@
         <v>73</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J62" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K62" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K62" s="9" t="s">
+      <c r="L62" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="M62" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M62" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N62" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P62" s="26"/>
       <c r="Q62" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="63" s="9" customFormat="1" spans="1:17">
+    <row r="63" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>35</v>
@@ -17530,46 +16927,46 @@
         <v>73</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J63" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K63" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="L63" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L63" s="9" t="s">
+      <c r="M63" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M63" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N63" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P63" s="26"/>
       <c r="Q63" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="64" s="9" customFormat="1" spans="1:17">
+    <row r="64" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>35</v>
@@ -17581,46 +16978,46 @@
         <v>73</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>75</v>
       </c>
       <c r="J64" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K64" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K64" s="9" t="s">
+      <c r="L64" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L64" s="9" t="s">
+      <c r="M64" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="M64" s="9" t="s">
-        <v>272</v>
-      </c>
       <c r="N64" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P64" s="26"/>
       <c r="Q64" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="C65" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>293</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>294</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>22</v>
@@ -17629,48 +17026,48 @@
         <v>23</v>
       </c>
       <c r="G65" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H65" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J65" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="K65" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="L65" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="L65" s="10" t="s">
+      <c r="M65" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="M65" s="10" t="s">
+      <c r="N65" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="N65" s="12" t="s">
+      <c r="O65" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="Q65" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>293</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>294</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>35</v>
@@ -17679,48 +17076,48 @@
         <v>23</v>
       </c>
       <c r="G66" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H66" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>296</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K66" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="L66" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="L66" s="10" t="s">
-        <v>304</v>
-      </c>
       <c r="M66" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="N66" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="N66" s="12" t="s">
+      <c r="O66" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="Q66" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>22</v>
@@ -17729,48 +17126,48 @@
         <v>23</v>
       </c>
       <c r="G67" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H67" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>43</v>
       </c>
       <c r="J67" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="K67" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="L67" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="L67" s="10" t="s">
+      <c r="M67" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="N67" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="M67" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="N67" s="12" t="s">
-        <v>312</v>
-      </c>
       <c r="O67" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q67" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>35</v>
@@ -17779,64 +17176,60 @@
         <v>23</v>
       </c>
       <c r="G68" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H68" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>43</v>
       </c>
       <c r="J68" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="K68" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="L68" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="L68" s="10" t="s">
-        <v>315</v>
-      </c>
       <c r="M68" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q68" s="10" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q64">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:Q64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q22" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP4/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
+    <hyperlink ref="Q22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="0.984251968503937" bottom="0.984251968503937" header="0.511811023622047" footer="0.511811023622047"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
@@ -17847,15 +17240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -17863,17 +17255,18 @@
     <col min="4" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>317</v>
-      </c>
     </row>
-    <row r="10" ht="27" customHeight="1"/>
+    <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R文档密级</oddHeader>

--- a/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\118\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8BBC9D-38BB-406A-8A7C-90718988D303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7571C79-C360-4EC4-AAD1-AC81CCC9922D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1533,7 +1531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
+      <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\129\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7571C79-C360-4EC4-AAD1-AC81CCC9922D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC29940-4B2C-4DD6-A4F7-C4125AE6FEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="325">
   <si>
     <t>vendorID</t>
   </si>
@@ -987,13 +987,37 @@
   </si>
   <si>
     <t>问题</t>
+  </si>
+  <si>
+    <t>23.10-0.5.5</t>
+  </si>
+  <si>
+    <t>2023.12.15</t>
+  </si>
+  <si>
+    <t>bba9ad8ab8d0255fc75e7f1c2bd9bffcf862ccd1eef87138cafd3cd524a38125</t>
+  </si>
+  <si>
+    <t>191M</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP4/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.10-0.5.5.0-openeuler20.03sp4-x86_64.tgz</t>
+  </si>
+  <si>
+    <t>645a4a09098152d6b399664eb018ed68f6a591d14e075db407a31891de31b0bf</t>
+  </si>
+  <si>
+    <t>175M</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP4/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.10-0.5.5.0-openeuler20.03sp4-aarch64.tgz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1035,6 +1059,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1107,7 +1138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -1180,6 +1211,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1527,11 +1569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ68"/>
+  <dimension ref="A1:AMJ70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
+      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17004,7 +17046,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>291</v>
       </c>
@@ -17054,7 +17096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>291</v>
       </c>
@@ -17104,7 +17146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>291</v>
       </c>
@@ -17154,7 +17196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>291</v>
       </c>
@@ -17203,6 +17245,2126 @@
       <c r="Q68" s="10" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="69" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A69" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="I69" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="K69" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="L69" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="M69" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="N69" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="O69" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="P69" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q69" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="R69" s="36"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="36"/>
+      <c r="U69" s="36"/>
+      <c r="V69" s="36"/>
+      <c r="W69" s="36"/>
+      <c r="X69" s="36"/>
+      <c r="Y69" s="36"/>
+      <c r="Z69" s="36"/>
+      <c r="AA69" s="36"/>
+      <c r="AB69" s="36"/>
+      <c r="AC69" s="36"/>
+      <c r="AD69" s="36"/>
+      <c r="AE69" s="36"/>
+      <c r="AF69" s="36"/>
+      <c r="AG69" s="36"/>
+      <c r="AH69" s="36"/>
+      <c r="AI69" s="36"/>
+      <c r="AJ69" s="36"/>
+      <c r="AK69" s="36"/>
+      <c r="AL69" s="36"/>
+      <c r="AM69" s="36"/>
+      <c r="AN69" s="36"/>
+      <c r="AO69" s="36"/>
+      <c r="AP69" s="36"/>
+      <c r="AQ69" s="36"/>
+      <c r="AR69" s="36"/>
+      <c r="AS69" s="36"/>
+      <c r="AT69" s="36"/>
+      <c r="AU69" s="36"/>
+      <c r="AV69" s="36"/>
+      <c r="AW69" s="36"/>
+      <c r="AX69" s="36"/>
+      <c r="AY69" s="36"/>
+      <c r="AZ69" s="36"/>
+      <c r="BA69" s="36"/>
+      <c r="BB69" s="36"/>
+      <c r="BC69" s="36"/>
+      <c r="BD69" s="36"/>
+      <c r="BE69" s="36"/>
+      <c r="BF69" s="36"/>
+      <c r="BG69" s="36"/>
+      <c r="BH69" s="36"/>
+      <c r="BI69" s="36"/>
+      <c r="BJ69" s="36"/>
+      <c r="BK69" s="36"/>
+      <c r="BL69" s="36"/>
+      <c r="BM69" s="36"/>
+      <c r="BN69" s="36"/>
+      <c r="BO69" s="36"/>
+      <c r="BP69" s="36"/>
+      <c r="BQ69" s="36"/>
+      <c r="BR69" s="36"/>
+      <c r="BS69" s="36"/>
+      <c r="BT69" s="36"/>
+      <c r="BU69" s="36"/>
+      <c r="BV69" s="36"/>
+      <c r="BW69" s="36"/>
+      <c r="BX69" s="36"/>
+      <c r="BY69" s="36"/>
+      <c r="BZ69" s="36"/>
+      <c r="CA69" s="36"/>
+      <c r="CB69" s="36"/>
+      <c r="CC69" s="36"/>
+      <c r="CD69" s="36"/>
+      <c r="CE69" s="36"/>
+      <c r="CF69" s="36"/>
+      <c r="CG69" s="36"/>
+      <c r="CH69" s="36"/>
+      <c r="CI69" s="36"/>
+      <c r="CJ69" s="36"/>
+      <c r="CK69" s="36"/>
+      <c r="CL69" s="36"/>
+      <c r="CM69" s="36"/>
+      <c r="CN69" s="36"/>
+      <c r="CO69" s="36"/>
+      <c r="CP69" s="36"/>
+      <c r="CQ69" s="36"/>
+      <c r="CR69" s="36"/>
+      <c r="CS69" s="36"/>
+      <c r="CT69" s="36"/>
+      <c r="CU69" s="36"/>
+      <c r="CV69" s="36"/>
+      <c r="CW69" s="36"/>
+      <c r="CX69" s="36"/>
+      <c r="CY69" s="36"/>
+      <c r="CZ69" s="36"/>
+      <c r="DA69" s="36"/>
+      <c r="DB69" s="36"/>
+      <c r="DC69" s="36"/>
+      <c r="DD69" s="36"/>
+      <c r="DE69" s="36"/>
+      <c r="DF69" s="36"/>
+      <c r="DG69" s="36"/>
+      <c r="DH69" s="36"/>
+      <c r="DI69" s="36"/>
+      <c r="DJ69" s="36"/>
+      <c r="DK69" s="36"/>
+      <c r="DL69" s="36"/>
+      <c r="DM69" s="36"/>
+      <c r="DN69" s="36"/>
+      <c r="DO69" s="36"/>
+      <c r="DP69" s="36"/>
+      <c r="DQ69" s="36"/>
+      <c r="DR69" s="36"/>
+      <c r="DS69" s="36"/>
+      <c r="DT69" s="36"/>
+      <c r="DU69" s="36"/>
+      <c r="DV69" s="36"/>
+      <c r="DW69" s="36"/>
+      <c r="DX69" s="36"/>
+      <c r="DY69" s="36"/>
+      <c r="DZ69" s="36"/>
+      <c r="EA69" s="36"/>
+      <c r="EB69" s="36"/>
+      <c r="EC69" s="36"/>
+      <c r="ED69" s="36"/>
+      <c r="EE69" s="36"/>
+      <c r="EF69" s="36"/>
+      <c r="EG69" s="36"/>
+      <c r="EH69" s="36"/>
+      <c r="EI69" s="36"/>
+      <c r="EJ69" s="36"/>
+      <c r="EK69" s="36"/>
+      <c r="EL69" s="36"/>
+      <c r="EM69" s="36"/>
+      <c r="EN69" s="36"/>
+      <c r="EO69" s="36"/>
+      <c r="EP69" s="36"/>
+      <c r="EQ69" s="36"/>
+      <c r="ER69" s="36"/>
+      <c r="ES69" s="36"/>
+      <c r="ET69" s="36"/>
+      <c r="EU69" s="36"/>
+      <c r="EV69" s="36"/>
+      <c r="EW69" s="36"/>
+      <c r="EX69" s="36"/>
+      <c r="EY69" s="36"/>
+      <c r="EZ69" s="36"/>
+      <c r="FA69" s="36"/>
+      <c r="FB69" s="36"/>
+      <c r="FC69" s="36"/>
+      <c r="FD69" s="36"/>
+      <c r="FE69" s="36"/>
+      <c r="FF69" s="36"/>
+      <c r="FG69" s="36"/>
+      <c r="FH69" s="36"/>
+      <c r="FI69" s="36"/>
+      <c r="FJ69" s="36"/>
+      <c r="FK69" s="36"/>
+      <c r="FL69" s="36"/>
+      <c r="FM69" s="36"/>
+      <c r="FN69" s="36"/>
+      <c r="FO69" s="36"/>
+      <c r="FP69" s="36"/>
+      <c r="FQ69" s="36"/>
+      <c r="FR69" s="36"/>
+      <c r="FS69" s="36"/>
+      <c r="FT69" s="36"/>
+      <c r="FU69" s="36"/>
+      <c r="FV69" s="36"/>
+      <c r="FW69" s="36"/>
+      <c r="FX69" s="36"/>
+      <c r="FY69" s="36"/>
+      <c r="FZ69" s="36"/>
+      <c r="GA69" s="36"/>
+      <c r="GB69" s="36"/>
+      <c r="GC69" s="36"/>
+      <c r="GD69" s="36"/>
+      <c r="GE69" s="36"/>
+      <c r="GF69" s="36"/>
+      <c r="GG69" s="36"/>
+      <c r="GH69" s="36"/>
+      <c r="GI69" s="36"/>
+      <c r="GJ69" s="36"/>
+      <c r="GK69" s="36"/>
+      <c r="GL69" s="36"/>
+      <c r="GM69" s="36"/>
+      <c r="GN69" s="36"/>
+      <c r="GO69" s="36"/>
+      <c r="GP69" s="36"/>
+      <c r="GQ69" s="36"/>
+      <c r="GR69" s="36"/>
+      <c r="GS69" s="36"/>
+      <c r="GT69" s="36"/>
+      <c r="GU69" s="36"/>
+      <c r="GV69" s="36"/>
+      <c r="GW69" s="36"/>
+      <c r="GX69" s="36"/>
+      <c r="GY69" s="36"/>
+      <c r="GZ69" s="36"/>
+      <c r="HA69" s="36"/>
+      <c r="HB69" s="36"/>
+      <c r="HC69" s="36"/>
+      <c r="HD69" s="36"/>
+      <c r="HE69" s="36"/>
+      <c r="HF69" s="36"/>
+      <c r="HG69" s="36"/>
+      <c r="HH69" s="36"/>
+      <c r="HI69" s="36"/>
+      <c r="HJ69" s="36"/>
+      <c r="HK69" s="36"/>
+      <c r="HL69" s="36"/>
+      <c r="HM69" s="36"/>
+      <c r="HN69" s="36"/>
+      <c r="HO69" s="36"/>
+      <c r="HP69" s="36"/>
+      <c r="HQ69" s="36"/>
+      <c r="HR69" s="36"/>
+      <c r="HS69" s="36"/>
+      <c r="HT69" s="36"/>
+      <c r="HU69" s="36"/>
+      <c r="HV69" s="36"/>
+      <c r="HW69" s="36"/>
+      <c r="HX69" s="36"/>
+      <c r="HY69" s="36"/>
+      <c r="HZ69" s="36"/>
+      <c r="IA69" s="36"/>
+      <c r="IB69" s="36"/>
+      <c r="IC69" s="36"/>
+      <c r="ID69" s="36"/>
+      <c r="IE69" s="36"/>
+      <c r="IF69" s="36"/>
+      <c r="IG69" s="36"/>
+      <c r="IH69" s="36"/>
+      <c r="II69" s="36"/>
+      <c r="IJ69" s="36"/>
+      <c r="IK69" s="36"/>
+      <c r="IL69" s="36"/>
+      <c r="IM69" s="36"/>
+      <c r="IN69" s="36"/>
+      <c r="IO69" s="36"/>
+      <c r="IP69" s="36"/>
+      <c r="IQ69" s="36"/>
+      <c r="IR69" s="36"/>
+      <c r="IS69" s="36"/>
+      <c r="IT69" s="36"/>
+      <c r="IU69" s="36"/>
+      <c r="IV69" s="36"/>
+      <c r="IW69" s="36"/>
+      <c r="IX69" s="36"/>
+      <c r="IY69" s="36"/>
+      <c r="IZ69" s="36"/>
+      <c r="JA69" s="36"/>
+      <c r="JB69" s="36"/>
+      <c r="JC69" s="36"/>
+      <c r="JD69" s="36"/>
+      <c r="JE69" s="36"/>
+      <c r="JF69" s="36"/>
+      <c r="JG69" s="36"/>
+      <c r="JH69" s="36"/>
+      <c r="JI69" s="36"/>
+      <c r="JJ69" s="36"/>
+      <c r="JK69" s="36"/>
+      <c r="JL69" s="36"/>
+      <c r="JM69" s="36"/>
+      <c r="JN69" s="36"/>
+      <c r="JO69" s="36"/>
+      <c r="JP69" s="36"/>
+      <c r="JQ69" s="36"/>
+      <c r="JR69" s="36"/>
+      <c r="JS69" s="36"/>
+      <c r="JT69" s="36"/>
+      <c r="JU69" s="36"/>
+      <c r="JV69" s="36"/>
+      <c r="JW69" s="36"/>
+      <c r="JX69" s="36"/>
+      <c r="JY69" s="36"/>
+      <c r="JZ69" s="36"/>
+      <c r="KA69" s="36"/>
+      <c r="KB69" s="36"/>
+      <c r="KC69" s="36"/>
+      <c r="KD69" s="36"/>
+      <c r="KE69" s="36"/>
+      <c r="KF69" s="36"/>
+      <c r="KG69" s="36"/>
+      <c r="KH69" s="36"/>
+      <c r="KI69" s="36"/>
+      <c r="KJ69" s="36"/>
+      <c r="KK69" s="36"/>
+      <c r="KL69" s="36"/>
+      <c r="KM69" s="36"/>
+      <c r="KN69" s="36"/>
+      <c r="KO69" s="36"/>
+      <c r="KP69" s="36"/>
+      <c r="KQ69" s="36"/>
+      <c r="KR69" s="36"/>
+      <c r="KS69" s="36"/>
+      <c r="KT69" s="36"/>
+      <c r="KU69" s="36"/>
+      <c r="KV69" s="36"/>
+      <c r="KW69" s="36"/>
+      <c r="KX69" s="36"/>
+      <c r="KY69" s="36"/>
+      <c r="KZ69" s="36"/>
+      <c r="LA69" s="36"/>
+      <c r="LB69" s="36"/>
+      <c r="LC69" s="36"/>
+      <c r="LD69" s="36"/>
+      <c r="LE69" s="36"/>
+      <c r="LF69" s="36"/>
+      <c r="LG69" s="36"/>
+      <c r="LH69" s="36"/>
+      <c r="LI69" s="36"/>
+      <c r="LJ69" s="36"/>
+      <c r="LK69" s="36"/>
+      <c r="LL69" s="36"/>
+      <c r="LM69" s="36"/>
+      <c r="LN69" s="36"/>
+      <c r="LO69" s="36"/>
+      <c r="LP69" s="36"/>
+      <c r="LQ69" s="36"/>
+      <c r="LR69" s="36"/>
+      <c r="LS69" s="36"/>
+      <c r="LT69" s="36"/>
+      <c r="LU69" s="36"/>
+      <c r="LV69" s="36"/>
+      <c r="LW69" s="36"/>
+      <c r="LX69" s="36"/>
+      <c r="LY69" s="36"/>
+      <c r="LZ69" s="36"/>
+      <c r="MA69" s="36"/>
+      <c r="MB69" s="36"/>
+      <c r="MC69" s="36"/>
+      <c r="MD69" s="36"/>
+      <c r="ME69" s="36"/>
+      <c r="MF69" s="36"/>
+      <c r="MG69" s="36"/>
+      <c r="MH69" s="36"/>
+      <c r="MI69" s="36"/>
+      <c r="MJ69" s="36"/>
+      <c r="MK69" s="36"/>
+      <c r="ML69" s="36"/>
+      <c r="MM69" s="36"/>
+      <c r="MN69" s="36"/>
+      <c r="MO69" s="36"/>
+      <c r="MP69" s="36"/>
+      <c r="MQ69" s="36"/>
+      <c r="MR69" s="36"/>
+      <c r="MS69" s="36"/>
+      <c r="MT69" s="36"/>
+      <c r="MU69" s="36"/>
+      <c r="MV69" s="36"/>
+      <c r="MW69" s="36"/>
+      <c r="MX69" s="36"/>
+      <c r="MY69" s="36"/>
+      <c r="MZ69" s="36"/>
+      <c r="NA69" s="36"/>
+      <c r="NB69" s="36"/>
+      <c r="NC69" s="36"/>
+      <c r="ND69" s="36"/>
+      <c r="NE69" s="36"/>
+      <c r="NF69" s="36"/>
+      <c r="NG69" s="36"/>
+      <c r="NH69" s="36"/>
+      <c r="NI69" s="36"/>
+      <c r="NJ69" s="36"/>
+      <c r="NK69" s="36"/>
+      <c r="NL69" s="36"/>
+      <c r="NM69" s="36"/>
+      <c r="NN69" s="36"/>
+      <c r="NO69" s="36"/>
+      <c r="NP69" s="36"/>
+      <c r="NQ69" s="36"/>
+      <c r="NR69" s="36"/>
+      <c r="NS69" s="36"/>
+      <c r="NT69" s="36"/>
+      <c r="NU69" s="36"/>
+      <c r="NV69" s="36"/>
+      <c r="NW69" s="36"/>
+      <c r="NX69" s="36"/>
+      <c r="NY69" s="36"/>
+      <c r="NZ69" s="36"/>
+      <c r="OA69" s="36"/>
+      <c r="OB69" s="36"/>
+      <c r="OC69" s="36"/>
+      <c r="OD69" s="36"/>
+      <c r="OE69" s="36"/>
+      <c r="OF69" s="36"/>
+      <c r="OG69" s="36"/>
+      <c r="OH69" s="36"/>
+      <c r="OI69" s="36"/>
+      <c r="OJ69" s="36"/>
+      <c r="OK69" s="36"/>
+      <c r="OL69" s="36"/>
+      <c r="OM69" s="36"/>
+      <c r="ON69" s="36"/>
+      <c r="OO69" s="36"/>
+      <c r="OP69" s="36"/>
+      <c r="OQ69" s="36"/>
+      <c r="OR69" s="36"/>
+      <c r="OS69" s="36"/>
+      <c r="OT69" s="36"/>
+      <c r="OU69" s="36"/>
+      <c r="OV69" s="36"/>
+      <c r="OW69" s="36"/>
+      <c r="OX69" s="36"/>
+      <c r="OY69" s="36"/>
+      <c r="OZ69" s="36"/>
+      <c r="PA69" s="36"/>
+      <c r="PB69" s="36"/>
+      <c r="PC69" s="36"/>
+      <c r="PD69" s="36"/>
+      <c r="PE69" s="36"/>
+      <c r="PF69" s="36"/>
+      <c r="PG69" s="36"/>
+      <c r="PH69" s="36"/>
+      <c r="PI69" s="36"/>
+      <c r="PJ69" s="36"/>
+      <c r="PK69" s="36"/>
+      <c r="PL69" s="36"/>
+      <c r="PM69" s="36"/>
+      <c r="PN69" s="36"/>
+      <c r="PO69" s="36"/>
+      <c r="PP69" s="36"/>
+      <c r="PQ69" s="36"/>
+      <c r="PR69" s="36"/>
+      <c r="PS69" s="36"/>
+      <c r="PT69" s="36"/>
+      <c r="PU69" s="36"/>
+      <c r="PV69" s="36"/>
+      <c r="PW69" s="36"/>
+      <c r="PX69" s="36"/>
+      <c r="PY69" s="36"/>
+      <c r="PZ69" s="36"/>
+      <c r="QA69" s="36"/>
+      <c r="QB69" s="36"/>
+      <c r="QC69" s="36"/>
+      <c r="QD69" s="36"/>
+      <c r="QE69" s="36"/>
+      <c r="QF69" s="36"/>
+      <c r="QG69" s="36"/>
+      <c r="QH69" s="36"/>
+      <c r="QI69" s="36"/>
+      <c r="QJ69" s="36"/>
+      <c r="QK69" s="36"/>
+      <c r="QL69" s="36"/>
+      <c r="QM69" s="36"/>
+      <c r="QN69" s="36"/>
+      <c r="QO69" s="36"/>
+      <c r="QP69" s="36"/>
+      <c r="QQ69" s="36"/>
+      <c r="QR69" s="36"/>
+      <c r="QS69" s="36"/>
+      <c r="QT69" s="36"/>
+      <c r="QU69" s="36"/>
+      <c r="QV69" s="36"/>
+      <c r="QW69" s="36"/>
+      <c r="QX69" s="36"/>
+      <c r="QY69" s="36"/>
+      <c r="QZ69" s="36"/>
+      <c r="RA69" s="36"/>
+      <c r="RB69" s="36"/>
+      <c r="RC69" s="36"/>
+      <c r="RD69" s="36"/>
+      <c r="RE69" s="36"/>
+      <c r="RF69" s="36"/>
+      <c r="RG69" s="36"/>
+      <c r="RH69" s="36"/>
+      <c r="RI69" s="36"/>
+      <c r="RJ69" s="36"/>
+      <c r="RK69" s="36"/>
+      <c r="RL69" s="36"/>
+      <c r="RM69" s="36"/>
+      <c r="RN69" s="36"/>
+      <c r="RO69" s="36"/>
+      <c r="RP69" s="36"/>
+      <c r="RQ69" s="36"/>
+      <c r="RR69" s="36"/>
+      <c r="RS69" s="36"/>
+      <c r="RT69" s="36"/>
+      <c r="RU69" s="36"/>
+      <c r="RV69" s="36"/>
+      <c r="RW69" s="36"/>
+      <c r="RX69" s="36"/>
+      <c r="RY69" s="36"/>
+      <c r="RZ69" s="36"/>
+      <c r="SA69" s="36"/>
+      <c r="SB69" s="36"/>
+      <c r="SC69" s="36"/>
+      <c r="SD69" s="36"/>
+      <c r="SE69" s="36"/>
+      <c r="SF69" s="36"/>
+      <c r="SG69" s="36"/>
+      <c r="SH69" s="36"/>
+      <c r="SI69" s="36"/>
+      <c r="SJ69" s="36"/>
+      <c r="SK69" s="36"/>
+      <c r="SL69" s="36"/>
+      <c r="SM69" s="36"/>
+      <c r="SN69" s="36"/>
+      <c r="SO69" s="36"/>
+      <c r="SP69" s="36"/>
+      <c r="SQ69" s="36"/>
+      <c r="SR69" s="36"/>
+      <c r="SS69" s="36"/>
+      <c r="ST69" s="36"/>
+      <c r="SU69" s="36"/>
+      <c r="SV69" s="36"/>
+      <c r="SW69" s="36"/>
+      <c r="SX69" s="36"/>
+      <c r="SY69" s="36"/>
+      <c r="SZ69" s="36"/>
+      <c r="TA69" s="36"/>
+      <c r="TB69" s="36"/>
+      <c r="TC69" s="36"/>
+      <c r="TD69" s="36"/>
+      <c r="TE69" s="36"/>
+      <c r="TF69" s="36"/>
+      <c r="TG69" s="36"/>
+      <c r="TH69" s="36"/>
+      <c r="TI69" s="36"/>
+      <c r="TJ69" s="36"/>
+      <c r="TK69" s="36"/>
+      <c r="TL69" s="36"/>
+      <c r="TM69" s="36"/>
+      <c r="TN69" s="36"/>
+      <c r="TO69" s="36"/>
+      <c r="TP69" s="36"/>
+      <c r="TQ69" s="36"/>
+      <c r="TR69" s="36"/>
+      <c r="TS69" s="36"/>
+      <c r="TT69" s="36"/>
+      <c r="TU69" s="36"/>
+      <c r="TV69" s="36"/>
+      <c r="TW69" s="36"/>
+      <c r="TX69" s="36"/>
+      <c r="TY69" s="36"/>
+      <c r="TZ69" s="36"/>
+      <c r="UA69" s="36"/>
+      <c r="UB69" s="36"/>
+      <c r="UC69" s="36"/>
+      <c r="UD69" s="36"/>
+      <c r="UE69" s="36"/>
+      <c r="UF69" s="36"/>
+      <c r="UG69" s="36"/>
+      <c r="UH69" s="36"/>
+      <c r="UI69" s="36"/>
+      <c r="UJ69" s="36"/>
+      <c r="UK69" s="36"/>
+      <c r="UL69" s="36"/>
+      <c r="UM69" s="36"/>
+      <c r="UN69" s="36"/>
+      <c r="UO69" s="36"/>
+      <c r="UP69" s="36"/>
+      <c r="UQ69" s="36"/>
+      <c r="UR69" s="36"/>
+      <c r="US69" s="36"/>
+      <c r="UT69" s="36"/>
+      <c r="UU69" s="36"/>
+      <c r="UV69" s="36"/>
+      <c r="UW69" s="36"/>
+      <c r="UX69" s="36"/>
+      <c r="UY69" s="36"/>
+      <c r="UZ69" s="36"/>
+      <c r="VA69" s="36"/>
+      <c r="VB69" s="36"/>
+      <c r="VC69" s="36"/>
+      <c r="VD69" s="36"/>
+      <c r="VE69" s="36"/>
+      <c r="VF69" s="36"/>
+      <c r="VG69" s="36"/>
+      <c r="VH69" s="36"/>
+      <c r="VI69" s="36"/>
+      <c r="VJ69" s="36"/>
+      <c r="VK69" s="36"/>
+      <c r="VL69" s="36"/>
+      <c r="VM69" s="36"/>
+      <c r="VN69" s="36"/>
+      <c r="VO69" s="36"/>
+      <c r="VP69" s="36"/>
+      <c r="VQ69" s="36"/>
+      <c r="VR69" s="36"/>
+      <c r="VS69" s="36"/>
+      <c r="VT69" s="36"/>
+      <c r="VU69" s="36"/>
+      <c r="VV69" s="36"/>
+      <c r="VW69" s="36"/>
+      <c r="VX69" s="36"/>
+      <c r="VY69" s="36"/>
+      <c r="VZ69" s="36"/>
+      <c r="WA69" s="36"/>
+      <c r="WB69" s="36"/>
+      <c r="WC69" s="36"/>
+      <c r="WD69" s="36"/>
+      <c r="WE69" s="36"/>
+      <c r="WF69" s="36"/>
+      <c r="WG69" s="36"/>
+      <c r="WH69" s="36"/>
+      <c r="WI69" s="36"/>
+      <c r="WJ69" s="36"/>
+      <c r="WK69" s="36"/>
+      <c r="WL69" s="36"/>
+      <c r="WM69" s="36"/>
+      <c r="WN69" s="36"/>
+      <c r="WO69" s="36"/>
+      <c r="WP69" s="36"/>
+      <c r="WQ69" s="36"/>
+      <c r="WR69" s="36"/>
+      <c r="WS69" s="36"/>
+      <c r="WT69" s="36"/>
+      <c r="WU69" s="36"/>
+      <c r="WV69" s="36"/>
+      <c r="WW69" s="36"/>
+      <c r="WX69" s="36"/>
+      <c r="WY69" s="36"/>
+      <c r="WZ69" s="36"/>
+      <c r="XA69" s="36"/>
+      <c r="XB69" s="36"/>
+      <c r="XC69" s="36"/>
+      <c r="XD69" s="36"/>
+      <c r="XE69" s="36"/>
+      <c r="XF69" s="36"/>
+      <c r="XG69" s="36"/>
+      <c r="XH69" s="36"/>
+      <c r="XI69" s="36"/>
+      <c r="XJ69" s="36"/>
+      <c r="XK69" s="36"/>
+      <c r="XL69" s="36"/>
+      <c r="XM69" s="36"/>
+      <c r="XN69" s="36"/>
+      <c r="XO69" s="36"/>
+      <c r="XP69" s="36"/>
+      <c r="XQ69" s="36"/>
+      <c r="XR69" s="36"/>
+      <c r="XS69" s="36"/>
+      <c r="XT69" s="36"/>
+      <c r="XU69" s="36"/>
+      <c r="XV69" s="36"/>
+      <c r="XW69" s="36"/>
+      <c r="XX69" s="36"/>
+      <c r="XY69" s="36"/>
+      <c r="XZ69" s="36"/>
+      <c r="YA69" s="36"/>
+      <c r="YB69" s="36"/>
+      <c r="YC69" s="36"/>
+      <c r="YD69" s="36"/>
+      <c r="YE69" s="36"/>
+      <c r="YF69" s="36"/>
+      <c r="YG69" s="36"/>
+      <c r="YH69" s="36"/>
+      <c r="YI69" s="36"/>
+      <c r="YJ69" s="36"/>
+      <c r="YK69" s="36"/>
+      <c r="YL69" s="36"/>
+      <c r="YM69" s="36"/>
+      <c r="YN69" s="36"/>
+      <c r="YO69" s="36"/>
+      <c r="YP69" s="36"/>
+      <c r="YQ69" s="36"/>
+      <c r="YR69" s="36"/>
+      <c r="YS69" s="36"/>
+      <c r="YT69" s="36"/>
+      <c r="YU69" s="36"/>
+      <c r="YV69" s="36"/>
+      <c r="YW69" s="36"/>
+      <c r="YX69" s="36"/>
+      <c r="YY69" s="36"/>
+      <c r="YZ69" s="36"/>
+      <c r="ZA69" s="36"/>
+      <c r="ZB69" s="36"/>
+      <c r="ZC69" s="36"/>
+      <c r="ZD69" s="36"/>
+      <c r="ZE69" s="36"/>
+      <c r="ZF69" s="36"/>
+      <c r="ZG69" s="36"/>
+      <c r="ZH69" s="36"/>
+      <c r="ZI69" s="36"/>
+      <c r="ZJ69" s="36"/>
+      <c r="ZK69" s="36"/>
+      <c r="ZL69" s="36"/>
+      <c r="ZM69" s="36"/>
+      <c r="ZN69" s="36"/>
+      <c r="ZO69" s="36"/>
+      <c r="ZP69" s="36"/>
+      <c r="ZQ69" s="36"/>
+      <c r="ZR69" s="36"/>
+      <c r="ZS69" s="36"/>
+      <c r="ZT69" s="36"/>
+      <c r="ZU69" s="36"/>
+      <c r="ZV69" s="36"/>
+      <c r="ZW69" s="36"/>
+      <c r="ZX69" s="36"/>
+      <c r="ZY69" s="36"/>
+      <c r="ZZ69" s="36"/>
+      <c r="AAA69" s="36"/>
+      <c r="AAB69" s="36"/>
+      <c r="AAC69" s="36"/>
+      <c r="AAD69" s="36"/>
+      <c r="AAE69" s="36"/>
+      <c r="AAF69" s="36"/>
+      <c r="AAG69" s="36"/>
+      <c r="AAH69" s="36"/>
+      <c r="AAI69" s="36"/>
+      <c r="AAJ69" s="36"/>
+      <c r="AAK69" s="36"/>
+      <c r="AAL69" s="36"/>
+      <c r="AAM69" s="36"/>
+      <c r="AAN69" s="36"/>
+      <c r="AAO69" s="36"/>
+      <c r="AAP69" s="36"/>
+      <c r="AAQ69" s="36"/>
+      <c r="AAR69" s="36"/>
+      <c r="AAS69" s="36"/>
+      <c r="AAT69" s="36"/>
+      <c r="AAU69" s="36"/>
+      <c r="AAV69" s="36"/>
+      <c r="AAW69" s="36"/>
+      <c r="AAX69" s="36"/>
+      <c r="AAY69" s="36"/>
+      <c r="AAZ69" s="36"/>
+      <c r="ABA69" s="36"/>
+      <c r="ABB69" s="36"/>
+      <c r="ABC69" s="36"/>
+      <c r="ABD69" s="36"/>
+      <c r="ABE69" s="36"/>
+      <c r="ABF69" s="36"/>
+      <c r="ABG69" s="36"/>
+      <c r="ABH69" s="36"/>
+      <c r="ABI69" s="36"/>
+      <c r="ABJ69" s="36"/>
+      <c r="ABK69" s="36"/>
+      <c r="ABL69" s="36"/>
+      <c r="ABM69" s="36"/>
+      <c r="ABN69" s="36"/>
+      <c r="ABO69" s="36"/>
+      <c r="ABP69" s="36"/>
+      <c r="ABQ69" s="36"/>
+      <c r="ABR69" s="36"/>
+      <c r="ABS69" s="36"/>
+      <c r="ABT69" s="36"/>
+      <c r="ABU69" s="36"/>
+      <c r="ABV69" s="36"/>
+      <c r="ABW69" s="36"/>
+      <c r="ABX69" s="36"/>
+      <c r="ABY69" s="36"/>
+      <c r="ABZ69" s="36"/>
+      <c r="ACA69" s="36"/>
+      <c r="ACB69" s="36"/>
+      <c r="ACC69" s="36"/>
+      <c r="ACD69" s="36"/>
+      <c r="ACE69" s="36"/>
+      <c r="ACF69" s="36"/>
+      <c r="ACG69" s="36"/>
+      <c r="ACH69" s="36"/>
+      <c r="ACI69" s="36"/>
+      <c r="ACJ69" s="36"/>
+      <c r="ACK69" s="36"/>
+      <c r="ACL69" s="36"/>
+      <c r="ACM69" s="36"/>
+      <c r="ACN69" s="36"/>
+      <c r="ACO69" s="36"/>
+      <c r="ACP69" s="36"/>
+      <c r="ACQ69" s="36"/>
+      <c r="ACR69" s="36"/>
+      <c r="ACS69" s="36"/>
+      <c r="ACT69" s="36"/>
+      <c r="ACU69" s="36"/>
+      <c r="ACV69" s="36"/>
+      <c r="ACW69" s="36"/>
+      <c r="ACX69" s="36"/>
+      <c r="ACY69" s="36"/>
+      <c r="ACZ69" s="36"/>
+      <c r="ADA69" s="36"/>
+      <c r="ADB69" s="36"/>
+      <c r="ADC69" s="36"/>
+      <c r="ADD69" s="36"/>
+      <c r="ADE69" s="36"/>
+      <c r="ADF69" s="36"/>
+      <c r="ADG69" s="36"/>
+      <c r="ADH69" s="36"/>
+      <c r="ADI69" s="36"/>
+      <c r="ADJ69" s="36"/>
+      <c r="ADK69" s="36"/>
+      <c r="ADL69" s="36"/>
+      <c r="ADM69" s="36"/>
+      <c r="ADN69" s="36"/>
+      <c r="ADO69" s="36"/>
+      <c r="ADP69" s="36"/>
+      <c r="ADQ69" s="36"/>
+      <c r="ADR69" s="36"/>
+      <c r="ADS69" s="36"/>
+      <c r="ADT69" s="36"/>
+      <c r="ADU69" s="36"/>
+      <c r="ADV69" s="36"/>
+      <c r="ADW69" s="36"/>
+      <c r="ADX69" s="36"/>
+      <c r="ADY69" s="36"/>
+      <c r="ADZ69" s="36"/>
+      <c r="AEA69" s="36"/>
+      <c r="AEB69" s="36"/>
+      <c r="AEC69" s="36"/>
+      <c r="AED69" s="36"/>
+      <c r="AEE69" s="36"/>
+      <c r="AEF69" s="36"/>
+      <c r="AEG69" s="36"/>
+      <c r="AEH69" s="36"/>
+      <c r="AEI69" s="36"/>
+      <c r="AEJ69" s="36"/>
+      <c r="AEK69" s="36"/>
+      <c r="AEL69" s="36"/>
+      <c r="AEM69" s="36"/>
+      <c r="AEN69" s="36"/>
+      <c r="AEO69" s="36"/>
+      <c r="AEP69" s="36"/>
+      <c r="AEQ69" s="36"/>
+      <c r="AER69" s="36"/>
+      <c r="AES69" s="36"/>
+      <c r="AET69" s="36"/>
+      <c r="AEU69" s="36"/>
+      <c r="AEV69" s="36"/>
+      <c r="AEW69" s="36"/>
+      <c r="AEX69" s="36"/>
+      <c r="AEY69" s="36"/>
+      <c r="AEZ69" s="36"/>
+      <c r="AFA69" s="36"/>
+      <c r="AFB69" s="36"/>
+      <c r="AFC69" s="36"/>
+      <c r="AFD69" s="36"/>
+      <c r="AFE69" s="36"/>
+      <c r="AFF69" s="36"/>
+      <c r="AFG69" s="36"/>
+      <c r="AFH69" s="36"/>
+      <c r="AFI69" s="36"/>
+      <c r="AFJ69" s="36"/>
+      <c r="AFK69" s="36"/>
+      <c r="AFL69" s="36"/>
+      <c r="AFM69" s="36"/>
+      <c r="AFN69" s="36"/>
+      <c r="AFO69" s="36"/>
+      <c r="AFP69" s="36"/>
+      <c r="AFQ69" s="36"/>
+      <c r="AFR69" s="36"/>
+      <c r="AFS69" s="36"/>
+      <c r="AFT69" s="36"/>
+      <c r="AFU69" s="36"/>
+      <c r="AFV69" s="36"/>
+      <c r="AFW69" s="36"/>
+      <c r="AFX69" s="36"/>
+      <c r="AFY69" s="36"/>
+      <c r="AFZ69" s="36"/>
+      <c r="AGA69" s="36"/>
+      <c r="AGB69" s="36"/>
+      <c r="AGC69" s="36"/>
+      <c r="AGD69" s="36"/>
+      <c r="AGE69" s="36"/>
+      <c r="AGF69" s="36"/>
+      <c r="AGG69" s="36"/>
+      <c r="AGH69" s="36"/>
+      <c r="AGI69" s="36"/>
+      <c r="AGJ69" s="36"/>
+      <c r="AGK69" s="36"/>
+      <c r="AGL69" s="36"/>
+      <c r="AGM69" s="36"/>
+      <c r="AGN69" s="36"/>
+      <c r="AGO69" s="36"/>
+      <c r="AGP69" s="36"/>
+      <c r="AGQ69" s="36"/>
+      <c r="AGR69" s="36"/>
+      <c r="AGS69" s="36"/>
+      <c r="AGT69" s="36"/>
+      <c r="AGU69" s="36"/>
+      <c r="AGV69" s="36"/>
+      <c r="AGW69" s="36"/>
+      <c r="AGX69" s="36"/>
+      <c r="AGY69" s="36"/>
+      <c r="AGZ69" s="36"/>
+      <c r="AHA69" s="36"/>
+      <c r="AHB69" s="36"/>
+      <c r="AHC69" s="36"/>
+      <c r="AHD69" s="36"/>
+      <c r="AHE69" s="36"/>
+      <c r="AHF69" s="36"/>
+      <c r="AHG69" s="36"/>
+      <c r="AHH69" s="36"/>
+      <c r="AHI69" s="36"/>
+      <c r="AHJ69" s="36"/>
+      <c r="AHK69" s="36"/>
+      <c r="AHL69" s="36"/>
+      <c r="AHM69" s="36"/>
+      <c r="AHN69" s="36"/>
+      <c r="AHO69" s="36"/>
+      <c r="AHP69" s="36"/>
+      <c r="AHQ69" s="36"/>
+      <c r="AHR69" s="36"/>
+      <c r="AHS69" s="36"/>
+      <c r="AHT69" s="36"/>
+      <c r="AHU69" s="36"/>
+      <c r="AHV69" s="36"/>
+      <c r="AHW69" s="36"/>
+      <c r="AHX69" s="36"/>
+      <c r="AHY69" s="36"/>
+      <c r="AHZ69" s="36"/>
+      <c r="AIA69" s="36"/>
+      <c r="AIB69" s="36"/>
+      <c r="AIC69" s="36"/>
+      <c r="AID69" s="36"/>
+      <c r="AIE69" s="36"/>
+      <c r="AIF69" s="36"/>
+      <c r="AIG69" s="36"/>
+      <c r="AIH69" s="36"/>
+      <c r="AII69" s="36"/>
+      <c r="AIJ69" s="36"/>
+      <c r="AIK69" s="36"/>
+      <c r="AIL69" s="36"/>
+      <c r="AIM69" s="36"/>
+      <c r="AIN69" s="36"/>
+      <c r="AIO69" s="36"/>
+      <c r="AIP69" s="36"/>
+      <c r="AIQ69" s="36"/>
+      <c r="AIR69" s="36"/>
+      <c r="AIS69" s="36"/>
+      <c r="AIT69" s="36"/>
+      <c r="AIU69" s="36"/>
+      <c r="AIV69" s="36"/>
+      <c r="AIW69" s="36"/>
+      <c r="AIX69" s="36"/>
+      <c r="AIY69" s="36"/>
+      <c r="AIZ69" s="36"/>
+      <c r="AJA69" s="36"/>
+      <c r="AJB69" s="36"/>
+      <c r="AJC69" s="36"/>
+      <c r="AJD69" s="36"/>
+      <c r="AJE69" s="36"/>
+      <c r="AJF69" s="36"/>
+      <c r="AJG69" s="36"/>
+      <c r="AJH69" s="36"/>
+      <c r="AJI69" s="36"/>
+      <c r="AJJ69" s="36"/>
+      <c r="AJK69" s="36"/>
+      <c r="AJL69" s="36"/>
+      <c r="AJM69" s="36"/>
+      <c r="AJN69" s="36"/>
+      <c r="AJO69" s="36"/>
+      <c r="AJP69" s="36"/>
+      <c r="AJQ69" s="36"/>
+      <c r="AJR69" s="36"/>
+      <c r="AJS69" s="36"/>
+      <c r="AJT69" s="36"/>
+      <c r="AJU69" s="36"/>
+      <c r="AJV69" s="36"/>
+      <c r="AJW69" s="36"/>
+      <c r="AJX69" s="36"/>
+      <c r="AJY69" s="36"/>
+      <c r="AJZ69" s="36"/>
+      <c r="AKA69" s="36"/>
+      <c r="AKB69" s="36"/>
+      <c r="AKC69" s="36"/>
+      <c r="AKD69" s="36"/>
+      <c r="AKE69" s="36"/>
+      <c r="AKF69" s="36"/>
+      <c r="AKG69" s="36"/>
+      <c r="AKH69" s="36"/>
+      <c r="AKI69" s="36"/>
+      <c r="AKJ69" s="36"/>
+      <c r="AKK69" s="36"/>
+      <c r="AKL69" s="36"/>
+      <c r="AKM69" s="36"/>
+      <c r="AKN69" s="36"/>
+      <c r="AKO69" s="36"/>
+      <c r="AKP69" s="36"/>
+      <c r="AKQ69" s="36"/>
+      <c r="AKR69" s="36"/>
+      <c r="AKS69" s="36"/>
+      <c r="AKT69" s="36"/>
+      <c r="AKU69" s="36"/>
+      <c r="AKV69" s="36"/>
+      <c r="AKW69" s="36"/>
+      <c r="AKX69" s="36"/>
+      <c r="AKY69" s="36"/>
+      <c r="AKZ69" s="36"/>
+      <c r="ALA69" s="36"/>
+      <c r="ALB69" s="36"/>
+      <c r="ALC69" s="36"/>
+      <c r="ALD69" s="36"/>
+      <c r="ALE69" s="36"/>
+      <c r="ALF69" s="36"/>
+      <c r="ALG69" s="36"/>
+      <c r="ALH69" s="36"/>
+      <c r="ALI69" s="36"/>
+      <c r="ALJ69" s="36"/>
+      <c r="ALK69" s="36"/>
+      <c r="ALL69" s="36"/>
+      <c r="ALM69" s="36"/>
+      <c r="ALN69" s="36"/>
+      <c r="ALO69" s="36"/>
+      <c r="ALP69" s="36"/>
+      <c r="ALQ69" s="36"/>
+      <c r="ALR69" s="36"/>
+      <c r="ALS69" s="36"/>
+      <c r="ALT69" s="36"/>
+      <c r="ALU69" s="36"/>
+      <c r="ALV69" s="36"/>
+      <c r="ALW69" s="36"/>
+      <c r="ALX69" s="36"/>
+      <c r="ALY69" s="36"/>
+      <c r="ALZ69" s="36"/>
+      <c r="AMA69" s="36"/>
+      <c r="AMB69" s="36"/>
+      <c r="AMC69" s="36"/>
+      <c r="AMD69" s="36"/>
+      <c r="AME69" s="36"/>
+      <c r="AMF69" s="36"/>
+      <c r="AMG69" s="36"/>
+      <c r="AMH69" s="36"/>
+      <c r="AMI69" s="36"/>
+      <c r="AMJ69" s="36"/>
+    </row>
+    <row r="70" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A70" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="I70" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="K70" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L70" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M70" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="N70" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="O70" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="P70" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q70" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="36"/>
+      <c r="W70" s="36"/>
+      <c r="X70" s="36"/>
+      <c r="Y70" s="36"/>
+      <c r="Z70" s="36"/>
+      <c r="AA70" s="36"/>
+      <c r="AB70" s="36"/>
+      <c r="AC70" s="36"/>
+      <c r="AD70" s="36"/>
+      <c r="AE70" s="36"/>
+      <c r="AF70" s="36"/>
+      <c r="AG70" s="36"/>
+      <c r="AH70" s="36"/>
+      <c r="AI70" s="36"/>
+      <c r="AJ70" s="36"/>
+      <c r="AK70" s="36"/>
+      <c r="AL70" s="36"/>
+      <c r="AM70" s="36"/>
+      <c r="AN70" s="36"/>
+      <c r="AO70" s="36"/>
+      <c r="AP70" s="36"/>
+      <c r="AQ70" s="36"/>
+      <c r="AR70" s="36"/>
+      <c r="AS70" s="36"/>
+      <c r="AT70" s="36"/>
+      <c r="AU70" s="36"/>
+      <c r="AV70" s="36"/>
+      <c r="AW70" s="36"/>
+      <c r="AX70" s="36"/>
+      <c r="AY70" s="36"/>
+      <c r="AZ70" s="36"/>
+      <c r="BA70" s="36"/>
+      <c r="BB70" s="36"/>
+      <c r="BC70" s="36"/>
+      <c r="BD70" s="36"/>
+      <c r="BE70" s="36"/>
+      <c r="BF70" s="36"/>
+      <c r="BG70" s="36"/>
+      <c r="BH70" s="36"/>
+      <c r="BI70" s="36"/>
+      <c r="BJ70" s="36"/>
+      <c r="BK70" s="36"/>
+      <c r="BL70" s="36"/>
+      <c r="BM70" s="36"/>
+      <c r="BN70" s="36"/>
+      <c r="BO70" s="36"/>
+      <c r="BP70" s="36"/>
+      <c r="BQ70" s="36"/>
+      <c r="BR70" s="36"/>
+      <c r="BS70" s="36"/>
+      <c r="BT70" s="36"/>
+      <c r="BU70" s="36"/>
+      <c r="BV70" s="36"/>
+      <c r="BW70" s="36"/>
+      <c r="BX70" s="36"/>
+      <c r="BY70" s="36"/>
+      <c r="BZ70" s="36"/>
+      <c r="CA70" s="36"/>
+      <c r="CB70" s="36"/>
+      <c r="CC70" s="36"/>
+      <c r="CD70" s="36"/>
+      <c r="CE70" s="36"/>
+      <c r="CF70" s="36"/>
+      <c r="CG70" s="36"/>
+      <c r="CH70" s="36"/>
+      <c r="CI70" s="36"/>
+      <c r="CJ70" s="36"/>
+      <c r="CK70" s="36"/>
+      <c r="CL70" s="36"/>
+      <c r="CM70" s="36"/>
+      <c r="CN70" s="36"/>
+      <c r="CO70" s="36"/>
+      <c r="CP70" s="36"/>
+      <c r="CQ70" s="36"/>
+      <c r="CR70" s="36"/>
+      <c r="CS70" s="36"/>
+      <c r="CT70" s="36"/>
+      <c r="CU70" s="36"/>
+      <c r="CV70" s="36"/>
+      <c r="CW70" s="36"/>
+      <c r="CX70" s="36"/>
+      <c r="CY70" s="36"/>
+      <c r="CZ70" s="36"/>
+      <c r="DA70" s="36"/>
+      <c r="DB70" s="36"/>
+      <c r="DC70" s="36"/>
+      <c r="DD70" s="36"/>
+      <c r="DE70" s="36"/>
+      <c r="DF70" s="36"/>
+      <c r="DG70" s="36"/>
+      <c r="DH70" s="36"/>
+      <c r="DI70" s="36"/>
+      <c r="DJ70" s="36"/>
+      <c r="DK70" s="36"/>
+      <c r="DL70" s="36"/>
+      <c r="DM70" s="36"/>
+      <c r="DN70" s="36"/>
+      <c r="DO70" s="36"/>
+      <c r="DP70" s="36"/>
+      <c r="DQ70" s="36"/>
+      <c r="DR70" s="36"/>
+      <c r="DS70" s="36"/>
+      <c r="DT70" s="36"/>
+      <c r="DU70" s="36"/>
+      <c r="DV70" s="36"/>
+      <c r="DW70" s="36"/>
+      <c r="DX70" s="36"/>
+      <c r="DY70" s="36"/>
+      <c r="DZ70" s="36"/>
+      <c r="EA70" s="36"/>
+      <c r="EB70" s="36"/>
+      <c r="EC70" s="36"/>
+      <c r="ED70" s="36"/>
+      <c r="EE70" s="36"/>
+      <c r="EF70" s="36"/>
+      <c r="EG70" s="36"/>
+      <c r="EH70" s="36"/>
+      <c r="EI70" s="36"/>
+      <c r="EJ70" s="36"/>
+      <c r="EK70" s="36"/>
+      <c r="EL70" s="36"/>
+      <c r="EM70" s="36"/>
+      <c r="EN70" s="36"/>
+      <c r="EO70" s="36"/>
+      <c r="EP70" s="36"/>
+      <c r="EQ70" s="36"/>
+      <c r="ER70" s="36"/>
+      <c r="ES70" s="36"/>
+      <c r="ET70" s="36"/>
+      <c r="EU70" s="36"/>
+      <c r="EV70" s="36"/>
+      <c r="EW70" s="36"/>
+      <c r="EX70" s="36"/>
+      <c r="EY70" s="36"/>
+      <c r="EZ70" s="36"/>
+      <c r="FA70" s="36"/>
+      <c r="FB70" s="36"/>
+      <c r="FC70" s="36"/>
+      <c r="FD70" s="36"/>
+      <c r="FE70" s="36"/>
+      <c r="FF70" s="36"/>
+      <c r="FG70" s="36"/>
+      <c r="FH70" s="36"/>
+      <c r="FI70" s="36"/>
+      <c r="FJ70" s="36"/>
+      <c r="FK70" s="36"/>
+      <c r="FL70" s="36"/>
+      <c r="FM70" s="36"/>
+      <c r="FN70" s="36"/>
+      <c r="FO70" s="36"/>
+      <c r="FP70" s="36"/>
+      <c r="FQ70" s="36"/>
+      <c r="FR70" s="36"/>
+      <c r="FS70" s="36"/>
+      <c r="FT70" s="36"/>
+      <c r="FU70" s="36"/>
+      <c r="FV70" s="36"/>
+      <c r="FW70" s="36"/>
+      <c r="FX70" s="36"/>
+      <c r="FY70" s="36"/>
+      <c r="FZ70" s="36"/>
+      <c r="GA70" s="36"/>
+      <c r="GB70" s="36"/>
+      <c r="GC70" s="36"/>
+      <c r="GD70" s="36"/>
+      <c r="GE70" s="36"/>
+      <c r="GF70" s="36"/>
+      <c r="GG70" s="36"/>
+      <c r="GH70" s="36"/>
+      <c r="GI70" s="36"/>
+      <c r="GJ70" s="36"/>
+      <c r="GK70" s="36"/>
+      <c r="GL70" s="36"/>
+      <c r="GM70" s="36"/>
+      <c r="GN70" s="36"/>
+      <c r="GO70" s="36"/>
+      <c r="GP70" s="36"/>
+      <c r="GQ70" s="36"/>
+      <c r="GR70" s="36"/>
+      <c r="GS70" s="36"/>
+      <c r="GT70" s="36"/>
+      <c r="GU70" s="36"/>
+      <c r="GV70" s="36"/>
+      <c r="GW70" s="36"/>
+      <c r="GX70" s="36"/>
+      <c r="GY70" s="36"/>
+      <c r="GZ70" s="36"/>
+      <c r="HA70" s="36"/>
+      <c r="HB70" s="36"/>
+      <c r="HC70" s="36"/>
+      <c r="HD70" s="36"/>
+      <c r="HE70" s="36"/>
+      <c r="HF70" s="36"/>
+      <c r="HG70" s="36"/>
+      <c r="HH70" s="36"/>
+      <c r="HI70" s="36"/>
+      <c r="HJ70" s="36"/>
+      <c r="HK70" s="36"/>
+      <c r="HL70" s="36"/>
+      <c r="HM70" s="36"/>
+      <c r="HN70" s="36"/>
+      <c r="HO70" s="36"/>
+      <c r="HP70" s="36"/>
+      <c r="HQ70" s="36"/>
+      <c r="HR70" s="36"/>
+      <c r="HS70" s="36"/>
+      <c r="HT70" s="36"/>
+      <c r="HU70" s="36"/>
+      <c r="HV70" s="36"/>
+      <c r="HW70" s="36"/>
+      <c r="HX70" s="36"/>
+      <c r="HY70" s="36"/>
+      <c r="HZ70" s="36"/>
+      <c r="IA70" s="36"/>
+      <c r="IB70" s="36"/>
+      <c r="IC70" s="36"/>
+      <c r="ID70" s="36"/>
+      <c r="IE70" s="36"/>
+      <c r="IF70" s="36"/>
+      <c r="IG70" s="36"/>
+      <c r="IH70" s="36"/>
+      <c r="II70" s="36"/>
+      <c r="IJ70" s="36"/>
+      <c r="IK70" s="36"/>
+      <c r="IL70" s="36"/>
+      <c r="IM70" s="36"/>
+      <c r="IN70" s="36"/>
+      <c r="IO70" s="36"/>
+      <c r="IP70" s="36"/>
+      <c r="IQ70" s="36"/>
+      <c r="IR70" s="36"/>
+      <c r="IS70" s="36"/>
+      <c r="IT70" s="36"/>
+      <c r="IU70" s="36"/>
+      <c r="IV70" s="36"/>
+      <c r="IW70" s="36"/>
+      <c r="IX70" s="36"/>
+      <c r="IY70" s="36"/>
+      <c r="IZ70" s="36"/>
+      <c r="JA70" s="36"/>
+      <c r="JB70" s="36"/>
+      <c r="JC70" s="36"/>
+      <c r="JD70" s="36"/>
+      <c r="JE70" s="36"/>
+      <c r="JF70" s="36"/>
+      <c r="JG70" s="36"/>
+      <c r="JH70" s="36"/>
+      <c r="JI70" s="36"/>
+      <c r="JJ70" s="36"/>
+      <c r="JK70" s="36"/>
+      <c r="JL70" s="36"/>
+      <c r="JM70" s="36"/>
+      <c r="JN70" s="36"/>
+      <c r="JO70" s="36"/>
+      <c r="JP70" s="36"/>
+      <c r="JQ70" s="36"/>
+      <c r="JR70" s="36"/>
+      <c r="JS70" s="36"/>
+      <c r="JT70" s="36"/>
+      <c r="JU70" s="36"/>
+      <c r="JV70" s="36"/>
+      <c r="JW70" s="36"/>
+      <c r="JX70" s="36"/>
+      <c r="JY70" s="36"/>
+      <c r="JZ70" s="36"/>
+      <c r="KA70" s="36"/>
+      <c r="KB70" s="36"/>
+      <c r="KC70" s="36"/>
+      <c r="KD70" s="36"/>
+      <c r="KE70" s="36"/>
+      <c r="KF70" s="36"/>
+      <c r="KG70" s="36"/>
+      <c r="KH70" s="36"/>
+      <c r="KI70" s="36"/>
+      <c r="KJ70" s="36"/>
+      <c r="KK70" s="36"/>
+      <c r="KL70" s="36"/>
+      <c r="KM70" s="36"/>
+      <c r="KN70" s="36"/>
+      <c r="KO70" s="36"/>
+      <c r="KP70" s="36"/>
+      <c r="KQ70" s="36"/>
+      <c r="KR70" s="36"/>
+      <c r="KS70" s="36"/>
+      <c r="KT70" s="36"/>
+      <c r="KU70" s="36"/>
+      <c r="KV70" s="36"/>
+      <c r="KW70" s="36"/>
+      <c r="KX70" s="36"/>
+      <c r="KY70" s="36"/>
+      <c r="KZ70" s="36"/>
+      <c r="LA70" s="36"/>
+      <c r="LB70" s="36"/>
+      <c r="LC70" s="36"/>
+      <c r="LD70" s="36"/>
+      <c r="LE70" s="36"/>
+      <c r="LF70" s="36"/>
+      <c r="LG70" s="36"/>
+      <c r="LH70" s="36"/>
+      <c r="LI70" s="36"/>
+      <c r="LJ70" s="36"/>
+      <c r="LK70" s="36"/>
+      <c r="LL70" s="36"/>
+      <c r="LM70" s="36"/>
+      <c r="LN70" s="36"/>
+      <c r="LO70" s="36"/>
+      <c r="LP70" s="36"/>
+      <c r="LQ70" s="36"/>
+      <c r="LR70" s="36"/>
+      <c r="LS70" s="36"/>
+      <c r="LT70" s="36"/>
+      <c r="LU70" s="36"/>
+      <c r="LV70" s="36"/>
+      <c r="LW70" s="36"/>
+      <c r="LX70" s="36"/>
+      <c r="LY70" s="36"/>
+      <c r="LZ70" s="36"/>
+      <c r="MA70" s="36"/>
+      <c r="MB70" s="36"/>
+      <c r="MC70" s="36"/>
+      <c r="MD70" s="36"/>
+      <c r="ME70" s="36"/>
+      <c r="MF70" s="36"/>
+      <c r="MG70" s="36"/>
+      <c r="MH70" s="36"/>
+      <c r="MI70" s="36"/>
+      <c r="MJ70" s="36"/>
+      <c r="MK70" s="36"/>
+      <c r="ML70" s="36"/>
+      <c r="MM70" s="36"/>
+      <c r="MN70" s="36"/>
+      <c r="MO70" s="36"/>
+      <c r="MP70" s="36"/>
+      <c r="MQ70" s="36"/>
+      <c r="MR70" s="36"/>
+      <c r="MS70" s="36"/>
+      <c r="MT70" s="36"/>
+      <c r="MU70" s="36"/>
+      <c r="MV70" s="36"/>
+      <c r="MW70" s="36"/>
+      <c r="MX70" s="36"/>
+      <c r="MY70" s="36"/>
+      <c r="MZ70" s="36"/>
+      <c r="NA70" s="36"/>
+      <c r="NB70" s="36"/>
+      <c r="NC70" s="36"/>
+      <c r="ND70" s="36"/>
+      <c r="NE70" s="36"/>
+      <c r="NF70" s="36"/>
+      <c r="NG70" s="36"/>
+      <c r="NH70" s="36"/>
+      <c r="NI70" s="36"/>
+      <c r="NJ70" s="36"/>
+      <c r="NK70" s="36"/>
+      <c r="NL70" s="36"/>
+      <c r="NM70" s="36"/>
+      <c r="NN70" s="36"/>
+      <c r="NO70" s="36"/>
+      <c r="NP70" s="36"/>
+      <c r="NQ70" s="36"/>
+      <c r="NR70" s="36"/>
+      <c r="NS70" s="36"/>
+      <c r="NT70" s="36"/>
+      <c r="NU70" s="36"/>
+      <c r="NV70" s="36"/>
+      <c r="NW70" s="36"/>
+      <c r="NX70" s="36"/>
+      <c r="NY70" s="36"/>
+      <c r="NZ70" s="36"/>
+      <c r="OA70" s="36"/>
+      <c r="OB70" s="36"/>
+      <c r="OC70" s="36"/>
+      <c r="OD70" s="36"/>
+      <c r="OE70" s="36"/>
+      <c r="OF70" s="36"/>
+      <c r="OG70" s="36"/>
+      <c r="OH70" s="36"/>
+      <c r="OI70" s="36"/>
+      <c r="OJ70" s="36"/>
+      <c r="OK70" s="36"/>
+      <c r="OL70" s="36"/>
+      <c r="OM70" s="36"/>
+      <c r="ON70" s="36"/>
+      <c r="OO70" s="36"/>
+      <c r="OP70" s="36"/>
+      <c r="OQ70" s="36"/>
+      <c r="OR70" s="36"/>
+      <c r="OS70" s="36"/>
+      <c r="OT70" s="36"/>
+      <c r="OU70" s="36"/>
+      <c r="OV70" s="36"/>
+      <c r="OW70" s="36"/>
+      <c r="OX70" s="36"/>
+      <c r="OY70" s="36"/>
+      <c r="OZ70" s="36"/>
+      <c r="PA70" s="36"/>
+      <c r="PB70" s="36"/>
+      <c r="PC70" s="36"/>
+      <c r="PD70" s="36"/>
+      <c r="PE70" s="36"/>
+      <c r="PF70" s="36"/>
+      <c r="PG70" s="36"/>
+      <c r="PH70" s="36"/>
+      <c r="PI70" s="36"/>
+      <c r="PJ70" s="36"/>
+      <c r="PK70" s="36"/>
+      <c r="PL70" s="36"/>
+      <c r="PM70" s="36"/>
+      <c r="PN70" s="36"/>
+      <c r="PO70" s="36"/>
+      <c r="PP70" s="36"/>
+      <c r="PQ70" s="36"/>
+      <c r="PR70" s="36"/>
+      <c r="PS70" s="36"/>
+      <c r="PT70" s="36"/>
+      <c r="PU70" s="36"/>
+      <c r="PV70" s="36"/>
+      <c r="PW70" s="36"/>
+      <c r="PX70" s="36"/>
+      <c r="PY70" s="36"/>
+      <c r="PZ70" s="36"/>
+      <c r="QA70" s="36"/>
+      <c r="QB70" s="36"/>
+      <c r="QC70" s="36"/>
+      <c r="QD70" s="36"/>
+      <c r="QE70" s="36"/>
+      <c r="QF70" s="36"/>
+      <c r="QG70" s="36"/>
+      <c r="QH70" s="36"/>
+      <c r="QI70" s="36"/>
+      <c r="QJ70" s="36"/>
+      <c r="QK70" s="36"/>
+      <c r="QL70" s="36"/>
+      <c r="QM70" s="36"/>
+      <c r="QN70" s="36"/>
+      <c r="QO70" s="36"/>
+      <c r="QP70" s="36"/>
+      <c r="QQ70" s="36"/>
+      <c r="QR70" s="36"/>
+      <c r="QS70" s="36"/>
+      <c r="QT70" s="36"/>
+      <c r="QU70" s="36"/>
+      <c r="QV70" s="36"/>
+      <c r="QW70" s="36"/>
+      <c r="QX70" s="36"/>
+      <c r="QY70" s="36"/>
+      <c r="QZ70" s="36"/>
+      <c r="RA70" s="36"/>
+      <c r="RB70" s="36"/>
+      <c r="RC70" s="36"/>
+      <c r="RD70" s="36"/>
+      <c r="RE70" s="36"/>
+      <c r="RF70" s="36"/>
+      <c r="RG70" s="36"/>
+      <c r="RH70" s="36"/>
+      <c r="RI70" s="36"/>
+      <c r="RJ70" s="36"/>
+      <c r="RK70" s="36"/>
+      <c r="RL70" s="36"/>
+      <c r="RM70" s="36"/>
+      <c r="RN70" s="36"/>
+      <c r="RO70" s="36"/>
+      <c r="RP70" s="36"/>
+      <c r="RQ70" s="36"/>
+      <c r="RR70" s="36"/>
+      <c r="RS70" s="36"/>
+      <c r="RT70" s="36"/>
+      <c r="RU70" s="36"/>
+      <c r="RV70" s="36"/>
+      <c r="RW70" s="36"/>
+      <c r="RX70" s="36"/>
+      <c r="RY70" s="36"/>
+      <c r="RZ70" s="36"/>
+      <c r="SA70" s="36"/>
+      <c r="SB70" s="36"/>
+      <c r="SC70" s="36"/>
+      <c r="SD70" s="36"/>
+      <c r="SE70" s="36"/>
+      <c r="SF70" s="36"/>
+      <c r="SG70" s="36"/>
+      <c r="SH70" s="36"/>
+      <c r="SI70" s="36"/>
+      <c r="SJ70" s="36"/>
+      <c r="SK70" s="36"/>
+      <c r="SL70" s="36"/>
+      <c r="SM70" s="36"/>
+      <c r="SN70" s="36"/>
+      <c r="SO70" s="36"/>
+      <c r="SP70" s="36"/>
+      <c r="SQ70" s="36"/>
+      <c r="SR70" s="36"/>
+      <c r="SS70" s="36"/>
+      <c r="ST70" s="36"/>
+      <c r="SU70" s="36"/>
+      <c r="SV70" s="36"/>
+      <c r="SW70" s="36"/>
+      <c r="SX70" s="36"/>
+      <c r="SY70" s="36"/>
+      <c r="SZ70" s="36"/>
+      <c r="TA70" s="36"/>
+      <c r="TB70" s="36"/>
+      <c r="TC70" s="36"/>
+      <c r="TD70" s="36"/>
+      <c r="TE70" s="36"/>
+      <c r="TF70" s="36"/>
+      <c r="TG70" s="36"/>
+      <c r="TH70" s="36"/>
+      <c r="TI70" s="36"/>
+      <c r="TJ70" s="36"/>
+      <c r="TK70" s="36"/>
+      <c r="TL70" s="36"/>
+      <c r="TM70" s="36"/>
+      <c r="TN70" s="36"/>
+      <c r="TO70" s="36"/>
+      <c r="TP70" s="36"/>
+      <c r="TQ70" s="36"/>
+      <c r="TR70" s="36"/>
+      <c r="TS70" s="36"/>
+      <c r="TT70" s="36"/>
+      <c r="TU70" s="36"/>
+      <c r="TV70" s="36"/>
+      <c r="TW70" s="36"/>
+      <c r="TX70" s="36"/>
+      <c r="TY70" s="36"/>
+      <c r="TZ70" s="36"/>
+      <c r="UA70" s="36"/>
+      <c r="UB70" s="36"/>
+      <c r="UC70" s="36"/>
+      <c r="UD70" s="36"/>
+      <c r="UE70" s="36"/>
+      <c r="UF70" s="36"/>
+      <c r="UG70" s="36"/>
+      <c r="UH70" s="36"/>
+      <c r="UI70" s="36"/>
+      <c r="UJ70" s="36"/>
+      <c r="UK70" s="36"/>
+      <c r="UL70" s="36"/>
+      <c r="UM70" s="36"/>
+      <c r="UN70" s="36"/>
+      <c r="UO70" s="36"/>
+      <c r="UP70" s="36"/>
+      <c r="UQ70" s="36"/>
+      <c r="UR70" s="36"/>
+      <c r="US70" s="36"/>
+      <c r="UT70" s="36"/>
+      <c r="UU70" s="36"/>
+      <c r="UV70" s="36"/>
+      <c r="UW70" s="36"/>
+      <c r="UX70" s="36"/>
+      <c r="UY70" s="36"/>
+      <c r="UZ70" s="36"/>
+      <c r="VA70" s="36"/>
+      <c r="VB70" s="36"/>
+      <c r="VC70" s="36"/>
+      <c r="VD70" s="36"/>
+      <c r="VE70" s="36"/>
+      <c r="VF70" s="36"/>
+      <c r="VG70" s="36"/>
+      <c r="VH70" s="36"/>
+      <c r="VI70" s="36"/>
+      <c r="VJ70" s="36"/>
+      <c r="VK70" s="36"/>
+      <c r="VL70" s="36"/>
+      <c r="VM70" s="36"/>
+      <c r="VN70" s="36"/>
+      <c r="VO70" s="36"/>
+      <c r="VP70" s="36"/>
+      <c r="VQ70" s="36"/>
+      <c r="VR70" s="36"/>
+      <c r="VS70" s="36"/>
+      <c r="VT70" s="36"/>
+      <c r="VU70" s="36"/>
+      <c r="VV70" s="36"/>
+      <c r="VW70" s="36"/>
+      <c r="VX70" s="36"/>
+      <c r="VY70" s="36"/>
+      <c r="VZ70" s="36"/>
+      <c r="WA70" s="36"/>
+      <c r="WB70" s="36"/>
+      <c r="WC70" s="36"/>
+      <c r="WD70" s="36"/>
+      <c r="WE70" s="36"/>
+      <c r="WF70" s="36"/>
+      <c r="WG70" s="36"/>
+      <c r="WH70" s="36"/>
+      <c r="WI70" s="36"/>
+      <c r="WJ70" s="36"/>
+      <c r="WK70" s="36"/>
+      <c r="WL70" s="36"/>
+      <c r="WM70" s="36"/>
+      <c r="WN70" s="36"/>
+      <c r="WO70" s="36"/>
+      <c r="WP70" s="36"/>
+      <c r="WQ70" s="36"/>
+      <c r="WR70" s="36"/>
+      <c r="WS70" s="36"/>
+      <c r="WT70" s="36"/>
+      <c r="WU70" s="36"/>
+      <c r="WV70" s="36"/>
+      <c r="WW70" s="36"/>
+      <c r="WX70" s="36"/>
+      <c r="WY70" s="36"/>
+      <c r="WZ70" s="36"/>
+      <c r="XA70" s="36"/>
+      <c r="XB70" s="36"/>
+      <c r="XC70" s="36"/>
+      <c r="XD70" s="36"/>
+      <c r="XE70" s="36"/>
+      <c r="XF70" s="36"/>
+      <c r="XG70" s="36"/>
+      <c r="XH70" s="36"/>
+      <c r="XI70" s="36"/>
+      <c r="XJ70" s="36"/>
+      <c r="XK70" s="36"/>
+      <c r="XL70" s="36"/>
+      <c r="XM70" s="36"/>
+      <c r="XN70" s="36"/>
+      <c r="XO70" s="36"/>
+      <c r="XP70" s="36"/>
+      <c r="XQ70" s="36"/>
+      <c r="XR70" s="36"/>
+      <c r="XS70" s="36"/>
+      <c r="XT70" s="36"/>
+      <c r="XU70" s="36"/>
+      <c r="XV70" s="36"/>
+      <c r="XW70" s="36"/>
+      <c r="XX70" s="36"/>
+      <c r="XY70" s="36"/>
+      <c r="XZ70" s="36"/>
+      <c r="YA70" s="36"/>
+      <c r="YB70" s="36"/>
+      <c r="YC70" s="36"/>
+      <c r="YD70" s="36"/>
+      <c r="YE70" s="36"/>
+      <c r="YF70" s="36"/>
+      <c r="YG70" s="36"/>
+      <c r="YH70" s="36"/>
+      <c r="YI70" s="36"/>
+      <c r="YJ70" s="36"/>
+      <c r="YK70" s="36"/>
+      <c r="YL70" s="36"/>
+      <c r="YM70" s="36"/>
+      <c r="YN70" s="36"/>
+      <c r="YO70" s="36"/>
+      <c r="YP70" s="36"/>
+      <c r="YQ70" s="36"/>
+      <c r="YR70" s="36"/>
+      <c r="YS70" s="36"/>
+      <c r="YT70" s="36"/>
+      <c r="YU70" s="36"/>
+      <c r="YV70" s="36"/>
+      <c r="YW70" s="36"/>
+      <c r="YX70" s="36"/>
+      <c r="YY70" s="36"/>
+      <c r="YZ70" s="36"/>
+      <c r="ZA70" s="36"/>
+      <c r="ZB70" s="36"/>
+      <c r="ZC70" s="36"/>
+      <c r="ZD70" s="36"/>
+      <c r="ZE70" s="36"/>
+      <c r="ZF70" s="36"/>
+      <c r="ZG70" s="36"/>
+      <c r="ZH70" s="36"/>
+      <c r="ZI70" s="36"/>
+      <c r="ZJ70" s="36"/>
+      <c r="ZK70" s="36"/>
+      <c r="ZL70" s="36"/>
+      <c r="ZM70" s="36"/>
+      <c r="ZN70" s="36"/>
+      <c r="ZO70" s="36"/>
+      <c r="ZP70" s="36"/>
+      <c r="ZQ70" s="36"/>
+      <c r="ZR70" s="36"/>
+      <c r="ZS70" s="36"/>
+      <c r="ZT70" s="36"/>
+      <c r="ZU70" s="36"/>
+      <c r="ZV70" s="36"/>
+      <c r="ZW70" s="36"/>
+      <c r="ZX70" s="36"/>
+      <c r="ZY70" s="36"/>
+      <c r="ZZ70" s="36"/>
+      <c r="AAA70" s="36"/>
+      <c r="AAB70" s="36"/>
+      <c r="AAC70" s="36"/>
+      <c r="AAD70" s="36"/>
+      <c r="AAE70" s="36"/>
+      <c r="AAF70" s="36"/>
+      <c r="AAG70" s="36"/>
+      <c r="AAH70" s="36"/>
+      <c r="AAI70" s="36"/>
+      <c r="AAJ70" s="36"/>
+      <c r="AAK70" s="36"/>
+      <c r="AAL70" s="36"/>
+      <c r="AAM70" s="36"/>
+      <c r="AAN70" s="36"/>
+      <c r="AAO70" s="36"/>
+      <c r="AAP70" s="36"/>
+      <c r="AAQ70" s="36"/>
+      <c r="AAR70" s="36"/>
+      <c r="AAS70" s="36"/>
+      <c r="AAT70" s="36"/>
+      <c r="AAU70" s="36"/>
+      <c r="AAV70" s="36"/>
+      <c r="AAW70" s="36"/>
+      <c r="AAX70" s="36"/>
+      <c r="AAY70" s="36"/>
+      <c r="AAZ70" s="36"/>
+      <c r="ABA70" s="36"/>
+      <c r="ABB70" s="36"/>
+      <c r="ABC70" s="36"/>
+      <c r="ABD70" s="36"/>
+      <c r="ABE70" s="36"/>
+      <c r="ABF70" s="36"/>
+      <c r="ABG70" s="36"/>
+      <c r="ABH70" s="36"/>
+      <c r="ABI70" s="36"/>
+      <c r="ABJ70" s="36"/>
+      <c r="ABK70" s="36"/>
+      <c r="ABL70" s="36"/>
+      <c r="ABM70" s="36"/>
+      <c r="ABN70" s="36"/>
+      <c r="ABO70" s="36"/>
+      <c r="ABP70" s="36"/>
+      <c r="ABQ70" s="36"/>
+      <c r="ABR70" s="36"/>
+      <c r="ABS70" s="36"/>
+      <c r="ABT70" s="36"/>
+      <c r="ABU70" s="36"/>
+      <c r="ABV70" s="36"/>
+      <c r="ABW70" s="36"/>
+      <c r="ABX70" s="36"/>
+      <c r="ABY70" s="36"/>
+      <c r="ABZ70" s="36"/>
+      <c r="ACA70" s="36"/>
+      <c r="ACB70" s="36"/>
+      <c r="ACC70" s="36"/>
+      <c r="ACD70" s="36"/>
+      <c r="ACE70" s="36"/>
+      <c r="ACF70" s="36"/>
+      <c r="ACG70" s="36"/>
+      <c r="ACH70" s="36"/>
+      <c r="ACI70" s="36"/>
+      <c r="ACJ70" s="36"/>
+      <c r="ACK70" s="36"/>
+      <c r="ACL70" s="36"/>
+      <c r="ACM70" s="36"/>
+      <c r="ACN70" s="36"/>
+      <c r="ACO70" s="36"/>
+      <c r="ACP70" s="36"/>
+      <c r="ACQ70" s="36"/>
+      <c r="ACR70" s="36"/>
+      <c r="ACS70" s="36"/>
+      <c r="ACT70" s="36"/>
+      <c r="ACU70" s="36"/>
+      <c r="ACV70" s="36"/>
+      <c r="ACW70" s="36"/>
+      <c r="ACX70" s="36"/>
+      <c r="ACY70" s="36"/>
+      <c r="ACZ70" s="36"/>
+      <c r="ADA70" s="36"/>
+      <c r="ADB70" s="36"/>
+      <c r="ADC70" s="36"/>
+      <c r="ADD70" s="36"/>
+      <c r="ADE70" s="36"/>
+      <c r="ADF70" s="36"/>
+      <c r="ADG70" s="36"/>
+      <c r="ADH70" s="36"/>
+      <c r="ADI70" s="36"/>
+      <c r="ADJ70" s="36"/>
+      <c r="ADK70" s="36"/>
+      <c r="ADL70" s="36"/>
+      <c r="ADM70" s="36"/>
+      <c r="ADN70" s="36"/>
+      <c r="ADO70" s="36"/>
+      <c r="ADP70" s="36"/>
+      <c r="ADQ70" s="36"/>
+      <c r="ADR70" s="36"/>
+      <c r="ADS70" s="36"/>
+      <c r="ADT70" s="36"/>
+      <c r="ADU70" s="36"/>
+      <c r="ADV70" s="36"/>
+      <c r="ADW70" s="36"/>
+      <c r="ADX70" s="36"/>
+      <c r="ADY70" s="36"/>
+      <c r="ADZ70" s="36"/>
+      <c r="AEA70" s="36"/>
+      <c r="AEB70" s="36"/>
+      <c r="AEC70" s="36"/>
+      <c r="AED70" s="36"/>
+      <c r="AEE70" s="36"/>
+      <c r="AEF70" s="36"/>
+      <c r="AEG70" s="36"/>
+      <c r="AEH70" s="36"/>
+      <c r="AEI70" s="36"/>
+      <c r="AEJ70" s="36"/>
+      <c r="AEK70" s="36"/>
+      <c r="AEL70" s="36"/>
+      <c r="AEM70" s="36"/>
+      <c r="AEN70" s="36"/>
+      <c r="AEO70" s="36"/>
+      <c r="AEP70" s="36"/>
+      <c r="AEQ70" s="36"/>
+      <c r="AER70" s="36"/>
+      <c r="AES70" s="36"/>
+      <c r="AET70" s="36"/>
+      <c r="AEU70" s="36"/>
+      <c r="AEV70" s="36"/>
+      <c r="AEW70" s="36"/>
+      <c r="AEX70" s="36"/>
+      <c r="AEY70" s="36"/>
+      <c r="AEZ70" s="36"/>
+      <c r="AFA70" s="36"/>
+      <c r="AFB70" s="36"/>
+      <c r="AFC70" s="36"/>
+      <c r="AFD70" s="36"/>
+      <c r="AFE70" s="36"/>
+      <c r="AFF70" s="36"/>
+      <c r="AFG70" s="36"/>
+      <c r="AFH70" s="36"/>
+      <c r="AFI70" s="36"/>
+      <c r="AFJ70" s="36"/>
+      <c r="AFK70" s="36"/>
+      <c r="AFL70" s="36"/>
+      <c r="AFM70" s="36"/>
+      <c r="AFN70" s="36"/>
+      <c r="AFO70" s="36"/>
+      <c r="AFP70" s="36"/>
+      <c r="AFQ70" s="36"/>
+      <c r="AFR70" s="36"/>
+      <c r="AFS70" s="36"/>
+      <c r="AFT70" s="36"/>
+      <c r="AFU70" s="36"/>
+      <c r="AFV70" s="36"/>
+      <c r="AFW70" s="36"/>
+      <c r="AFX70" s="36"/>
+      <c r="AFY70" s="36"/>
+      <c r="AFZ70" s="36"/>
+      <c r="AGA70" s="36"/>
+      <c r="AGB70" s="36"/>
+      <c r="AGC70" s="36"/>
+      <c r="AGD70" s="36"/>
+      <c r="AGE70" s="36"/>
+      <c r="AGF70" s="36"/>
+      <c r="AGG70" s="36"/>
+      <c r="AGH70" s="36"/>
+      <c r="AGI70" s="36"/>
+      <c r="AGJ70" s="36"/>
+      <c r="AGK70" s="36"/>
+      <c r="AGL70" s="36"/>
+      <c r="AGM70" s="36"/>
+      <c r="AGN70" s="36"/>
+      <c r="AGO70" s="36"/>
+      <c r="AGP70" s="36"/>
+      <c r="AGQ70" s="36"/>
+      <c r="AGR70" s="36"/>
+      <c r="AGS70" s="36"/>
+      <c r="AGT70" s="36"/>
+      <c r="AGU70" s="36"/>
+      <c r="AGV70" s="36"/>
+      <c r="AGW70" s="36"/>
+      <c r="AGX70" s="36"/>
+      <c r="AGY70" s="36"/>
+      <c r="AGZ70" s="36"/>
+      <c r="AHA70" s="36"/>
+      <c r="AHB70" s="36"/>
+      <c r="AHC70" s="36"/>
+      <c r="AHD70" s="36"/>
+      <c r="AHE70" s="36"/>
+      <c r="AHF70" s="36"/>
+      <c r="AHG70" s="36"/>
+      <c r="AHH70" s="36"/>
+      <c r="AHI70" s="36"/>
+      <c r="AHJ70" s="36"/>
+      <c r="AHK70" s="36"/>
+      <c r="AHL70" s="36"/>
+      <c r="AHM70" s="36"/>
+      <c r="AHN70" s="36"/>
+      <c r="AHO70" s="36"/>
+      <c r="AHP70" s="36"/>
+      <c r="AHQ70" s="36"/>
+      <c r="AHR70" s="36"/>
+      <c r="AHS70" s="36"/>
+      <c r="AHT70" s="36"/>
+      <c r="AHU70" s="36"/>
+      <c r="AHV70" s="36"/>
+      <c r="AHW70" s="36"/>
+      <c r="AHX70" s="36"/>
+      <c r="AHY70" s="36"/>
+      <c r="AHZ70" s="36"/>
+      <c r="AIA70" s="36"/>
+      <c r="AIB70" s="36"/>
+      <c r="AIC70" s="36"/>
+      <c r="AID70" s="36"/>
+      <c r="AIE70" s="36"/>
+      <c r="AIF70" s="36"/>
+      <c r="AIG70" s="36"/>
+      <c r="AIH70" s="36"/>
+      <c r="AII70" s="36"/>
+      <c r="AIJ70" s="36"/>
+      <c r="AIK70" s="36"/>
+      <c r="AIL70" s="36"/>
+      <c r="AIM70" s="36"/>
+      <c r="AIN70" s="36"/>
+      <c r="AIO70" s="36"/>
+      <c r="AIP70" s="36"/>
+      <c r="AIQ70" s="36"/>
+      <c r="AIR70" s="36"/>
+      <c r="AIS70" s="36"/>
+      <c r="AIT70" s="36"/>
+      <c r="AIU70" s="36"/>
+      <c r="AIV70" s="36"/>
+      <c r="AIW70" s="36"/>
+      <c r="AIX70" s="36"/>
+      <c r="AIY70" s="36"/>
+      <c r="AIZ70" s="36"/>
+      <c r="AJA70" s="36"/>
+      <c r="AJB70" s="36"/>
+      <c r="AJC70" s="36"/>
+      <c r="AJD70" s="36"/>
+      <c r="AJE70" s="36"/>
+      <c r="AJF70" s="36"/>
+      <c r="AJG70" s="36"/>
+      <c r="AJH70" s="36"/>
+      <c r="AJI70" s="36"/>
+      <c r="AJJ70" s="36"/>
+      <c r="AJK70" s="36"/>
+      <c r="AJL70" s="36"/>
+      <c r="AJM70" s="36"/>
+      <c r="AJN70" s="36"/>
+      <c r="AJO70" s="36"/>
+      <c r="AJP70" s="36"/>
+      <c r="AJQ70" s="36"/>
+      <c r="AJR70" s="36"/>
+      <c r="AJS70" s="36"/>
+      <c r="AJT70" s="36"/>
+      <c r="AJU70" s="36"/>
+      <c r="AJV70" s="36"/>
+      <c r="AJW70" s="36"/>
+      <c r="AJX70" s="36"/>
+      <c r="AJY70" s="36"/>
+      <c r="AJZ70" s="36"/>
+      <c r="AKA70" s="36"/>
+      <c r="AKB70" s="36"/>
+      <c r="AKC70" s="36"/>
+      <c r="AKD70" s="36"/>
+      <c r="AKE70" s="36"/>
+      <c r="AKF70" s="36"/>
+      <c r="AKG70" s="36"/>
+      <c r="AKH70" s="36"/>
+      <c r="AKI70" s="36"/>
+      <c r="AKJ70" s="36"/>
+      <c r="AKK70" s="36"/>
+      <c r="AKL70" s="36"/>
+      <c r="AKM70" s="36"/>
+      <c r="AKN70" s="36"/>
+      <c r="AKO70" s="36"/>
+      <c r="AKP70" s="36"/>
+      <c r="AKQ70" s="36"/>
+      <c r="AKR70" s="36"/>
+      <c r="AKS70" s="36"/>
+      <c r="AKT70" s="36"/>
+      <c r="AKU70" s="36"/>
+      <c r="AKV70" s="36"/>
+      <c r="AKW70" s="36"/>
+      <c r="AKX70" s="36"/>
+      <c r="AKY70" s="36"/>
+      <c r="AKZ70" s="36"/>
+      <c r="ALA70" s="36"/>
+      <c r="ALB70" s="36"/>
+      <c r="ALC70" s="36"/>
+      <c r="ALD70" s="36"/>
+      <c r="ALE70" s="36"/>
+      <c r="ALF70" s="36"/>
+      <c r="ALG70" s="36"/>
+      <c r="ALH70" s="36"/>
+      <c r="ALI70" s="36"/>
+      <c r="ALJ70" s="36"/>
+      <c r="ALK70" s="36"/>
+      <c r="ALL70" s="36"/>
+      <c r="ALM70" s="36"/>
+      <c r="ALN70" s="36"/>
+      <c r="ALO70" s="36"/>
+      <c r="ALP70" s="36"/>
+      <c r="ALQ70" s="36"/>
+      <c r="ALR70" s="36"/>
+      <c r="ALS70" s="36"/>
+      <c r="ALT70" s="36"/>
+      <c r="ALU70" s="36"/>
+      <c r="ALV70" s="36"/>
+      <c r="ALW70" s="36"/>
+      <c r="ALX70" s="36"/>
+      <c r="ALY70" s="36"/>
+      <c r="ALZ70" s="36"/>
+      <c r="AMA70" s="36"/>
+      <c r="AMB70" s="36"/>
+      <c r="AMC70" s="36"/>
+      <c r="AMD70" s="36"/>
+      <c r="AME70" s="36"/>
+      <c r="AMF70" s="36"/>
+      <c r="AMG70" s="36"/>
+      <c r="AMH70" s="36"/>
+      <c r="AMI70" s="36"/>
+      <c r="AMJ70" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP4上两类平台板卡兼容清单.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoperun\Desktop\129\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC29940-4B2C-4DD6-A4F7-C4125AE6FEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler20.03-LTS-SP4两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP4两类平台板卡兼容性'!$A$1:$Q$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP4两类平台板卡兼容性'!$A$1:$Q$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,6 +23,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="363">
   <si>
     <t>vendorID</t>
   </si>
@@ -983,41 +979,161 @@
     <t>145K</t>
   </si>
   <si>
+    <t>23.10-0.5.5</t>
+  </si>
+  <si>
+    <t>2023.12.15</t>
+  </si>
+  <si>
+    <t>bba9ad8ab8d0255fc75e7f1c2bd9bffcf862ccd1eef87138cafd3cd524a38125</t>
+  </si>
+  <si>
+    <t>191M</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP4/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.10-0.5.5.0-openeuler20.03sp4-x86_64.tgz</t>
+  </si>
+  <si>
+    <t>645a4a09098152d6b399664eb018ed68f6a591d14e075db407a31891de31b0bf</t>
+  </si>
+  <si>
+    <t>175M</t>
+  </si>
+  <si>
+    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP4/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.10-0.5.5.0-openeuler20.03sp4-aarch64.tgz</t>
+  </si>
+  <si>
+    <t>8088</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>txgbe</t>
+  </si>
+  <si>
+    <t>1.1.17oe</t>
+  </si>
+  <si>
+    <t>2023.11.27</t>
+  </si>
+  <si>
+    <t>651fd373f9cd6a5c0912abd3b7064dd5e2e27cf515a279a66a0f239f68810478</t>
+  </si>
+  <si>
+    <t>398K</t>
+  </si>
+  <si>
+    <t>Netswift</t>
+  </si>
+  <si>
+    <t>RP1000P2SFP</t>
+  </si>
+  <si>
+    <t>SP1000A</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>RP2000P2SFP</t>
+  </si>
+  <si>
+    <t>WX1820AL</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>ngbe</t>
+  </si>
+  <si>
+    <t>1.1.0oe</t>
+  </si>
+  <si>
+    <t>2f581ff3ca53efa6e1c23f70eabb4735199abe4f96b3a505d799ceb227450d48</t>
+  </si>
+  <si>
+    <t>367K</t>
+  </si>
+  <si>
+    <t>SF200HT</t>
+  </si>
+  <si>
+    <t>WX1860AL2</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>SF200T</t>
+  </si>
+  <si>
+    <t>WX1860A2</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>SF400HT</t>
+  </si>
+  <si>
+    <t>WX1860AL4</t>
+  </si>
+  <si>
+    <t>0401</t>
+  </si>
+  <si>
+    <t>SF400T</t>
+  </si>
+  <si>
+    <t>WX1860A4</t>
+  </si>
+  <si>
+    <t>2023.11.24</t>
+  </si>
+  <si>
+    <t>d7592a6dcc86566a0039946f8078d62f178aecf4758b4360b5039a7429e64387</t>
+  </si>
+  <si>
+    <t>383K</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
     <t>板卡</t>
   </si>
   <si>
     <t>问题</t>
-  </si>
-  <si>
-    <t>23.10-0.5.5</t>
-  </si>
-  <si>
-    <t>2023.12.15</t>
-  </si>
-  <si>
-    <t>bba9ad8ab8d0255fc75e7f1c2bd9bffcf862ccd1eef87138cafd3cd524a38125</t>
-  </si>
-  <si>
-    <t>191M</t>
-  </si>
-  <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP4/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.10-0.5.5.0-openeuler20.03sp4-x86_64.tgz</t>
-  </si>
-  <si>
-    <t>645a4a09098152d6b399664eb018ed68f6a591d14e075db407a31891de31b0bf</t>
-  </si>
-  <si>
-    <t>175M</t>
-  </si>
-  <si>
-    <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP4/contrib/drivers/source/Packages/MLNX_OFED_LINUX-23.10-0.5.5.0-openeuler20.03sp4-aarch64.tgz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1057,19 +1173,149 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,8 +1346,194 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1124,10 +1556,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,15 +1809,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1208,29 +1879,65 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1303,9 +2010,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1563,20 +2267,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMJ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="11" customWidth="1"/>
@@ -1599,7 +2304,7 @@
     <col min="19" max="1024" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" s="4" customFormat="1" ht="27" spans="1:18">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +2360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="5" customFormat="1" spans="1:17">
       <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
@@ -1708,7 +2413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="12" customHeight="1" spans="1:17">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -1761,7 +2466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
@@ -1814,7 +2519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" s="10" t="s">
         <v>38</v>
       </c>
@@ -1867,7 +2572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
@@ -1920,7 +2625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" s="10" t="s">
         <v>53</v>
       </c>
@@ -1973,7 +2678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8" s="10" t="s">
         <v>53</v>
       </c>
@@ -2026,7 +2731,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" s="10" t="s">
         <v>70</v>
       </c>
@@ -2079,7 +2784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="10" t="s">
         <v>70</v>
       </c>
@@ -2132,7 +2837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="10" t="s">
         <v>84</v>
       </c>
@@ -2185,7 +2890,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12" s="10" t="s">
         <v>84</v>
       </c>
@@ -2238,7 +2943,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="10" t="s">
         <v>98</v>
       </c>
@@ -2291,7 +2996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="10" t="s">
         <v>98</v>
       </c>
@@ -2344,7 +3049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="10" t="s">
         <v>113</v>
       </c>
@@ -2397,7 +3102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" s="10" t="s">
         <v>113</v>
       </c>
@@ -2450,7 +3155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="10" t="s">
         <v>126</v>
       </c>
@@ -2503,7 +3208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="10" t="s">
         <v>126</v>
       </c>
@@ -2556,7 +3261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="6" customFormat="1" spans="1:1024">
       <c r="A19" s="7" t="s">
         <v>98</v>
       </c>
@@ -3616,7 +4321,7 @@
       <c r="AMI19" s="7"/>
       <c r="AMJ19" s="7"/>
     </row>
-    <row r="20" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="6" customFormat="1" spans="1:1024">
       <c r="A20" s="19">
         <v>1000</v>
       </c>
@@ -4676,7 +5381,7 @@
       <c r="AMI20" s="7"/>
       <c r="AMJ20" s="7"/>
     </row>
-    <row r="21" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="7" customFormat="1" spans="1:17">
       <c r="A21" s="19" t="s">
         <v>84</v>
       </c>
@@ -4729,7 +5434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="6" customFormat="1" spans="1:1024">
       <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
@@ -5789,7 +6494,7 @@
       <c r="AMI22" s="7"/>
       <c r="AMJ22" s="7"/>
     </row>
-    <row r="23" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" s="6" customFormat="1" spans="1:1024">
       <c r="A23" s="7" t="s">
         <v>53</v>
       </c>
@@ -6849,7 +7554,7 @@
       <c r="AMI23" s="7"/>
       <c r="AMJ23" s="7"/>
     </row>
-    <row r="24" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="6" customFormat="1" spans="1:1024">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -7909,7 +8614,7 @@
       <c r="AMI24" s="7"/>
       <c r="AMJ24" s="7"/>
     </row>
-    <row r="25" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" s="7" customFormat="1" spans="1:17">
       <c r="A25" s="7" t="s">
         <v>187</v>
       </c>
@@ -7962,7 +8667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1024" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="6" customFormat="1" ht="12.95" customHeight="1" spans="1:1024">
       <c r="A26" s="22" t="s">
         <v>187</v>
       </c>
@@ -9022,7 +9727,7 @@
       <c r="AMI26" s="7"/>
       <c r="AMJ26" s="7"/>
     </row>
-    <row r="27" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" s="6" customFormat="1" spans="1:1024">
       <c r="A27" s="7" t="s">
         <v>53</v>
       </c>
@@ -10082,7 +10787,7 @@
       <c r="AMI27" s="7"/>
       <c r="AMJ27" s="7"/>
     </row>
-    <row r="28" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="6" customFormat="1" spans="1:1024">
       <c r="A28" s="19">
         <v>1000</v>
       </c>
@@ -11142,7 +11847,7 @@
       <c r="AMI28" s="7"/>
       <c r="AMJ28" s="7"/>
     </row>
-    <row r="29" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" s="7" customFormat="1" spans="1:17">
       <c r="A29" s="19" t="s">
         <v>84</v>
       </c>
@@ -11195,7 +11900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" s="6" customFormat="1" spans="1:1024">
       <c r="A30" s="7" t="s">
         <v>98</v>
       </c>
@@ -12255,7 +12960,7 @@
       <c r="AMI30" s="7"/>
       <c r="AMJ30" s="7"/>
     </row>
-    <row r="31" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" s="6" customFormat="1" spans="1:1024">
       <c r="A31" s="7" t="s">
         <v>53</v>
       </c>
@@ -13315,7 +14020,7 @@
       <c r="AMI31" s="7"/>
       <c r="AMJ31" s="7"/>
     </row>
-    <row r="32" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" s="7" customFormat="1" spans="1:17">
       <c r="A32" s="7" t="s">
         <v>187</v>
       </c>
@@ -13368,7 +14073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:1024" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" s="6" customFormat="1" ht="12.95" customHeight="1" spans="1:1024">
       <c r="A33" s="22" t="s">
         <v>187</v>
       </c>
@@ -14428,7 +15133,7 @@
       <c r="AMI33" s="7"/>
       <c r="AMJ33" s="7"/>
     </row>
-    <row r="34" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" s="6" customFormat="1" spans="1:1024">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -15488,7 +16193,7 @@
       <c r="AMI34" s="7"/>
       <c r="AMJ34" s="7"/>
     </row>
-    <row r="35" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" s="8" customFormat="1" spans="1:17">
       <c r="A35" s="25" t="s">
         <v>38</v>
       </c>
@@ -15541,7 +16246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" s="8" customFormat="1" spans="1:17">
       <c r="A36" s="25" t="s">
         <v>38</v>
       </c>
@@ -15594,7 +16299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" s="8" customFormat="1" spans="1:17">
       <c r="A37" s="25" t="s">
         <v>113</v>
       </c>
@@ -15647,7 +16352,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" s="8" customFormat="1" spans="1:17">
       <c r="A38" s="25" t="s">
         <v>113</v>
       </c>
@@ -15700,7 +16405,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" s="8" customFormat="1" spans="1:17">
       <c r="A39" s="25" t="s">
         <v>113</v>
       </c>
@@ -15753,7 +16458,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" s="8" customFormat="1" spans="1:17">
       <c r="A40" s="25" t="s">
         <v>113</v>
       </c>
@@ -15806,7 +16511,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" s="8" customFormat="1" spans="1:17">
       <c r="A41" s="25" t="s">
         <v>187</v>
       </c>
@@ -15859,7 +16564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" s="8" customFormat="1" spans="1:17">
       <c r="A42" s="25" t="s">
         <v>187</v>
       </c>
@@ -15912,7 +16617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" s="8" customFormat="1" spans="1:17">
       <c r="A43" s="25" t="s">
         <v>84</v>
       </c>
@@ -15965,7 +16670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" s="8" customFormat="1" spans="1:17">
       <c r="A44" s="25" t="s">
         <v>84</v>
       </c>
@@ -16018,7 +16723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" s="8" customFormat="1" spans="1:17">
       <c r="A45" s="25" t="s">
         <v>187</v>
       </c>
@@ -16071,7 +16776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" s="8" customFormat="1" spans="1:17">
       <c r="A46" s="25" t="s">
         <v>187</v>
       </c>
@@ -16124,7 +16829,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" s="8" customFormat="1" spans="1:17">
       <c r="A47" s="25" t="s">
         <v>38</v>
       </c>
@@ -16177,7 +16882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:1024" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" s="8" customFormat="1" spans="1:17">
       <c r="A48" s="25" t="s">
         <v>38</v>
       </c>
@@ -16230,7 +16935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" s="9" customFormat="1" spans="1:17">
       <c r="A49" s="9" t="s">
         <v>70</v>
       </c>
@@ -16281,7 +16986,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" s="9" customFormat="1" spans="1:17">
       <c r="A50" s="9" t="s">
         <v>70</v>
       </c>
@@ -16332,7 +17037,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" s="9" customFormat="1" spans="1:17">
       <c r="A51" s="9" t="s">
         <v>70</v>
       </c>
@@ -16383,7 +17088,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" s="9" customFormat="1" spans="1:17">
       <c r="A52" s="9" t="s">
         <v>70</v>
       </c>
@@ -16434,7 +17139,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" s="9" customFormat="1" spans="1:17">
       <c r="A53" s="9" t="s">
         <v>70</v>
       </c>
@@ -16485,7 +17190,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" s="9" customFormat="1" spans="1:17">
       <c r="A54" s="9" t="s">
         <v>70</v>
       </c>
@@ -16536,7 +17241,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" s="9" customFormat="1" spans="1:17">
       <c r="A55" s="9" t="s">
         <v>70</v>
       </c>
@@ -16587,7 +17292,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" s="9" customFormat="1" spans="1:17">
       <c r="A56" s="9" t="s">
         <v>70</v>
       </c>
@@ -16638,7 +17343,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" s="9" customFormat="1" spans="1:17">
       <c r="A57" s="9" t="s">
         <v>70</v>
       </c>
@@ -16689,7 +17394,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" s="9" customFormat="1" spans="1:17">
       <c r="A58" s="9" t="s">
         <v>70</v>
       </c>
@@ -16740,7 +17445,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" s="9" customFormat="1" spans="1:17">
       <c r="A59" s="9" t="s">
         <v>70</v>
       </c>
@@ -16791,7 +17496,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" s="9" customFormat="1" spans="1:17">
       <c r="A60" s="9" t="s">
         <v>70</v>
       </c>
@@ -16842,7 +17547,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" s="9" customFormat="1" spans="1:17">
       <c r="A61" s="9" t="s">
         <v>70</v>
       </c>
@@ -16893,7 +17598,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" s="9" customFormat="1" spans="1:17">
       <c r="A62" s="9" t="s">
         <v>70</v>
       </c>
@@ -16944,7 +17649,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" s="9" customFormat="1" spans="1:17">
       <c r="A63" s="9" t="s">
         <v>70</v>
       </c>
@@ -16995,7 +17700,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" s="9" customFormat="1" spans="1:17">
       <c r="A64" s="9" t="s">
         <v>70</v>
       </c>
@@ -17046,7 +17751,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17">
       <c r="A65" s="10" t="s">
         <v>291</v>
       </c>
@@ -17096,7 +17801,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17">
       <c r="A66" s="10" t="s">
         <v>291</v>
       </c>
@@ -17146,7 +17851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17">
       <c r="A67" s="10" t="s">
         <v>291</v>
       </c>
@@ -17196,7 +17901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:1024" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17">
       <c r="A68" s="10" t="s">
         <v>291</v>
       </c>
@@ -17246,2150 +17951,2754 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A69" s="36" t="s">
+    <row r="69" spans="1:1024">
+      <c r="A69" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E69" s="34" t="s">
+      <c r="E69" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F69" s="38" t="s">
+      <c r="F69" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="34" t="s">
+      <c r="G69" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H69" s="40" t="s">
+      <c r="H69" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K69" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="I69" s="37" t="s">
+      <c r="L69" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="N69" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="O69" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="P69" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q69" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="22"/>
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="22"/>
+      <c r="AP69" s="22"/>
+      <c r="AQ69" s="22"/>
+      <c r="AR69" s="22"/>
+      <c r="AS69" s="22"/>
+      <c r="AT69" s="22"/>
+      <c r="AU69" s="22"/>
+      <c r="AV69" s="22"/>
+      <c r="AW69" s="22"/>
+      <c r="AX69" s="22"/>
+      <c r="AY69" s="22"/>
+      <c r="AZ69" s="22"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="22"/>
+      <c r="BC69" s="22"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="22"/>
+      <c r="BG69" s="22"/>
+      <c r="BH69" s="22"/>
+      <c r="BI69" s="22"/>
+      <c r="BJ69" s="22"/>
+      <c r="BK69" s="22"/>
+      <c r="BL69" s="22"/>
+      <c r="BM69" s="22"/>
+      <c r="BN69" s="22"/>
+      <c r="BO69" s="22"/>
+      <c r="BP69" s="22"/>
+      <c r="BQ69" s="22"/>
+      <c r="BR69" s="22"/>
+      <c r="BS69" s="22"/>
+      <c r="BT69" s="22"/>
+      <c r="BU69" s="22"/>
+      <c r="BV69" s="22"/>
+      <c r="BW69" s="22"/>
+      <c r="BX69" s="22"/>
+      <c r="BY69" s="22"/>
+      <c r="BZ69" s="22"/>
+      <c r="CA69" s="22"/>
+      <c r="CB69" s="22"/>
+      <c r="CC69" s="22"/>
+      <c r="CD69" s="22"/>
+      <c r="CE69" s="22"/>
+      <c r="CF69" s="22"/>
+      <c r="CG69" s="22"/>
+      <c r="CH69" s="22"/>
+      <c r="CI69" s="22"/>
+      <c r="CJ69" s="22"/>
+      <c r="CK69" s="22"/>
+      <c r="CL69" s="22"/>
+      <c r="CM69" s="22"/>
+      <c r="CN69" s="22"/>
+      <c r="CO69" s="22"/>
+      <c r="CP69" s="22"/>
+      <c r="CQ69" s="22"/>
+      <c r="CR69" s="22"/>
+      <c r="CS69" s="22"/>
+      <c r="CT69" s="22"/>
+      <c r="CU69" s="22"/>
+      <c r="CV69" s="22"/>
+      <c r="CW69" s="22"/>
+      <c r="CX69" s="22"/>
+      <c r="CY69" s="22"/>
+      <c r="CZ69" s="22"/>
+      <c r="DA69" s="22"/>
+      <c r="DB69" s="22"/>
+      <c r="DC69" s="22"/>
+      <c r="DD69" s="22"/>
+      <c r="DE69" s="22"/>
+      <c r="DF69" s="22"/>
+      <c r="DG69" s="22"/>
+      <c r="DH69" s="22"/>
+      <c r="DI69" s="22"/>
+      <c r="DJ69" s="22"/>
+      <c r="DK69" s="22"/>
+      <c r="DL69" s="22"/>
+      <c r="DM69" s="22"/>
+      <c r="DN69" s="22"/>
+      <c r="DO69" s="22"/>
+      <c r="DP69" s="22"/>
+      <c r="DQ69" s="22"/>
+      <c r="DR69" s="22"/>
+      <c r="DS69" s="22"/>
+      <c r="DT69" s="22"/>
+      <c r="DU69" s="22"/>
+      <c r="DV69" s="22"/>
+      <c r="DW69" s="22"/>
+      <c r="DX69" s="22"/>
+      <c r="DY69" s="22"/>
+      <c r="DZ69" s="22"/>
+      <c r="EA69" s="22"/>
+      <c r="EB69" s="22"/>
+      <c r="EC69" s="22"/>
+      <c r="ED69" s="22"/>
+      <c r="EE69" s="22"/>
+      <c r="EF69" s="22"/>
+      <c r="EG69" s="22"/>
+      <c r="EH69" s="22"/>
+      <c r="EI69" s="22"/>
+      <c r="EJ69" s="22"/>
+      <c r="EK69" s="22"/>
+      <c r="EL69" s="22"/>
+      <c r="EM69" s="22"/>
+      <c r="EN69" s="22"/>
+      <c r="EO69" s="22"/>
+      <c r="EP69" s="22"/>
+      <c r="EQ69" s="22"/>
+      <c r="ER69" s="22"/>
+      <c r="ES69" s="22"/>
+      <c r="ET69" s="22"/>
+      <c r="EU69" s="22"/>
+      <c r="EV69" s="22"/>
+      <c r="EW69" s="22"/>
+      <c r="EX69" s="22"/>
+      <c r="EY69" s="22"/>
+      <c r="EZ69" s="22"/>
+      <c r="FA69" s="22"/>
+      <c r="FB69" s="22"/>
+      <c r="FC69" s="22"/>
+      <c r="FD69" s="22"/>
+      <c r="FE69" s="22"/>
+      <c r="FF69" s="22"/>
+      <c r="FG69" s="22"/>
+      <c r="FH69" s="22"/>
+      <c r="FI69" s="22"/>
+      <c r="FJ69" s="22"/>
+      <c r="FK69" s="22"/>
+      <c r="FL69" s="22"/>
+      <c r="FM69" s="22"/>
+      <c r="FN69" s="22"/>
+      <c r="FO69" s="22"/>
+      <c r="FP69" s="22"/>
+      <c r="FQ69" s="22"/>
+      <c r="FR69" s="22"/>
+      <c r="FS69" s="22"/>
+      <c r="FT69" s="22"/>
+      <c r="FU69" s="22"/>
+      <c r="FV69" s="22"/>
+      <c r="FW69" s="22"/>
+      <c r="FX69" s="22"/>
+      <c r="FY69" s="22"/>
+      <c r="FZ69" s="22"/>
+      <c r="GA69" s="22"/>
+      <c r="GB69" s="22"/>
+      <c r="GC69" s="22"/>
+      <c r="GD69" s="22"/>
+      <c r="GE69" s="22"/>
+      <c r="GF69" s="22"/>
+      <c r="GG69" s="22"/>
+      <c r="GH69" s="22"/>
+      <c r="GI69" s="22"/>
+      <c r="GJ69" s="22"/>
+      <c r="GK69" s="22"/>
+      <c r="GL69" s="22"/>
+      <c r="GM69" s="22"/>
+      <c r="GN69" s="22"/>
+      <c r="GO69" s="22"/>
+      <c r="GP69" s="22"/>
+      <c r="GQ69" s="22"/>
+      <c r="GR69" s="22"/>
+      <c r="GS69" s="22"/>
+      <c r="GT69" s="22"/>
+      <c r="GU69" s="22"/>
+      <c r="GV69" s="22"/>
+      <c r="GW69" s="22"/>
+      <c r="GX69" s="22"/>
+      <c r="GY69" s="22"/>
+      <c r="GZ69" s="22"/>
+      <c r="HA69" s="22"/>
+      <c r="HB69" s="22"/>
+      <c r="HC69" s="22"/>
+      <c r="HD69" s="22"/>
+      <c r="HE69" s="22"/>
+      <c r="HF69" s="22"/>
+      <c r="HG69" s="22"/>
+      <c r="HH69" s="22"/>
+      <c r="HI69" s="22"/>
+      <c r="HJ69" s="22"/>
+      <c r="HK69" s="22"/>
+      <c r="HL69" s="22"/>
+      <c r="HM69" s="22"/>
+      <c r="HN69" s="22"/>
+      <c r="HO69" s="22"/>
+      <c r="HP69" s="22"/>
+      <c r="HQ69" s="22"/>
+      <c r="HR69" s="22"/>
+      <c r="HS69" s="22"/>
+      <c r="HT69" s="22"/>
+      <c r="HU69" s="22"/>
+      <c r="HV69" s="22"/>
+      <c r="HW69" s="22"/>
+      <c r="HX69" s="22"/>
+      <c r="HY69" s="22"/>
+      <c r="HZ69" s="22"/>
+      <c r="IA69" s="22"/>
+      <c r="IB69" s="22"/>
+      <c r="IC69" s="22"/>
+      <c r="ID69" s="22"/>
+      <c r="IE69" s="22"/>
+      <c r="IF69" s="22"/>
+      <c r="IG69" s="22"/>
+      <c r="IH69" s="22"/>
+      <c r="II69" s="22"/>
+      <c r="IJ69" s="22"/>
+      <c r="IK69" s="22"/>
+      <c r="IL69" s="22"/>
+      <c r="IM69" s="22"/>
+      <c r="IN69" s="22"/>
+      <c r="IO69" s="22"/>
+      <c r="IP69" s="22"/>
+      <c r="IQ69" s="22"/>
+      <c r="IR69" s="22"/>
+      <c r="IS69" s="22"/>
+      <c r="IT69" s="22"/>
+      <c r="IU69" s="22"/>
+      <c r="IV69" s="22"/>
+      <c r="IW69" s="22"/>
+      <c r="IX69" s="22"/>
+      <c r="IY69" s="22"/>
+      <c r="IZ69" s="22"/>
+      <c r="JA69" s="22"/>
+      <c r="JB69" s="22"/>
+      <c r="JC69" s="22"/>
+      <c r="JD69" s="22"/>
+      <c r="JE69" s="22"/>
+      <c r="JF69" s="22"/>
+      <c r="JG69" s="22"/>
+      <c r="JH69" s="22"/>
+      <c r="JI69" s="22"/>
+      <c r="JJ69" s="22"/>
+      <c r="JK69" s="22"/>
+      <c r="JL69" s="22"/>
+      <c r="JM69" s="22"/>
+      <c r="JN69" s="22"/>
+      <c r="JO69" s="22"/>
+      <c r="JP69" s="22"/>
+      <c r="JQ69" s="22"/>
+      <c r="JR69" s="22"/>
+      <c r="JS69" s="22"/>
+      <c r="JT69" s="22"/>
+      <c r="JU69" s="22"/>
+      <c r="JV69" s="22"/>
+      <c r="JW69" s="22"/>
+      <c r="JX69" s="22"/>
+      <c r="JY69" s="22"/>
+      <c r="JZ69" s="22"/>
+      <c r="KA69" s="22"/>
+      <c r="KB69" s="22"/>
+      <c r="KC69" s="22"/>
+      <c r="KD69" s="22"/>
+      <c r="KE69" s="22"/>
+      <c r="KF69" s="22"/>
+      <c r="KG69" s="22"/>
+      <c r="KH69" s="22"/>
+      <c r="KI69" s="22"/>
+      <c r="KJ69" s="22"/>
+      <c r="KK69" s="22"/>
+      <c r="KL69" s="22"/>
+      <c r="KM69" s="22"/>
+      <c r="KN69" s="22"/>
+      <c r="KO69" s="22"/>
+      <c r="KP69" s="22"/>
+      <c r="KQ69" s="22"/>
+      <c r="KR69" s="22"/>
+      <c r="KS69" s="22"/>
+      <c r="KT69" s="22"/>
+      <c r="KU69" s="22"/>
+      <c r="KV69" s="22"/>
+      <c r="KW69" s="22"/>
+      <c r="KX69" s="22"/>
+      <c r="KY69" s="22"/>
+      <c r="KZ69" s="22"/>
+      <c r="LA69" s="22"/>
+      <c r="LB69" s="22"/>
+      <c r="LC69" s="22"/>
+      <c r="LD69" s="22"/>
+      <c r="LE69" s="22"/>
+      <c r="LF69" s="22"/>
+      <c r="LG69" s="22"/>
+      <c r="LH69" s="22"/>
+      <c r="LI69" s="22"/>
+      <c r="LJ69" s="22"/>
+      <c r="LK69" s="22"/>
+      <c r="LL69" s="22"/>
+      <c r="LM69" s="22"/>
+      <c r="LN69" s="22"/>
+      <c r="LO69" s="22"/>
+      <c r="LP69" s="22"/>
+      <c r="LQ69" s="22"/>
+      <c r="LR69" s="22"/>
+      <c r="LS69" s="22"/>
+      <c r="LT69" s="22"/>
+      <c r="LU69" s="22"/>
+      <c r="LV69" s="22"/>
+      <c r="LW69" s="22"/>
+      <c r="LX69" s="22"/>
+      <c r="LY69" s="22"/>
+      <c r="LZ69" s="22"/>
+      <c r="MA69" s="22"/>
+      <c r="MB69" s="22"/>
+      <c r="MC69" s="22"/>
+      <c r="MD69" s="22"/>
+      <c r="ME69" s="22"/>
+      <c r="MF69" s="22"/>
+      <c r="MG69" s="22"/>
+      <c r="MH69" s="22"/>
+      <c r="MI69" s="22"/>
+      <c r="MJ69" s="22"/>
+      <c r="MK69" s="22"/>
+      <c r="ML69" s="22"/>
+      <c r="MM69" s="22"/>
+      <c r="MN69" s="22"/>
+      <c r="MO69" s="22"/>
+      <c r="MP69" s="22"/>
+      <c r="MQ69" s="22"/>
+      <c r="MR69" s="22"/>
+      <c r="MS69" s="22"/>
+      <c r="MT69" s="22"/>
+      <c r="MU69" s="22"/>
+      <c r="MV69" s="22"/>
+      <c r="MW69" s="22"/>
+      <c r="MX69" s="22"/>
+      <c r="MY69" s="22"/>
+      <c r="MZ69" s="22"/>
+      <c r="NA69" s="22"/>
+      <c r="NB69" s="22"/>
+      <c r="NC69" s="22"/>
+      <c r="ND69" s="22"/>
+      <c r="NE69" s="22"/>
+      <c r="NF69" s="22"/>
+      <c r="NG69" s="22"/>
+      <c r="NH69" s="22"/>
+      <c r="NI69" s="22"/>
+      <c r="NJ69" s="22"/>
+      <c r="NK69" s="22"/>
+      <c r="NL69" s="22"/>
+      <c r="NM69" s="22"/>
+      <c r="NN69" s="22"/>
+      <c r="NO69" s="22"/>
+      <c r="NP69" s="22"/>
+      <c r="NQ69" s="22"/>
+      <c r="NR69" s="22"/>
+      <c r="NS69" s="22"/>
+      <c r="NT69" s="22"/>
+      <c r="NU69" s="22"/>
+      <c r="NV69" s="22"/>
+      <c r="NW69" s="22"/>
+      <c r="NX69" s="22"/>
+      <c r="NY69" s="22"/>
+      <c r="NZ69" s="22"/>
+      <c r="OA69" s="22"/>
+      <c r="OB69" s="22"/>
+      <c r="OC69" s="22"/>
+      <c r="OD69" s="22"/>
+      <c r="OE69" s="22"/>
+      <c r="OF69" s="22"/>
+      <c r="OG69" s="22"/>
+      <c r="OH69" s="22"/>
+      <c r="OI69" s="22"/>
+      <c r="OJ69" s="22"/>
+      <c r="OK69" s="22"/>
+      <c r="OL69" s="22"/>
+      <c r="OM69" s="22"/>
+      <c r="ON69" s="22"/>
+      <c r="OO69" s="22"/>
+      <c r="OP69" s="22"/>
+      <c r="OQ69" s="22"/>
+      <c r="OR69" s="22"/>
+      <c r="OS69" s="22"/>
+      <c r="OT69" s="22"/>
+      <c r="OU69" s="22"/>
+      <c r="OV69" s="22"/>
+      <c r="OW69" s="22"/>
+      <c r="OX69" s="22"/>
+      <c r="OY69" s="22"/>
+      <c r="OZ69" s="22"/>
+      <c r="PA69" s="22"/>
+      <c r="PB69" s="22"/>
+      <c r="PC69" s="22"/>
+      <c r="PD69" s="22"/>
+      <c r="PE69" s="22"/>
+      <c r="PF69" s="22"/>
+      <c r="PG69" s="22"/>
+      <c r="PH69" s="22"/>
+      <c r="PI69" s="22"/>
+      <c r="PJ69" s="22"/>
+      <c r="PK69" s="22"/>
+      <c r="PL69" s="22"/>
+      <c r="PM69" s="22"/>
+      <c r="PN69" s="22"/>
+      <c r="PO69" s="22"/>
+      <c r="PP69" s="22"/>
+      <c r="PQ69" s="22"/>
+      <c r="PR69" s="22"/>
+      <c r="PS69" s="22"/>
+      <c r="PT69" s="22"/>
+      <c r="PU69" s="22"/>
+      <c r="PV69" s="22"/>
+      <c r="PW69" s="22"/>
+      <c r="PX69" s="22"/>
+      <c r="PY69" s="22"/>
+      <c r="PZ69" s="22"/>
+      <c r="QA69" s="22"/>
+      <c r="QB69" s="22"/>
+      <c r="QC69" s="22"/>
+      <c r="QD69" s="22"/>
+      <c r="QE69" s="22"/>
+      <c r="QF69" s="22"/>
+      <c r="QG69" s="22"/>
+      <c r="QH69" s="22"/>
+      <c r="QI69" s="22"/>
+      <c r="QJ69" s="22"/>
+      <c r="QK69" s="22"/>
+      <c r="QL69" s="22"/>
+      <c r="QM69" s="22"/>
+      <c r="QN69" s="22"/>
+      <c r="QO69" s="22"/>
+      <c r="QP69" s="22"/>
+      <c r="QQ69" s="22"/>
+      <c r="QR69" s="22"/>
+      <c r="QS69" s="22"/>
+      <c r="QT69" s="22"/>
+      <c r="QU69" s="22"/>
+      <c r="QV69" s="22"/>
+      <c r="QW69" s="22"/>
+      <c r="QX69" s="22"/>
+      <c r="QY69" s="22"/>
+      <c r="QZ69" s="22"/>
+      <c r="RA69" s="22"/>
+      <c r="RB69" s="22"/>
+      <c r="RC69" s="22"/>
+      <c r="RD69" s="22"/>
+      <c r="RE69" s="22"/>
+      <c r="RF69" s="22"/>
+      <c r="RG69" s="22"/>
+      <c r="RH69" s="22"/>
+      <c r="RI69" s="22"/>
+      <c r="RJ69" s="22"/>
+      <c r="RK69" s="22"/>
+      <c r="RL69" s="22"/>
+      <c r="RM69" s="22"/>
+      <c r="RN69" s="22"/>
+      <c r="RO69" s="22"/>
+      <c r="RP69" s="22"/>
+      <c r="RQ69" s="22"/>
+      <c r="RR69" s="22"/>
+      <c r="RS69" s="22"/>
+      <c r="RT69" s="22"/>
+      <c r="RU69" s="22"/>
+      <c r="RV69" s="22"/>
+      <c r="RW69" s="22"/>
+      <c r="RX69" s="22"/>
+      <c r="RY69" s="22"/>
+      <c r="RZ69" s="22"/>
+      <c r="SA69" s="22"/>
+      <c r="SB69" s="22"/>
+      <c r="SC69" s="22"/>
+      <c r="SD69" s="22"/>
+      <c r="SE69" s="22"/>
+      <c r="SF69" s="22"/>
+      <c r="SG69" s="22"/>
+      <c r="SH69" s="22"/>
+      <c r="SI69" s="22"/>
+      <c r="SJ69" s="22"/>
+      <c r="SK69" s="22"/>
+      <c r="SL69" s="22"/>
+      <c r="SM69" s="22"/>
+      <c r="SN69" s="22"/>
+      <c r="SO69" s="22"/>
+      <c r="SP69" s="22"/>
+      <c r="SQ69" s="22"/>
+      <c r="SR69" s="22"/>
+      <c r="SS69" s="22"/>
+      <c r="ST69" s="22"/>
+      <c r="SU69" s="22"/>
+      <c r="SV69" s="22"/>
+      <c r="SW69" s="22"/>
+      <c r="SX69" s="22"/>
+      <c r="SY69" s="22"/>
+      <c r="SZ69" s="22"/>
+      <c r="TA69" s="22"/>
+      <c r="TB69" s="22"/>
+      <c r="TC69" s="22"/>
+      <c r="TD69" s="22"/>
+      <c r="TE69" s="22"/>
+      <c r="TF69" s="22"/>
+      <c r="TG69" s="22"/>
+      <c r="TH69" s="22"/>
+      <c r="TI69" s="22"/>
+      <c r="TJ69" s="22"/>
+      <c r="TK69" s="22"/>
+      <c r="TL69" s="22"/>
+      <c r="TM69" s="22"/>
+      <c r="TN69" s="22"/>
+      <c r="TO69" s="22"/>
+      <c r="TP69" s="22"/>
+      <c r="TQ69" s="22"/>
+      <c r="TR69" s="22"/>
+      <c r="TS69" s="22"/>
+      <c r="TT69" s="22"/>
+      <c r="TU69" s="22"/>
+      <c r="TV69" s="22"/>
+      <c r="TW69" s="22"/>
+      <c r="TX69" s="22"/>
+      <c r="TY69" s="22"/>
+      <c r="TZ69" s="22"/>
+      <c r="UA69" s="22"/>
+      <c r="UB69" s="22"/>
+      <c r="UC69" s="22"/>
+      <c r="UD69" s="22"/>
+      <c r="UE69" s="22"/>
+      <c r="UF69" s="22"/>
+      <c r="UG69" s="22"/>
+      <c r="UH69" s="22"/>
+      <c r="UI69" s="22"/>
+      <c r="UJ69" s="22"/>
+      <c r="UK69" s="22"/>
+      <c r="UL69" s="22"/>
+      <c r="UM69" s="22"/>
+      <c r="UN69" s="22"/>
+      <c r="UO69" s="22"/>
+      <c r="UP69" s="22"/>
+      <c r="UQ69" s="22"/>
+      <c r="UR69" s="22"/>
+      <c r="US69" s="22"/>
+      <c r="UT69" s="22"/>
+      <c r="UU69" s="22"/>
+      <c r="UV69" s="22"/>
+      <c r="UW69" s="22"/>
+      <c r="UX69" s="22"/>
+      <c r="UY69" s="22"/>
+      <c r="UZ69" s="22"/>
+      <c r="VA69" s="22"/>
+      <c r="VB69" s="22"/>
+      <c r="VC69" s="22"/>
+      <c r="VD69" s="22"/>
+      <c r="VE69" s="22"/>
+      <c r="VF69" s="22"/>
+      <c r="VG69" s="22"/>
+      <c r="VH69" s="22"/>
+      <c r="VI69" s="22"/>
+      <c r="VJ69" s="22"/>
+      <c r="VK69" s="22"/>
+      <c r="VL69" s="22"/>
+      <c r="VM69" s="22"/>
+      <c r="VN69" s="22"/>
+      <c r="VO69" s="22"/>
+      <c r="VP69" s="22"/>
+      <c r="VQ69" s="22"/>
+      <c r="VR69" s="22"/>
+      <c r="VS69" s="22"/>
+      <c r="VT69" s="22"/>
+      <c r="VU69" s="22"/>
+      <c r="VV69" s="22"/>
+      <c r="VW69" s="22"/>
+      <c r="VX69" s="22"/>
+      <c r="VY69" s="22"/>
+      <c r="VZ69" s="22"/>
+      <c r="WA69" s="22"/>
+      <c r="WB69" s="22"/>
+      <c r="WC69" s="22"/>
+      <c r="WD69" s="22"/>
+      <c r="WE69" s="22"/>
+      <c r="WF69" s="22"/>
+      <c r="WG69" s="22"/>
+      <c r="WH69" s="22"/>
+      <c r="WI69" s="22"/>
+      <c r="WJ69" s="22"/>
+      <c r="WK69" s="22"/>
+      <c r="WL69" s="22"/>
+      <c r="WM69" s="22"/>
+      <c r="WN69" s="22"/>
+      <c r="WO69" s="22"/>
+      <c r="WP69" s="22"/>
+      <c r="WQ69" s="22"/>
+      <c r="WR69" s="22"/>
+      <c r="WS69" s="22"/>
+      <c r="WT69" s="22"/>
+      <c r="WU69" s="22"/>
+      <c r="WV69" s="22"/>
+      <c r="WW69" s="22"/>
+      <c r="WX69" s="22"/>
+      <c r="WY69" s="22"/>
+      <c r="WZ69" s="22"/>
+      <c r="XA69" s="22"/>
+      <c r="XB69" s="22"/>
+      <c r="XC69" s="22"/>
+      <c r="XD69" s="22"/>
+      <c r="XE69" s="22"/>
+      <c r="XF69" s="22"/>
+      <c r="XG69" s="22"/>
+      <c r="XH69" s="22"/>
+      <c r="XI69" s="22"/>
+      <c r="XJ69" s="22"/>
+      <c r="XK69" s="22"/>
+      <c r="XL69" s="22"/>
+      <c r="XM69" s="22"/>
+      <c r="XN69" s="22"/>
+      <c r="XO69" s="22"/>
+      <c r="XP69" s="22"/>
+      <c r="XQ69" s="22"/>
+      <c r="XR69" s="22"/>
+      <c r="XS69" s="22"/>
+      <c r="XT69" s="22"/>
+      <c r="XU69" s="22"/>
+      <c r="XV69" s="22"/>
+      <c r="XW69" s="22"/>
+      <c r="XX69" s="22"/>
+      <c r="XY69" s="22"/>
+      <c r="XZ69" s="22"/>
+      <c r="YA69" s="22"/>
+      <c r="YB69" s="22"/>
+      <c r="YC69" s="22"/>
+      <c r="YD69" s="22"/>
+      <c r="YE69" s="22"/>
+      <c r="YF69" s="22"/>
+      <c r="YG69" s="22"/>
+      <c r="YH69" s="22"/>
+      <c r="YI69" s="22"/>
+      <c r="YJ69" s="22"/>
+      <c r="YK69" s="22"/>
+      <c r="YL69" s="22"/>
+      <c r="YM69" s="22"/>
+      <c r="YN69" s="22"/>
+      <c r="YO69" s="22"/>
+      <c r="YP69" s="22"/>
+      <c r="YQ69" s="22"/>
+      <c r="YR69" s="22"/>
+      <c r="YS69" s="22"/>
+      <c r="YT69" s="22"/>
+      <c r="YU69" s="22"/>
+      <c r="YV69" s="22"/>
+      <c r="YW69" s="22"/>
+      <c r="YX69" s="22"/>
+      <c r="YY69" s="22"/>
+      <c r="YZ69" s="22"/>
+      <c r="ZA69" s="22"/>
+      <c r="ZB69" s="22"/>
+      <c r="ZC69" s="22"/>
+      <c r="ZD69" s="22"/>
+      <c r="ZE69" s="22"/>
+      <c r="ZF69" s="22"/>
+      <c r="ZG69" s="22"/>
+      <c r="ZH69" s="22"/>
+      <c r="ZI69" s="22"/>
+      <c r="ZJ69" s="22"/>
+      <c r="ZK69" s="22"/>
+      <c r="ZL69" s="22"/>
+      <c r="ZM69" s="22"/>
+      <c r="ZN69" s="22"/>
+      <c r="ZO69" s="22"/>
+      <c r="ZP69" s="22"/>
+      <c r="ZQ69" s="22"/>
+      <c r="ZR69" s="22"/>
+      <c r="ZS69" s="22"/>
+      <c r="ZT69" s="22"/>
+      <c r="ZU69" s="22"/>
+      <c r="ZV69" s="22"/>
+      <c r="ZW69" s="22"/>
+      <c r="ZX69" s="22"/>
+      <c r="ZY69" s="22"/>
+      <c r="ZZ69" s="22"/>
+      <c r="AAA69" s="22"/>
+      <c r="AAB69" s="22"/>
+      <c r="AAC69" s="22"/>
+      <c r="AAD69" s="22"/>
+      <c r="AAE69" s="22"/>
+      <c r="AAF69" s="22"/>
+      <c r="AAG69" s="22"/>
+      <c r="AAH69" s="22"/>
+      <c r="AAI69" s="22"/>
+      <c r="AAJ69" s="22"/>
+      <c r="AAK69" s="22"/>
+      <c r="AAL69" s="22"/>
+      <c r="AAM69" s="22"/>
+      <c r="AAN69" s="22"/>
+      <c r="AAO69" s="22"/>
+      <c r="AAP69" s="22"/>
+      <c r="AAQ69" s="22"/>
+      <c r="AAR69" s="22"/>
+      <c r="AAS69" s="22"/>
+      <c r="AAT69" s="22"/>
+      <c r="AAU69" s="22"/>
+      <c r="AAV69" s="22"/>
+      <c r="AAW69" s="22"/>
+      <c r="AAX69" s="22"/>
+      <c r="AAY69" s="22"/>
+      <c r="AAZ69" s="22"/>
+      <c r="ABA69" s="22"/>
+      <c r="ABB69" s="22"/>
+      <c r="ABC69" s="22"/>
+      <c r="ABD69" s="22"/>
+      <c r="ABE69" s="22"/>
+      <c r="ABF69" s="22"/>
+      <c r="ABG69" s="22"/>
+      <c r="ABH69" s="22"/>
+      <c r="ABI69" s="22"/>
+      <c r="ABJ69" s="22"/>
+      <c r="ABK69" s="22"/>
+      <c r="ABL69" s="22"/>
+      <c r="ABM69" s="22"/>
+      <c r="ABN69" s="22"/>
+      <c r="ABO69" s="22"/>
+      <c r="ABP69" s="22"/>
+      <c r="ABQ69" s="22"/>
+      <c r="ABR69" s="22"/>
+      <c r="ABS69" s="22"/>
+      <c r="ABT69" s="22"/>
+      <c r="ABU69" s="22"/>
+      <c r="ABV69" s="22"/>
+      <c r="ABW69" s="22"/>
+      <c r="ABX69" s="22"/>
+      <c r="ABY69" s="22"/>
+      <c r="ABZ69" s="22"/>
+      <c r="ACA69" s="22"/>
+      <c r="ACB69" s="22"/>
+      <c r="ACC69" s="22"/>
+      <c r="ACD69" s="22"/>
+      <c r="ACE69" s="22"/>
+      <c r="ACF69" s="22"/>
+      <c r="ACG69" s="22"/>
+      <c r="ACH69" s="22"/>
+      <c r="ACI69" s="22"/>
+      <c r="ACJ69" s="22"/>
+      <c r="ACK69" s="22"/>
+      <c r="ACL69" s="22"/>
+      <c r="ACM69" s="22"/>
+      <c r="ACN69" s="22"/>
+      <c r="ACO69" s="22"/>
+      <c r="ACP69" s="22"/>
+      <c r="ACQ69" s="22"/>
+      <c r="ACR69" s="22"/>
+      <c r="ACS69" s="22"/>
+      <c r="ACT69" s="22"/>
+      <c r="ACU69" s="22"/>
+      <c r="ACV69" s="22"/>
+      <c r="ACW69" s="22"/>
+      <c r="ACX69" s="22"/>
+      <c r="ACY69" s="22"/>
+      <c r="ACZ69" s="22"/>
+      <c r="ADA69" s="22"/>
+      <c r="ADB69" s="22"/>
+      <c r="ADC69" s="22"/>
+      <c r="ADD69" s="22"/>
+      <c r="ADE69" s="22"/>
+      <c r="ADF69" s="22"/>
+      <c r="ADG69" s="22"/>
+      <c r="ADH69" s="22"/>
+      <c r="ADI69" s="22"/>
+      <c r="ADJ69" s="22"/>
+      <c r="ADK69" s="22"/>
+      <c r="ADL69" s="22"/>
+      <c r="ADM69" s="22"/>
+      <c r="ADN69" s="22"/>
+      <c r="ADO69" s="22"/>
+      <c r="ADP69" s="22"/>
+      <c r="ADQ69" s="22"/>
+      <c r="ADR69" s="22"/>
+      <c r="ADS69" s="22"/>
+      <c r="ADT69" s="22"/>
+      <c r="ADU69" s="22"/>
+      <c r="ADV69" s="22"/>
+      <c r="ADW69" s="22"/>
+      <c r="ADX69" s="22"/>
+      <c r="ADY69" s="22"/>
+      <c r="ADZ69" s="22"/>
+      <c r="AEA69" s="22"/>
+      <c r="AEB69" s="22"/>
+      <c r="AEC69" s="22"/>
+      <c r="AED69" s="22"/>
+      <c r="AEE69" s="22"/>
+      <c r="AEF69" s="22"/>
+      <c r="AEG69" s="22"/>
+      <c r="AEH69" s="22"/>
+      <c r="AEI69" s="22"/>
+      <c r="AEJ69" s="22"/>
+      <c r="AEK69" s="22"/>
+      <c r="AEL69" s="22"/>
+      <c r="AEM69" s="22"/>
+      <c r="AEN69" s="22"/>
+      <c r="AEO69" s="22"/>
+      <c r="AEP69" s="22"/>
+      <c r="AEQ69" s="22"/>
+      <c r="AER69" s="22"/>
+      <c r="AES69" s="22"/>
+      <c r="AET69" s="22"/>
+      <c r="AEU69" s="22"/>
+      <c r="AEV69" s="22"/>
+      <c r="AEW69" s="22"/>
+      <c r="AEX69" s="22"/>
+      <c r="AEY69" s="22"/>
+      <c r="AEZ69" s="22"/>
+      <c r="AFA69" s="22"/>
+      <c r="AFB69" s="22"/>
+      <c r="AFC69" s="22"/>
+      <c r="AFD69" s="22"/>
+      <c r="AFE69" s="22"/>
+      <c r="AFF69" s="22"/>
+      <c r="AFG69" s="22"/>
+      <c r="AFH69" s="22"/>
+      <c r="AFI69" s="22"/>
+      <c r="AFJ69" s="22"/>
+      <c r="AFK69" s="22"/>
+      <c r="AFL69" s="22"/>
+      <c r="AFM69" s="22"/>
+      <c r="AFN69" s="22"/>
+      <c r="AFO69" s="22"/>
+      <c r="AFP69" s="22"/>
+      <c r="AFQ69" s="22"/>
+      <c r="AFR69" s="22"/>
+      <c r="AFS69" s="22"/>
+      <c r="AFT69" s="22"/>
+      <c r="AFU69" s="22"/>
+      <c r="AFV69" s="22"/>
+      <c r="AFW69" s="22"/>
+      <c r="AFX69" s="22"/>
+      <c r="AFY69" s="22"/>
+      <c r="AFZ69" s="22"/>
+      <c r="AGA69" s="22"/>
+      <c r="AGB69" s="22"/>
+      <c r="AGC69" s="22"/>
+      <c r="AGD69" s="22"/>
+      <c r="AGE69" s="22"/>
+      <c r="AGF69" s="22"/>
+      <c r="AGG69" s="22"/>
+      <c r="AGH69" s="22"/>
+      <c r="AGI69" s="22"/>
+      <c r="AGJ69" s="22"/>
+      <c r="AGK69" s="22"/>
+      <c r="AGL69" s="22"/>
+      <c r="AGM69" s="22"/>
+      <c r="AGN69" s="22"/>
+      <c r="AGO69" s="22"/>
+      <c r="AGP69" s="22"/>
+      <c r="AGQ69" s="22"/>
+      <c r="AGR69" s="22"/>
+      <c r="AGS69" s="22"/>
+      <c r="AGT69" s="22"/>
+      <c r="AGU69" s="22"/>
+      <c r="AGV69" s="22"/>
+      <c r="AGW69" s="22"/>
+      <c r="AGX69" s="22"/>
+      <c r="AGY69" s="22"/>
+      <c r="AGZ69" s="22"/>
+      <c r="AHA69" s="22"/>
+      <c r="AHB69" s="22"/>
+      <c r="AHC69" s="22"/>
+      <c r="AHD69" s="22"/>
+      <c r="AHE69" s="22"/>
+      <c r="AHF69" s="22"/>
+      <c r="AHG69" s="22"/>
+      <c r="AHH69" s="22"/>
+      <c r="AHI69" s="22"/>
+      <c r="AHJ69" s="22"/>
+      <c r="AHK69" s="22"/>
+      <c r="AHL69" s="22"/>
+      <c r="AHM69" s="22"/>
+      <c r="AHN69" s="22"/>
+      <c r="AHO69" s="22"/>
+      <c r="AHP69" s="22"/>
+      <c r="AHQ69" s="22"/>
+      <c r="AHR69" s="22"/>
+      <c r="AHS69" s="22"/>
+      <c r="AHT69" s="22"/>
+      <c r="AHU69" s="22"/>
+      <c r="AHV69" s="22"/>
+      <c r="AHW69" s="22"/>
+      <c r="AHX69" s="22"/>
+      <c r="AHY69" s="22"/>
+      <c r="AHZ69" s="22"/>
+      <c r="AIA69" s="22"/>
+      <c r="AIB69" s="22"/>
+      <c r="AIC69" s="22"/>
+      <c r="AID69" s="22"/>
+      <c r="AIE69" s="22"/>
+      <c r="AIF69" s="22"/>
+      <c r="AIG69" s="22"/>
+      <c r="AIH69" s="22"/>
+      <c r="AII69" s="22"/>
+      <c r="AIJ69" s="22"/>
+      <c r="AIK69" s="22"/>
+      <c r="AIL69" s="22"/>
+      <c r="AIM69" s="22"/>
+      <c r="AIN69" s="22"/>
+      <c r="AIO69" s="22"/>
+      <c r="AIP69" s="22"/>
+      <c r="AIQ69" s="22"/>
+      <c r="AIR69" s="22"/>
+      <c r="AIS69" s="22"/>
+      <c r="AIT69" s="22"/>
+      <c r="AIU69" s="22"/>
+      <c r="AIV69" s="22"/>
+      <c r="AIW69" s="22"/>
+      <c r="AIX69" s="22"/>
+      <c r="AIY69" s="22"/>
+      <c r="AIZ69" s="22"/>
+      <c r="AJA69" s="22"/>
+      <c r="AJB69" s="22"/>
+      <c r="AJC69" s="22"/>
+      <c r="AJD69" s="22"/>
+      <c r="AJE69" s="22"/>
+      <c r="AJF69" s="22"/>
+      <c r="AJG69" s="22"/>
+      <c r="AJH69" s="22"/>
+      <c r="AJI69" s="22"/>
+      <c r="AJJ69" s="22"/>
+      <c r="AJK69" s="22"/>
+      <c r="AJL69" s="22"/>
+      <c r="AJM69" s="22"/>
+      <c r="AJN69" s="22"/>
+      <c r="AJO69" s="22"/>
+      <c r="AJP69" s="22"/>
+      <c r="AJQ69" s="22"/>
+      <c r="AJR69" s="22"/>
+      <c r="AJS69" s="22"/>
+      <c r="AJT69" s="22"/>
+      <c r="AJU69" s="22"/>
+      <c r="AJV69" s="22"/>
+      <c r="AJW69" s="22"/>
+      <c r="AJX69" s="22"/>
+      <c r="AJY69" s="22"/>
+      <c r="AJZ69" s="22"/>
+      <c r="AKA69" s="22"/>
+      <c r="AKB69" s="22"/>
+      <c r="AKC69" s="22"/>
+      <c r="AKD69" s="22"/>
+      <c r="AKE69" s="22"/>
+      <c r="AKF69" s="22"/>
+      <c r="AKG69" s="22"/>
+      <c r="AKH69" s="22"/>
+      <c r="AKI69" s="22"/>
+      <c r="AKJ69" s="22"/>
+      <c r="AKK69" s="22"/>
+      <c r="AKL69" s="22"/>
+      <c r="AKM69" s="22"/>
+      <c r="AKN69" s="22"/>
+      <c r="AKO69" s="22"/>
+      <c r="AKP69" s="22"/>
+      <c r="AKQ69" s="22"/>
+      <c r="AKR69" s="22"/>
+      <c r="AKS69" s="22"/>
+      <c r="AKT69" s="22"/>
+      <c r="AKU69" s="22"/>
+      <c r="AKV69" s="22"/>
+      <c r="AKW69" s="22"/>
+      <c r="AKX69" s="22"/>
+      <c r="AKY69" s="22"/>
+      <c r="AKZ69" s="22"/>
+      <c r="ALA69" s="22"/>
+      <c r="ALB69" s="22"/>
+      <c r="ALC69" s="22"/>
+      <c r="ALD69" s="22"/>
+      <c r="ALE69" s="22"/>
+      <c r="ALF69" s="22"/>
+      <c r="ALG69" s="22"/>
+      <c r="ALH69" s="22"/>
+      <c r="ALI69" s="22"/>
+      <c r="ALJ69" s="22"/>
+      <c r="ALK69" s="22"/>
+      <c r="ALL69" s="22"/>
+      <c r="ALM69" s="22"/>
+      <c r="ALN69" s="22"/>
+      <c r="ALO69" s="22"/>
+      <c r="ALP69" s="22"/>
+      <c r="ALQ69" s="22"/>
+      <c r="ALR69" s="22"/>
+      <c r="ALS69" s="22"/>
+      <c r="ALT69" s="22"/>
+      <c r="ALU69" s="22"/>
+      <c r="ALV69" s="22"/>
+      <c r="ALW69" s="22"/>
+      <c r="ALX69" s="22"/>
+      <c r="ALY69" s="22"/>
+      <c r="ALZ69" s="22"/>
+      <c r="AMA69" s="22"/>
+      <c r="AMB69" s="22"/>
+      <c r="AMC69" s="22"/>
+      <c r="AMD69" s="22"/>
+      <c r="AME69" s="22"/>
+      <c r="AMF69" s="22"/>
+      <c r="AMG69" s="22"/>
+      <c r="AMH69" s="22"/>
+      <c r="AMI69" s="22"/>
+      <c r="AMJ69" s="22"/>
+    </row>
+    <row r="70" spans="1:1024">
+      <c r="A70" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="I70" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J69" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="K69" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="L69" s="40" t="s">
+      <c r="J70" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K70" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="M69" s="34" t="s">
+      <c r="L70" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="M70" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="N69" s="37" t="s">
+      <c r="N70" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="O69" s="37" t="s">
+      <c r="O70" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="P69" s="37" t="s">
+      <c r="P70" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="Q69" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="36"/>
-      <c r="W69" s="36"/>
-      <c r="X69" s="36"/>
-      <c r="Y69" s="36"/>
-      <c r="Z69" s="36"/>
-      <c r="AA69" s="36"/>
-      <c r="AB69" s="36"/>
-      <c r="AC69" s="36"/>
-      <c r="AD69" s="36"/>
-      <c r="AE69" s="36"/>
-      <c r="AF69" s="36"/>
-      <c r="AG69" s="36"/>
-      <c r="AH69" s="36"/>
-      <c r="AI69" s="36"/>
-      <c r="AJ69" s="36"/>
-      <c r="AK69" s="36"/>
-      <c r="AL69" s="36"/>
-      <c r="AM69" s="36"/>
-      <c r="AN69" s="36"/>
-      <c r="AO69" s="36"/>
-      <c r="AP69" s="36"/>
-      <c r="AQ69" s="36"/>
-      <c r="AR69" s="36"/>
-      <c r="AS69" s="36"/>
-      <c r="AT69" s="36"/>
-      <c r="AU69" s="36"/>
-      <c r="AV69" s="36"/>
-      <c r="AW69" s="36"/>
-      <c r="AX69" s="36"/>
-      <c r="AY69" s="36"/>
-      <c r="AZ69" s="36"/>
-      <c r="BA69" s="36"/>
-      <c r="BB69" s="36"/>
-      <c r="BC69" s="36"/>
-      <c r="BD69" s="36"/>
-      <c r="BE69" s="36"/>
-      <c r="BF69" s="36"/>
-      <c r="BG69" s="36"/>
-      <c r="BH69" s="36"/>
-      <c r="BI69" s="36"/>
-      <c r="BJ69" s="36"/>
-      <c r="BK69" s="36"/>
-      <c r="BL69" s="36"/>
-      <c r="BM69" s="36"/>
-      <c r="BN69" s="36"/>
-      <c r="BO69" s="36"/>
-      <c r="BP69" s="36"/>
-      <c r="BQ69" s="36"/>
-      <c r="BR69" s="36"/>
-      <c r="BS69" s="36"/>
-      <c r="BT69" s="36"/>
-      <c r="BU69" s="36"/>
-      <c r="BV69" s="36"/>
-      <c r="BW69" s="36"/>
-      <c r="BX69" s="36"/>
-      <c r="BY69" s="36"/>
-      <c r="BZ69" s="36"/>
-      <c r="CA69" s="36"/>
-      <c r="CB69" s="36"/>
-      <c r="CC69" s="36"/>
-      <c r="CD69" s="36"/>
-      <c r="CE69" s="36"/>
-      <c r="CF69" s="36"/>
-      <c r="CG69" s="36"/>
-      <c r="CH69" s="36"/>
-      <c r="CI69" s="36"/>
-      <c r="CJ69" s="36"/>
-      <c r="CK69" s="36"/>
-      <c r="CL69" s="36"/>
-      <c r="CM69" s="36"/>
-      <c r="CN69" s="36"/>
-      <c r="CO69" s="36"/>
-      <c r="CP69" s="36"/>
-      <c r="CQ69" s="36"/>
-      <c r="CR69" s="36"/>
-      <c r="CS69" s="36"/>
-      <c r="CT69" s="36"/>
-      <c r="CU69" s="36"/>
-      <c r="CV69" s="36"/>
-      <c r="CW69" s="36"/>
-      <c r="CX69" s="36"/>
-      <c r="CY69" s="36"/>
-      <c r="CZ69" s="36"/>
-      <c r="DA69" s="36"/>
-      <c r="DB69" s="36"/>
-      <c r="DC69" s="36"/>
-      <c r="DD69" s="36"/>
-      <c r="DE69" s="36"/>
-      <c r="DF69" s="36"/>
-      <c r="DG69" s="36"/>
-      <c r="DH69" s="36"/>
-      <c r="DI69" s="36"/>
-      <c r="DJ69" s="36"/>
-      <c r="DK69" s="36"/>
-      <c r="DL69" s="36"/>
-      <c r="DM69" s="36"/>
-      <c r="DN69" s="36"/>
-      <c r="DO69" s="36"/>
-      <c r="DP69" s="36"/>
-      <c r="DQ69" s="36"/>
-      <c r="DR69" s="36"/>
-      <c r="DS69" s="36"/>
-      <c r="DT69" s="36"/>
-      <c r="DU69" s="36"/>
-      <c r="DV69" s="36"/>
-      <c r="DW69" s="36"/>
-      <c r="DX69" s="36"/>
-      <c r="DY69" s="36"/>
-      <c r="DZ69" s="36"/>
-      <c r="EA69" s="36"/>
-      <c r="EB69" s="36"/>
-      <c r="EC69" s="36"/>
-      <c r="ED69" s="36"/>
-      <c r="EE69" s="36"/>
-      <c r="EF69" s="36"/>
-      <c r="EG69" s="36"/>
-      <c r="EH69" s="36"/>
-      <c r="EI69" s="36"/>
-      <c r="EJ69" s="36"/>
-      <c r="EK69" s="36"/>
-      <c r="EL69" s="36"/>
-      <c r="EM69" s="36"/>
-      <c r="EN69" s="36"/>
-      <c r="EO69" s="36"/>
-      <c r="EP69" s="36"/>
-      <c r="EQ69" s="36"/>
-      <c r="ER69" s="36"/>
-      <c r="ES69" s="36"/>
-      <c r="ET69" s="36"/>
-      <c r="EU69" s="36"/>
-      <c r="EV69" s="36"/>
-      <c r="EW69" s="36"/>
-      <c r="EX69" s="36"/>
-      <c r="EY69" s="36"/>
-      <c r="EZ69" s="36"/>
-      <c r="FA69" s="36"/>
-      <c r="FB69" s="36"/>
-      <c r="FC69" s="36"/>
-      <c r="FD69" s="36"/>
-      <c r="FE69" s="36"/>
-      <c r="FF69" s="36"/>
-      <c r="FG69" s="36"/>
-      <c r="FH69" s="36"/>
-      <c r="FI69" s="36"/>
-      <c r="FJ69" s="36"/>
-      <c r="FK69" s="36"/>
-      <c r="FL69" s="36"/>
-      <c r="FM69" s="36"/>
-      <c r="FN69" s="36"/>
-      <c r="FO69" s="36"/>
-      <c r="FP69" s="36"/>
-      <c r="FQ69" s="36"/>
-      <c r="FR69" s="36"/>
-      <c r="FS69" s="36"/>
-      <c r="FT69" s="36"/>
-      <c r="FU69" s="36"/>
-      <c r="FV69" s="36"/>
-      <c r="FW69" s="36"/>
-      <c r="FX69" s="36"/>
-      <c r="FY69" s="36"/>
-      <c r="FZ69" s="36"/>
-      <c r="GA69" s="36"/>
-      <c r="GB69" s="36"/>
-      <c r="GC69" s="36"/>
-      <c r="GD69" s="36"/>
-      <c r="GE69" s="36"/>
-      <c r="GF69" s="36"/>
-      <c r="GG69" s="36"/>
-      <c r="GH69" s="36"/>
-      <c r="GI69" s="36"/>
-      <c r="GJ69" s="36"/>
-      <c r="GK69" s="36"/>
-      <c r="GL69" s="36"/>
-      <c r="GM69" s="36"/>
-      <c r="GN69" s="36"/>
-      <c r="GO69" s="36"/>
-      <c r="GP69" s="36"/>
-      <c r="GQ69" s="36"/>
-      <c r="GR69" s="36"/>
-      <c r="GS69" s="36"/>
-      <c r="GT69" s="36"/>
-      <c r="GU69" s="36"/>
-      <c r="GV69" s="36"/>
-      <c r="GW69" s="36"/>
-      <c r="GX69" s="36"/>
-      <c r="GY69" s="36"/>
-      <c r="GZ69" s="36"/>
-      <c r="HA69" s="36"/>
-      <c r="HB69" s="36"/>
-      <c r="HC69" s="36"/>
-      <c r="HD69" s="36"/>
-      <c r="HE69" s="36"/>
-      <c r="HF69" s="36"/>
-      <c r="HG69" s="36"/>
-      <c r="HH69" s="36"/>
-      <c r="HI69" s="36"/>
-      <c r="HJ69" s="36"/>
-      <c r="HK69" s="36"/>
-      <c r="HL69" s="36"/>
-      <c r="HM69" s="36"/>
-      <c r="HN69" s="36"/>
-      <c r="HO69" s="36"/>
-      <c r="HP69" s="36"/>
-      <c r="HQ69" s="36"/>
-      <c r="HR69" s="36"/>
-      <c r="HS69" s="36"/>
-      <c r="HT69" s="36"/>
-      <c r="HU69" s="36"/>
-      <c r="HV69" s="36"/>
-      <c r="HW69" s="36"/>
-      <c r="HX69" s="36"/>
-      <c r="HY69" s="36"/>
-      <c r="HZ69" s="36"/>
-      <c r="IA69" s="36"/>
-      <c r="IB69" s="36"/>
-      <c r="IC69" s="36"/>
-      <c r="ID69" s="36"/>
-      <c r="IE69" s="36"/>
-      <c r="IF69" s="36"/>
-      <c r="IG69" s="36"/>
-      <c r="IH69" s="36"/>
-      <c r="II69" s="36"/>
-      <c r="IJ69" s="36"/>
-      <c r="IK69" s="36"/>
-      <c r="IL69" s="36"/>
-      <c r="IM69" s="36"/>
-      <c r="IN69" s="36"/>
-      <c r="IO69" s="36"/>
-      <c r="IP69" s="36"/>
-      <c r="IQ69" s="36"/>
-      <c r="IR69" s="36"/>
-      <c r="IS69" s="36"/>
-      <c r="IT69" s="36"/>
-      <c r="IU69" s="36"/>
-      <c r="IV69" s="36"/>
-      <c r="IW69" s="36"/>
-      <c r="IX69" s="36"/>
-      <c r="IY69" s="36"/>
-      <c r="IZ69" s="36"/>
-      <c r="JA69" s="36"/>
-      <c r="JB69" s="36"/>
-      <c r="JC69" s="36"/>
-      <c r="JD69" s="36"/>
-      <c r="JE69" s="36"/>
-      <c r="JF69" s="36"/>
-      <c r="JG69" s="36"/>
-      <c r="JH69" s="36"/>
-      <c r="JI69" s="36"/>
-      <c r="JJ69" s="36"/>
-      <c r="JK69" s="36"/>
-      <c r="JL69" s="36"/>
-      <c r="JM69" s="36"/>
-      <c r="JN69" s="36"/>
-      <c r="JO69" s="36"/>
-      <c r="JP69" s="36"/>
-      <c r="JQ69" s="36"/>
-      <c r="JR69" s="36"/>
-      <c r="JS69" s="36"/>
-      <c r="JT69" s="36"/>
-      <c r="JU69" s="36"/>
-      <c r="JV69" s="36"/>
-      <c r="JW69" s="36"/>
-      <c r="JX69" s="36"/>
-      <c r="JY69" s="36"/>
-      <c r="JZ69" s="36"/>
-      <c r="KA69" s="36"/>
-      <c r="KB69" s="36"/>
-      <c r="KC69" s="36"/>
-      <c r="KD69" s="36"/>
-      <c r="KE69" s="36"/>
-      <c r="KF69" s="36"/>
-      <c r="KG69" s="36"/>
-      <c r="KH69" s="36"/>
-      <c r="KI69" s="36"/>
-      <c r="KJ69" s="36"/>
-      <c r="KK69" s="36"/>
-      <c r="KL69" s="36"/>
-      <c r="KM69" s="36"/>
-      <c r="KN69" s="36"/>
-      <c r="KO69" s="36"/>
-      <c r="KP69" s="36"/>
-      <c r="KQ69" s="36"/>
-      <c r="KR69" s="36"/>
-      <c r="KS69" s="36"/>
-      <c r="KT69" s="36"/>
-      <c r="KU69" s="36"/>
-      <c r="KV69" s="36"/>
-      <c r="KW69" s="36"/>
-      <c r="KX69" s="36"/>
-      <c r="KY69" s="36"/>
-      <c r="KZ69" s="36"/>
-      <c r="LA69" s="36"/>
-      <c r="LB69" s="36"/>
-      <c r="LC69" s="36"/>
-      <c r="LD69" s="36"/>
-      <c r="LE69" s="36"/>
-      <c r="LF69" s="36"/>
-      <c r="LG69" s="36"/>
-      <c r="LH69" s="36"/>
-      <c r="LI69" s="36"/>
-      <c r="LJ69" s="36"/>
-      <c r="LK69" s="36"/>
-      <c r="LL69" s="36"/>
-      <c r="LM69" s="36"/>
-      <c r="LN69" s="36"/>
-      <c r="LO69" s="36"/>
-      <c r="LP69" s="36"/>
-      <c r="LQ69" s="36"/>
-      <c r="LR69" s="36"/>
-      <c r="LS69" s="36"/>
-      <c r="LT69" s="36"/>
-      <c r="LU69" s="36"/>
-      <c r="LV69" s="36"/>
-      <c r="LW69" s="36"/>
-      <c r="LX69" s="36"/>
-      <c r="LY69" s="36"/>
-      <c r="LZ69" s="36"/>
-      <c r="MA69" s="36"/>
-      <c r="MB69" s="36"/>
-      <c r="MC69" s="36"/>
-      <c r="MD69" s="36"/>
-      <c r="ME69" s="36"/>
-      <c r="MF69" s="36"/>
-      <c r="MG69" s="36"/>
-      <c r="MH69" s="36"/>
-      <c r="MI69" s="36"/>
-      <c r="MJ69" s="36"/>
-      <c r="MK69" s="36"/>
-      <c r="ML69" s="36"/>
-      <c r="MM69" s="36"/>
-      <c r="MN69" s="36"/>
-      <c r="MO69" s="36"/>
-      <c r="MP69" s="36"/>
-      <c r="MQ69" s="36"/>
-      <c r="MR69" s="36"/>
-      <c r="MS69" s="36"/>
-      <c r="MT69" s="36"/>
-      <c r="MU69" s="36"/>
-      <c r="MV69" s="36"/>
-      <c r="MW69" s="36"/>
-      <c r="MX69" s="36"/>
-      <c r="MY69" s="36"/>
-      <c r="MZ69" s="36"/>
-      <c r="NA69" s="36"/>
-      <c r="NB69" s="36"/>
-      <c r="NC69" s="36"/>
-      <c r="ND69" s="36"/>
-      <c r="NE69" s="36"/>
-      <c r="NF69" s="36"/>
-      <c r="NG69" s="36"/>
-      <c r="NH69" s="36"/>
-      <c r="NI69" s="36"/>
-      <c r="NJ69" s="36"/>
-      <c r="NK69" s="36"/>
-      <c r="NL69" s="36"/>
-      <c r="NM69" s="36"/>
-      <c r="NN69" s="36"/>
-      <c r="NO69" s="36"/>
-      <c r="NP69" s="36"/>
-      <c r="NQ69" s="36"/>
-      <c r="NR69" s="36"/>
-      <c r="NS69" s="36"/>
-      <c r="NT69" s="36"/>
-      <c r="NU69" s="36"/>
-      <c r="NV69" s="36"/>
-      <c r="NW69" s="36"/>
-      <c r="NX69" s="36"/>
-      <c r="NY69" s="36"/>
-      <c r="NZ69" s="36"/>
-      <c r="OA69" s="36"/>
-      <c r="OB69" s="36"/>
-      <c r="OC69" s="36"/>
-      <c r="OD69" s="36"/>
-      <c r="OE69" s="36"/>
-      <c r="OF69" s="36"/>
-      <c r="OG69" s="36"/>
-      <c r="OH69" s="36"/>
-      <c r="OI69" s="36"/>
-      <c r="OJ69" s="36"/>
-      <c r="OK69" s="36"/>
-      <c r="OL69" s="36"/>
-      <c r="OM69" s="36"/>
-      <c r="ON69" s="36"/>
-      <c r="OO69" s="36"/>
-      <c r="OP69" s="36"/>
-      <c r="OQ69" s="36"/>
-      <c r="OR69" s="36"/>
-      <c r="OS69" s="36"/>
-      <c r="OT69" s="36"/>
-      <c r="OU69" s="36"/>
-      <c r="OV69" s="36"/>
-      <c r="OW69" s="36"/>
-      <c r="OX69" s="36"/>
-      <c r="OY69" s="36"/>
-      <c r="OZ69" s="36"/>
-      <c r="PA69" s="36"/>
-      <c r="PB69" s="36"/>
-      <c r="PC69" s="36"/>
-      <c r="PD69" s="36"/>
-      <c r="PE69" s="36"/>
-      <c r="PF69" s="36"/>
-      <c r="PG69" s="36"/>
-      <c r="PH69" s="36"/>
-      <c r="PI69" s="36"/>
-      <c r="PJ69" s="36"/>
-      <c r="PK69" s="36"/>
-      <c r="PL69" s="36"/>
-      <c r="PM69" s="36"/>
-      <c r="PN69" s="36"/>
-      <c r="PO69" s="36"/>
-      <c r="PP69" s="36"/>
-      <c r="PQ69" s="36"/>
-      <c r="PR69" s="36"/>
-      <c r="PS69" s="36"/>
-      <c r="PT69" s="36"/>
-      <c r="PU69" s="36"/>
-      <c r="PV69" s="36"/>
-      <c r="PW69" s="36"/>
-      <c r="PX69" s="36"/>
-      <c r="PY69" s="36"/>
-      <c r="PZ69" s="36"/>
-      <c r="QA69" s="36"/>
-      <c r="QB69" s="36"/>
-      <c r="QC69" s="36"/>
-      <c r="QD69" s="36"/>
-      <c r="QE69" s="36"/>
-      <c r="QF69" s="36"/>
-      <c r="QG69" s="36"/>
-      <c r="QH69" s="36"/>
-      <c r="QI69" s="36"/>
-      <c r="QJ69" s="36"/>
-      <c r="QK69" s="36"/>
-      <c r="QL69" s="36"/>
-      <c r="QM69" s="36"/>
-      <c r="QN69" s="36"/>
-      <c r="QO69" s="36"/>
-      <c r="QP69" s="36"/>
-      <c r="QQ69" s="36"/>
-      <c r="QR69" s="36"/>
-      <c r="QS69" s="36"/>
-      <c r="QT69" s="36"/>
-      <c r="QU69" s="36"/>
-      <c r="QV69" s="36"/>
-      <c r="QW69" s="36"/>
-      <c r="QX69" s="36"/>
-      <c r="QY69" s="36"/>
-      <c r="QZ69" s="36"/>
-      <c r="RA69" s="36"/>
-      <c r="RB69" s="36"/>
-      <c r="RC69" s="36"/>
-      <c r="RD69" s="36"/>
-      <c r="RE69" s="36"/>
-      <c r="RF69" s="36"/>
-      <c r="RG69" s="36"/>
-      <c r="RH69" s="36"/>
-      <c r="RI69" s="36"/>
-      <c r="RJ69" s="36"/>
-      <c r="RK69" s="36"/>
-      <c r="RL69" s="36"/>
-      <c r="RM69" s="36"/>
-      <c r="RN69" s="36"/>
-      <c r="RO69" s="36"/>
-      <c r="RP69" s="36"/>
-      <c r="RQ69" s="36"/>
-      <c r="RR69" s="36"/>
-      <c r="RS69" s="36"/>
-      <c r="RT69" s="36"/>
-      <c r="RU69" s="36"/>
-      <c r="RV69" s="36"/>
-      <c r="RW69" s="36"/>
-      <c r="RX69" s="36"/>
-      <c r="RY69" s="36"/>
-      <c r="RZ69" s="36"/>
-      <c r="SA69" s="36"/>
-      <c r="SB69" s="36"/>
-      <c r="SC69" s="36"/>
-      <c r="SD69" s="36"/>
-      <c r="SE69" s="36"/>
-      <c r="SF69" s="36"/>
-      <c r="SG69" s="36"/>
-      <c r="SH69" s="36"/>
-      <c r="SI69" s="36"/>
-      <c r="SJ69" s="36"/>
-      <c r="SK69" s="36"/>
-      <c r="SL69" s="36"/>
-      <c r="SM69" s="36"/>
-      <c r="SN69" s="36"/>
-      <c r="SO69" s="36"/>
-      <c r="SP69" s="36"/>
-      <c r="SQ69" s="36"/>
-      <c r="SR69" s="36"/>
-      <c r="SS69" s="36"/>
-      <c r="ST69" s="36"/>
-      <c r="SU69" s="36"/>
-      <c r="SV69" s="36"/>
-      <c r="SW69" s="36"/>
-      <c r="SX69" s="36"/>
-      <c r="SY69" s="36"/>
-      <c r="SZ69" s="36"/>
-      <c r="TA69" s="36"/>
-      <c r="TB69" s="36"/>
-      <c r="TC69" s="36"/>
-      <c r="TD69" s="36"/>
-      <c r="TE69" s="36"/>
-      <c r="TF69" s="36"/>
-      <c r="TG69" s="36"/>
-      <c r="TH69" s="36"/>
-      <c r="TI69" s="36"/>
-      <c r="TJ69" s="36"/>
-      <c r="TK69" s="36"/>
-      <c r="TL69" s="36"/>
-      <c r="TM69" s="36"/>
-      <c r="TN69" s="36"/>
-      <c r="TO69" s="36"/>
-      <c r="TP69" s="36"/>
-      <c r="TQ69" s="36"/>
-      <c r="TR69" s="36"/>
-      <c r="TS69" s="36"/>
-      <c r="TT69" s="36"/>
-      <c r="TU69" s="36"/>
-      <c r="TV69" s="36"/>
-      <c r="TW69" s="36"/>
-      <c r="TX69" s="36"/>
-      <c r="TY69" s="36"/>
-      <c r="TZ69" s="36"/>
-      <c r="UA69" s="36"/>
-      <c r="UB69" s="36"/>
-      <c r="UC69" s="36"/>
-      <c r="UD69" s="36"/>
-      <c r="UE69" s="36"/>
-      <c r="UF69" s="36"/>
-      <c r="UG69" s="36"/>
-      <c r="UH69" s="36"/>
-      <c r="UI69" s="36"/>
-      <c r="UJ69" s="36"/>
-      <c r="UK69" s="36"/>
-      <c r="UL69" s="36"/>
-      <c r="UM69" s="36"/>
-      <c r="UN69" s="36"/>
-      <c r="UO69" s="36"/>
-      <c r="UP69" s="36"/>
-      <c r="UQ69" s="36"/>
-      <c r="UR69" s="36"/>
-      <c r="US69" s="36"/>
-      <c r="UT69" s="36"/>
-      <c r="UU69" s="36"/>
-      <c r="UV69" s="36"/>
-      <c r="UW69" s="36"/>
-      <c r="UX69" s="36"/>
-      <c r="UY69" s="36"/>
-      <c r="UZ69" s="36"/>
-      <c r="VA69" s="36"/>
-      <c r="VB69" s="36"/>
-      <c r="VC69" s="36"/>
-      <c r="VD69" s="36"/>
-      <c r="VE69" s="36"/>
-      <c r="VF69" s="36"/>
-      <c r="VG69" s="36"/>
-      <c r="VH69" s="36"/>
-      <c r="VI69" s="36"/>
-      <c r="VJ69" s="36"/>
-      <c r="VK69" s="36"/>
-      <c r="VL69" s="36"/>
-      <c r="VM69" s="36"/>
-      <c r="VN69" s="36"/>
-      <c r="VO69" s="36"/>
-      <c r="VP69" s="36"/>
-      <c r="VQ69" s="36"/>
-      <c r="VR69" s="36"/>
-      <c r="VS69" s="36"/>
-      <c r="VT69" s="36"/>
-      <c r="VU69" s="36"/>
-      <c r="VV69" s="36"/>
-      <c r="VW69" s="36"/>
-      <c r="VX69" s="36"/>
-      <c r="VY69" s="36"/>
-      <c r="VZ69" s="36"/>
-      <c r="WA69" s="36"/>
-      <c r="WB69" s="36"/>
-      <c r="WC69" s="36"/>
-      <c r="WD69" s="36"/>
-      <c r="WE69" s="36"/>
-      <c r="WF69" s="36"/>
-      <c r="WG69" s="36"/>
-      <c r="WH69" s="36"/>
-      <c r="WI69" s="36"/>
-      <c r="WJ69" s="36"/>
-      <c r="WK69" s="36"/>
-      <c r="WL69" s="36"/>
-      <c r="WM69" s="36"/>
-      <c r="WN69" s="36"/>
-      <c r="WO69" s="36"/>
-      <c r="WP69" s="36"/>
-      <c r="WQ69" s="36"/>
-      <c r="WR69" s="36"/>
-      <c r="WS69" s="36"/>
-      <c r="WT69" s="36"/>
-      <c r="WU69" s="36"/>
-      <c r="WV69" s="36"/>
-      <c r="WW69" s="36"/>
-      <c r="WX69" s="36"/>
-      <c r="WY69" s="36"/>
-      <c r="WZ69" s="36"/>
-      <c r="XA69" s="36"/>
-      <c r="XB69" s="36"/>
-      <c r="XC69" s="36"/>
-      <c r="XD69" s="36"/>
-      <c r="XE69" s="36"/>
-      <c r="XF69" s="36"/>
-      <c r="XG69" s="36"/>
-      <c r="XH69" s="36"/>
-      <c r="XI69" s="36"/>
-      <c r="XJ69" s="36"/>
-      <c r="XK69" s="36"/>
-      <c r="XL69" s="36"/>
-      <c r="XM69" s="36"/>
-      <c r="XN69" s="36"/>
-      <c r="XO69" s="36"/>
-      <c r="XP69" s="36"/>
-      <c r="XQ69" s="36"/>
-      <c r="XR69" s="36"/>
-      <c r="XS69" s="36"/>
-      <c r="XT69" s="36"/>
-      <c r="XU69" s="36"/>
-      <c r="XV69" s="36"/>
-      <c r="XW69" s="36"/>
-      <c r="XX69" s="36"/>
-      <c r="XY69" s="36"/>
-      <c r="XZ69" s="36"/>
-      <c r="YA69" s="36"/>
-      <c r="YB69" s="36"/>
-      <c r="YC69" s="36"/>
-      <c r="YD69" s="36"/>
-      <c r="YE69" s="36"/>
-      <c r="YF69" s="36"/>
-      <c r="YG69" s="36"/>
-      <c r="YH69" s="36"/>
-      <c r="YI69" s="36"/>
-      <c r="YJ69" s="36"/>
-      <c r="YK69" s="36"/>
-      <c r="YL69" s="36"/>
-      <c r="YM69" s="36"/>
-      <c r="YN69" s="36"/>
-      <c r="YO69" s="36"/>
-      <c r="YP69" s="36"/>
-      <c r="YQ69" s="36"/>
-      <c r="YR69" s="36"/>
-      <c r="YS69" s="36"/>
-      <c r="YT69" s="36"/>
-      <c r="YU69" s="36"/>
-      <c r="YV69" s="36"/>
-      <c r="YW69" s="36"/>
-      <c r="YX69" s="36"/>
-      <c r="YY69" s="36"/>
-      <c r="YZ69" s="36"/>
-      <c r="ZA69" s="36"/>
-      <c r="ZB69" s="36"/>
-      <c r="ZC69" s="36"/>
-      <c r="ZD69" s="36"/>
-      <c r="ZE69" s="36"/>
-      <c r="ZF69" s="36"/>
-      <c r="ZG69" s="36"/>
-      <c r="ZH69" s="36"/>
-      <c r="ZI69" s="36"/>
-      <c r="ZJ69" s="36"/>
-      <c r="ZK69" s="36"/>
-      <c r="ZL69" s="36"/>
-      <c r="ZM69" s="36"/>
-      <c r="ZN69" s="36"/>
-      <c r="ZO69" s="36"/>
-      <c r="ZP69" s="36"/>
-      <c r="ZQ69" s="36"/>
-      <c r="ZR69" s="36"/>
-      <c r="ZS69" s="36"/>
-      <c r="ZT69" s="36"/>
-      <c r="ZU69" s="36"/>
-      <c r="ZV69" s="36"/>
-      <c r="ZW69" s="36"/>
-      <c r="ZX69" s="36"/>
-      <c r="ZY69" s="36"/>
-      <c r="ZZ69" s="36"/>
-      <c r="AAA69" s="36"/>
-      <c r="AAB69" s="36"/>
-      <c r="AAC69" s="36"/>
-      <c r="AAD69" s="36"/>
-      <c r="AAE69" s="36"/>
-      <c r="AAF69" s="36"/>
-      <c r="AAG69" s="36"/>
-      <c r="AAH69" s="36"/>
-      <c r="AAI69" s="36"/>
-      <c r="AAJ69" s="36"/>
-      <c r="AAK69" s="36"/>
-      <c r="AAL69" s="36"/>
-      <c r="AAM69" s="36"/>
-      <c r="AAN69" s="36"/>
-      <c r="AAO69" s="36"/>
-      <c r="AAP69" s="36"/>
-      <c r="AAQ69" s="36"/>
-      <c r="AAR69" s="36"/>
-      <c r="AAS69" s="36"/>
-      <c r="AAT69" s="36"/>
-      <c r="AAU69" s="36"/>
-      <c r="AAV69" s="36"/>
-      <c r="AAW69" s="36"/>
-      <c r="AAX69" s="36"/>
-      <c r="AAY69" s="36"/>
-      <c r="AAZ69" s="36"/>
-      <c r="ABA69" s="36"/>
-      <c r="ABB69" s="36"/>
-      <c r="ABC69" s="36"/>
-      <c r="ABD69" s="36"/>
-      <c r="ABE69" s="36"/>
-      <c r="ABF69" s="36"/>
-      <c r="ABG69" s="36"/>
-      <c r="ABH69" s="36"/>
-      <c r="ABI69" s="36"/>
-      <c r="ABJ69" s="36"/>
-      <c r="ABK69" s="36"/>
-      <c r="ABL69" s="36"/>
-      <c r="ABM69" s="36"/>
-      <c r="ABN69" s="36"/>
-      <c r="ABO69" s="36"/>
-      <c r="ABP69" s="36"/>
-      <c r="ABQ69" s="36"/>
-      <c r="ABR69" s="36"/>
-      <c r="ABS69" s="36"/>
-      <c r="ABT69" s="36"/>
-      <c r="ABU69" s="36"/>
-      <c r="ABV69" s="36"/>
-      <c r="ABW69" s="36"/>
-      <c r="ABX69" s="36"/>
-      <c r="ABY69" s="36"/>
-      <c r="ABZ69" s="36"/>
-      <c r="ACA69" s="36"/>
-      <c r="ACB69" s="36"/>
-      <c r="ACC69" s="36"/>
-      <c r="ACD69" s="36"/>
-      <c r="ACE69" s="36"/>
-      <c r="ACF69" s="36"/>
-      <c r="ACG69" s="36"/>
-      <c r="ACH69" s="36"/>
-      <c r="ACI69" s="36"/>
-      <c r="ACJ69" s="36"/>
-      <c r="ACK69" s="36"/>
-      <c r="ACL69" s="36"/>
-      <c r="ACM69" s="36"/>
-      <c r="ACN69" s="36"/>
-      <c r="ACO69" s="36"/>
-      <c r="ACP69" s="36"/>
-      <c r="ACQ69" s="36"/>
-      <c r="ACR69" s="36"/>
-      <c r="ACS69" s="36"/>
-      <c r="ACT69" s="36"/>
-      <c r="ACU69" s="36"/>
-      <c r="ACV69" s="36"/>
-      <c r="ACW69" s="36"/>
-      <c r="ACX69" s="36"/>
-      <c r="ACY69" s="36"/>
-      <c r="ACZ69" s="36"/>
-      <c r="ADA69" s="36"/>
-      <c r="ADB69" s="36"/>
-      <c r="ADC69" s="36"/>
-      <c r="ADD69" s="36"/>
-      <c r="ADE69" s="36"/>
-      <c r="ADF69" s="36"/>
-      <c r="ADG69" s="36"/>
-      <c r="ADH69" s="36"/>
-      <c r="ADI69" s="36"/>
-      <c r="ADJ69" s="36"/>
-      <c r="ADK69" s="36"/>
-      <c r="ADL69" s="36"/>
-      <c r="ADM69" s="36"/>
-      <c r="ADN69" s="36"/>
-      <c r="ADO69" s="36"/>
-      <c r="ADP69" s="36"/>
-      <c r="ADQ69" s="36"/>
-      <c r="ADR69" s="36"/>
-      <c r="ADS69" s="36"/>
-      <c r="ADT69" s="36"/>
-      <c r="ADU69" s="36"/>
-      <c r="ADV69" s="36"/>
-      <c r="ADW69" s="36"/>
-      <c r="ADX69" s="36"/>
-      <c r="ADY69" s="36"/>
-      <c r="ADZ69" s="36"/>
-      <c r="AEA69" s="36"/>
-      <c r="AEB69" s="36"/>
-      <c r="AEC69" s="36"/>
-      <c r="AED69" s="36"/>
-      <c r="AEE69" s="36"/>
-      <c r="AEF69" s="36"/>
-      <c r="AEG69" s="36"/>
-      <c r="AEH69" s="36"/>
-      <c r="AEI69" s="36"/>
-      <c r="AEJ69" s="36"/>
-      <c r="AEK69" s="36"/>
-      <c r="AEL69" s="36"/>
-      <c r="AEM69" s="36"/>
-      <c r="AEN69" s="36"/>
-      <c r="AEO69" s="36"/>
-      <c r="AEP69" s="36"/>
-      <c r="AEQ69" s="36"/>
-      <c r="AER69" s="36"/>
-      <c r="AES69" s="36"/>
-      <c r="AET69" s="36"/>
-      <c r="AEU69" s="36"/>
-      <c r="AEV69" s="36"/>
-      <c r="AEW69" s="36"/>
-      <c r="AEX69" s="36"/>
-      <c r="AEY69" s="36"/>
-      <c r="AEZ69" s="36"/>
-      <c r="AFA69" s="36"/>
-      <c r="AFB69" s="36"/>
-      <c r="AFC69" s="36"/>
-      <c r="AFD69" s="36"/>
-      <c r="AFE69" s="36"/>
-      <c r="AFF69" s="36"/>
-      <c r="AFG69" s="36"/>
-      <c r="AFH69" s="36"/>
-      <c r="AFI69" s="36"/>
-      <c r="AFJ69" s="36"/>
-      <c r="AFK69" s="36"/>
-      <c r="AFL69" s="36"/>
-      <c r="AFM69" s="36"/>
-      <c r="AFN69" s="36"/>
-      <c r="AFO69" s="36"/>
-      <c r="AFP69" s="36"/>
-      <c r="AFQ69" s="36"/>
-      <c r="AFR69" s="36"/>
-      <c r="AFS69" s="36"/>
-      <c r="AFT69" s="36"/>
-      <c r="AFU69" s="36"/>
-      <c r="AFV69" s="36"/>
-      <c r="AFW69" s="36"/>
-      <c r="AFX69" s="36"/>
-      <c r="AFY69" s="36"/>
-      <c r="AFZ69" s="36"/>
-      <c r="AGA69" s="36"/>
-      <c r="AGB69" s="36"/>
-      <c r="AGC69" s="36"/>
-      <c r="AGD69" s="36"/>
-      <c r="AGE69" s="36"/>
-      <c r="AGF69" s="36"/>
-      <c r="AGG69" s="36"/>
-      <c r="AGH69" s="36"/>
-      <c r="AGI69" s="36"/>
-      <c r="AGJ69" s="36"/>
-      <c r="AGK69" s="36"/>
-      <c r="AGL69" s="36"/>
-      <c r="AGM69" s="36"/>
-      <c r="AGN69" s="36"/>
-      <c r="AGO69" s="36"/>
-      <c r="AGP69" s="36"/>
-      <c r="AGQ69" s="36"/>
-      <c r="AGR69" s="36"/>
-      <c r="AGS69" s="36"/>
-      <c r="AGT69" s="36"/>
-      <c r="AGU69" s="36"/>
-      <c r="AGV69" s="36"/>
-      <c r="AGW69" s="36"/>
-      <c r="AGX69" s="36"/>
-      <c r="AGY69" s="36"/>
-      <c r="AGZ69" s="36"/>
-      <c r="AHA69" s="36"/>
-      <c r="AHB69" s="36"/>
-      <c r="AHC69" s="36"/>
-      <c r="AHD69" s="36"/>
-      <c r="AHE69" s="36"/>
-      <c r="AHF69" s="36"/>
-      <c r="AHG69" s="36"/>
-      <c r="AHH69" s="36"/>
-      <c r="AHI69" s="36"/>
-      <c r="AHJ69" s="36"/>
-      <c r="AHK69" s="36"/>
-      <c r="AHL69" s="36"/>
-      <c r="AHM69" s="36"/>
-      <c r="AHN69" s="36"/>
-      <c r="AHO69" s="36"/>
-      <c r="AHP69" s="36"/>
-      <c r="AHQ69" s="36"/>
-      <c r="AHR69" s="36"/>
-      <c r="AHS69" s="36"/>
-      <c r="AHT69" s="36"/>
-      <c r="AHU69" s="36"/>
-      <c r="AHV69" s="36"/>
-      <c r="AHW69" s="36"/>
-      <c r="AHX69" s="36"/>
-      <c r="AHY69" s="36"/>
-      <c r="AHZ69" s="36"/>
-      <c r="AIA69" s="36"/>
-      <c r="AIB69" s="36"/>
-      <c r="AIC69" s="36"/>
-      <c r="AID69" s="36"/>
-      <c r="AIE69" s="36"/>
-      <c r="AIF69" s="36"/>
-      <c r="AIG69" s="36"/>
-      <c r="AIH69" s="36"/>
-      <c r="AII69" s="36"/>
-      <c r="AIJ69" s="36"/>
-      <c r="AIK69" s="36"/>
-      <c r="AIL69" s="36"/>
-      <c r="AIM69" s="36"/>
-      <c r="AIN69" s="36"/>
-      <c r="AIO69" s="36"/>
-      <c r="AIP69" s="36"/>
-      <c r="AIQ69" s="36"/>
-      <c r="AIR69" s="36"/>
-      <c r="AIS69" s="36"/>
-      <c r="AIT69" s="36"/>
-      <c r="AIU69" s="36"/>
-      <c r="AIV69" s="36"/>
-      <c r="AIW69" s="36"/>
-      <c r="AIX69" s="36"/>
-      <c r="AIY69" s="36"/>
-      <c r="AIZ69" s="36"/>
-      <c r="AJA69" s="36"/>
-      <c r="AJB69" s="36"/>
-      <c r="AJC69" s="36"/>
-      <c r="AJD69" s="36"/>
-      <c r="AJE69" s="36"/>
-      <c r="AJF69" s="36"/>
-      <c r="AJG69" s="36"/>
-      <c r="AJH69" s="36"/>
-      <c r="AJI69" s="36"/>
-      <c r="AJJ69" s="36"/>
-      <c r="AJK69" s="36"/>
-      <c r="AJL69" s="36"/>
-      <c r="AJM69" s="36"/>
-      <c r="AJN69" s="36"/>
-      <c r="AJO69" s="36"/>
-      <c r="AJP69" s="36"/>
-      <c r="AJQ69" s="36"/>
-      <c r="AJR69" s="36"/>
-      <c r="AJS69" s="36"/>
-      <c r="AJT69" s="36"/>
-      <c r="AJU69" s="36"/>
-      <c r="AJV69" s="36"/>
-      <c r="AJW69" s="36"/>
-      <c r="AJX69" s="36"/>
-      <c r="AJY69" s="36"/>
-      <c r="AJZ69" s="36"/>
-      <c r="AKA69" s="36"/>
-      <c r="AKB69" s="36"/>
-      <c r="AKC69" s="36"/>
-      <c r="AKD69" s="36"/>
-      <c r="AKE69" s="36"/>
-      <c r="AKF69" s="36"/>
-      <c r="AKG69" s="36"/>
-      <c r="AKH69" s="36"/>
-      <c r="AKI69" s="36"/>
-      <c r="AKJ69" s="36"/>
-      <c r="AKK69" s="36"/>
-      <c r="AKL69" s="36"/>
-      <c r="AKM69" s="36"/>
-      <c r="AKN69" s="36"/>
-      <c r="AKO69" s="36"/>
-      <c r="AKP69" s="36"/>
-      <c r="AKQ69" s="36"/>
-      <c r="AKR69" s="36"/>
-      <c r="AKS69" s="36"/>
-      <c r="AKT69" s="36"/>
-      <c r="AKU69" s="36"/>
-      <c r="AKV69" s="36"/>
-      <c r="AKW69" s="36"/>
-      <c r="AKX69" s="36"/>
-      <c r="AKY69" s="36"/>
-      <c r="AKZ69" s="36"/>
-      <c r="ALA69" s="36"/>
-      <c r="ALB69" s="36"/>
-      <c r="ALC69" s="36"/>
-      <c r="ALD69" s="36"/>
-      <c r="ALE69" s="36"/>
-      <c r="ALF69" s="36"/>
-      <c r="ALG69" s="36"/>
-      <c r="ALH69" s="36"/>
-      <c r="ALI69" s="36"/>
-      <c r="ALJ69" s="36"/>
-      <c r="ALK69" s="36"/>
-      <c r="ALL69" s="36"/>
-      <c r="ALM69" s="36"/>
-      <c r="ALN69" s="36"/>
-      <c r="ALO69" s="36"/>
-      <c r="ALP69" s="36"/>
-      <c r="ALQ69" s="36"/>
-      <c r="ALR69" s="36"/>
-      <c r="ALS69" s="36"/>
-      <c r="ALT69" s="36"/>
-      <c r="ALU69" s="36"/>
-      <c r="ALV69" s="36"/>
-      <c r="ALW69" s="36"/>
-      <c r="ALX69" s="36"/>
-      <c r="ALY69" s="36"/>
-      <c r="ALZ69" s="36"/>
-      <c r="AMA69" s="36"/>
-      <c r="AMB69" s="36"/>
-      <c r="AMC69" s="36"/>
-      <c r="AMD69" s="36"/>
-      <c r="AME69" s="36"/>
-      <c r="AMF69" s="36"/>
-      <c r="AMG69" s="36"/>
-      <c r="AMH69" s="36"/>
-      <c r="AMI69" s="36"/>
-      <c r="AMJ69" s="36"/>
+      <c r="Q70" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="R70" s="22"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="22"/>
+      <c r="V70" s="22"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="22"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="22"/>
+      <c r="AC70" s="22"/>
+      <c r="AD70" s="22"/>
+      <c r="AE70" s="22"/>
+      <c r="AF70" s="22"/>
+      <c r="AG70" s="22"/>
+      <c r="AH70" s="22"/>
+      <c r="AI70" s="22"/>
+      <c r="AJ70" s="22"/>
+      <c r="AK70" s="22"/>
+      <c r="AL70" s="22"/>
+      <c r="AM70" s="22"/>
+      <c r="AN70" s="22"/>
+      <c r="AO70" s="22"/>
+      <c r="AP70" s="22"/>
+      <c r="AQ70" s="22"/>
+      <c r="AR70" s="22"/>
+      <c r="AS70" s="22"/>
+      <c r="AT70" s="22"/>
+      <c r="AU70" s="22"/>
+      <c r="AV70" s="22"/>
+      <c r="AW70" s="22"/>
+      <c r="AX70" s="22"/>
+      <c r="AY70" s="22"/>
+      <c r="AZ70" s="22"/>
+      <c r="BA70" s="22"/>
+      <c r="BB70" s="22"/>
+      <c r="BC70" s="22"/>
+      <c r="BD70" s="22"/>
+      <c r="BE70" s="22"/>
+      <c r="BF70" s="22"/>
+      <c r="BG70" s="22"/>
+      <c r="BH70" s="22"/>
+      <c r="BI70" s="22"/>
+      <c r="BJ70" s="22"/>
+      <c r="BK70" s="22"/>
+      <c r="BL70" s="22"/>
+      <c r="BM70" s="22"/>
+      <c r="BN70" s="22"/>
+      <c r="BO70" s="22"/>
+      <c r="BP70" s="22"/>
+      <c r="BQ70" s="22"/>
+      <c r="BR70" s="22"/>
+      <c r="BS70" s="22"/>
+      <c r="BT70" s="22"/>
+      <c r="BU70" s="22"/>
+      <c r="BV70" s="22"/>
+      <c r="BW70" s="22"/>
+      <c r="BX70" s="22"/>
+      <c r="BY70" s="22"/>
+      <c r="BZ70" s="22"/>
+      <c r="CA70" s="22"/>
+      <c r="CB70" s="22"/>
+      <c r="CC70" s="22"/>
+      <c r="CD70" s="22"/>
+      <c r="CE70" s="22"/>
+      <c r="CF70" s="22"/>
+      <c r="CG70" s="22"/>
+      <c r="CH70" s="22"/>
+      <c r="CI70" s="22"/>
+      <c r="CJ70" s="22"/>
+      <c r="CK70" s="22"/>
+      <c r="CL70" s="22"/>
+      <c r="CM70" s="22"/>
+      <c r="CN70" s="22"/>
+      <c r="CO70" s="22"/>
+      <c r="CP70" s="22"/>
+      <c r="CQ70" s="22"/>
+      <c r="CR70" s="22"/>
+      <c r="CS70" s="22"/>
+      <c r="CT70" s="22"/>
+      <c r="CU70" s="22"/>
+      <c r="CV70" s="22"/>
+      <c r="CW70" s="22"/>
+      <c r="CX70" s="22"/>
+      <c r="CY70" s="22"/>
+      <c r="CZ70" s="22"/>
+      <c r="DA70" s="22"/>
+      <c r="DB70" s="22"/>
+      <c r="DC70" s="22"/>
+      <c r="DD70" s="22"/>
+      <c r="DE70" s="22"/>
+      <c r="DF70" s="22"/>
+      <c r="DG70" s="22"/>
+      <c r="DH70" s="22"/>
+      <c r="DI70" s="22"/>
+      <c r="DJ70" s="22"/>
+      <c r="DK70" s="22"/>
+      <c r="DL70" s="22"/>
+      <c r="DM70" s="22"/>
+      <c r="DN70" s="22"/>
+      <c r="DO70" s="22"/>
+      <c r="DP70" s="22"/>
+      <c r="DQ70" s="22"/>
+      <c r="DR70" s="22"/>
+      <c r="DS70" s="22"/>
+      <c r="DT70" s="22"/>
+      <c r="DU70" s="22"/>
+      <c r="DV70" s="22"/>
+      <c r="DW70" s="22"/>
+      <c r="DX70" s="22"/>
+      <c r="DY70" s="22"/>
+      <c r="DZ70" s="22"/>
+      <c r="EA70" s="22"/>
+      <c r="EB70" s="22"/>
+      <c r="EC70" s="22"/>
+      <c r="ED70" s="22"/>
+      <c r="EE70" s="22"/>
+      <c r="EF70" s="22"/>
+      <c r="EG70" s="22"/>
+      <c r="EH70" s="22"/>
+      <c r="EI70" s="22"/>
+      <c r="EJ70" s="22"/>
+      <c r="EK70" s="22"/>
+      <c r="EL70" s="22"/>
+      <c r="EM70" s="22"/>
+      <c r="EN70" s="22"/>
+      <c r="EO70" s="22"/>
+      <c r="EP70" s="22"/>
+      <c r="EQ70" s="22"/>
+      <c r="ER70" s="22"/>
+      <c r="ES70" s="22"/>
+      <c r="ET70" s="22"/>
+      <c r="EU70" s="22"/>
+      <c r="EV70" s="22"/>
+      <c r="EW70" s="22"/>
+      <c r="EX70" s="22"/>
+      <c r="EY70" s="22"/>
+      <c r="EZ70" s="22"/>
+      <c r="FA70" s="22"/>
+      <c r="FB70" s="22"/>
+      <c r="FC70" s="22"/>
+      <c r="FD70" s="22"/>
+      <c r="FE70" s="22"/>
+      <c r="FF70" s="22"/>
+      <c r="FG70" s="22"/>
+      <c r="FH70" s="22"/>
+      <c r="FI70" s="22"/>
+      <c r="FJ70" s="22"/>
+      <c r="FK70" s="22"/>
+      <c r="FL70" s="22"/>
+      <c r="FM70" s="22"/>
+      <c r="FN70" s="22"/>
+      <c r="FO70" s="22"/>
+      <c r="FP70" s="22"/>
+      <c r="FQ70" s="22"/>
+      <c r="FR70" s="22"/>
+      <c r="FS70" s="22"/>
+      <c r="FT70" s="22"/>
+      <c r="FU70" s="22"/>
+      <c r="FV70" s="22"/>
+      <c r="FW70" s="22"/>
+      <c r="FX70" s="22"/>
+      <c r="FY70" s="22"/>
+      <c r="FZ70" s="22"/>
+      <c r="GA70" s="22"/>
+      <c r="GB70" s="22"/>
+      <c r="GC70" s="22"/>
+      <c r="GD70" s="22"/>
+      <c r="GE70" s="22"/>
+      <c r="GF70" s="22"/>
+      <c r="GG70" s="22"/>
+      <c r="GH70" s="22"/>
+      <c r="GI70" s="22"/>
+      <c r="GJ70" s="22"/>
+      <c r="GK70" s="22"/>
+      <c r="GL70" s="22"/>
+      <c r="GM70" s="22"/>
+      <c r="GN70" s="22"/>
+      <c r="GO70" s="22"/>
+      <c r="GP70" s="22"/>
+      <c r="GQ70" s="22"/>
+      <c r="GR70" s="22"/>
+      <c r="GS70" s="22"/>
+      <c r="GT70" s="22"/>
+      <c r="GU70" s="22"/>
+      <c r="GV70" s="22"/>
+      <c r="GW70" s="22"/>
+      <c r="GX70" s="22"/>
+      <c r="GY70" s="22"/>
+      <c r="GZ70" s="22"/>
+      <c r="HA70" s="22"/>
+      <c r="HB70" s="22"/>
+      <c r="HC70" s="22"/>
+      <c r="HD70" s="22"/>
+      <c r="HE70" s="22"/>
+      <c r="HF70" s="22"/>
+      <c r="HG70" s="22"/>
+      <c r="HH70" s="22"/>
+      <c r="HI70" s="22"/>
+      <c r="HJ70" s="22"/>
+      <c r="HK70" s="22"/>
+      <c r="HL70" s="22"/>
+      <c r="HM70" s="22"/>
+      <c r="HN70" s="22"/>
+      <c r="HO70" s="22"/>
+      <c r="HP70" s="22"/>
+      <c r="HQ70" s="22"/>
+      <c r="HR70" s="22"/>
+      <c r="HS70" s="22"/>
+      <c r="HT70" s="22"/>
+      <c r="HU70" s="22"/>
+      <c r="HV70" s="22"/>
+      <c r="HW70" s="22"/>
+      <c r="HX70" s="22"/>
+      <c r="HY70" s="22"/>
+      <c r="HZ70" s="22"/>
+      <c r="IA70" s="22"/>
+      <c r="IB70" s="22"/>
+      <c r="IC70" s="22"/>
+      <c r="ID70" s="22"/>
+      <c r="IE70" s="22"/>
+      <c r="IF70" s="22"/>
+      <c r="IG70" s="22"/>
+      <c r="IH70" s="22"/>
+      <c r="II70" s="22"/>
+      <c r="IJ70" s="22"/>
+      <c r="IK70" s="22"/>
+      <c r="IL70" s="22"/>
+      <c r="IM70" s="22"/>
+      <c r="IN70" s="22"/>
+      <c r="IO70" s="22"/>
+      <c r="IP70" s="22"/>
+      <c r="IQ70" s="22"/>
+      <c r="IR70" s="22"/>
+      <c r="IS70" s="22"/>
+      <c r="IT70" s="22"/>
+      <c r="IU70" s="22"/>
+      <c r="IV70" s="22"/>
+      <c r="IW70" s="22"/>
+      <c r="IX70" s="22"/>
+      <c r="IY70" s="22"/>
+      <c r="IZ70" s="22"/>
+      <c r="JA70" s="22"/>
+      <c r="JB70" s="22"/>
+      <c r="JC70" s="22"/>
+      <c r="JD70" s="22"/>
+      <c r="JE70" s="22"/>
+      <c r="JF70" s="22"/>
+      <c r="JG70" s="22"/>
+      <c r="JH70" s="22"/>
+      <c r="JI70" s="22"/>
+      <c r="JJ70" s="22"/>
+      <c r="JK70" s="22"/>
+      <c r="JL70" s="22"/>
+      <c r="JM70" s="22"/>
+      <c r="JN70" s="22"/>
+      <c r="JO70" s="22"/>
+      <c r="JP70" s="22"/>
+      <c r="JQ70" s="22"/>
+      <c r="JR70" s="22"/>
+      <c r="JS70" s="22"/>
+      <c r="JT70" s="22"/>
+      <c r="JU70" s="22"/>
+      <c r="JV70" s="22"/>
+      <c r="JW70" s="22"/>
+      <c r="JX70" s="22"/>
+      <c r="JY70" s="22"/>
+      <c r="JZ70" s="22"/>
+      <c r="KA70" s="22"/>
+      <c r="KB70" s="22"/>
+      <c r="KC70" s="22"/>
+      <c r="KD70" s="22"/>
+      <c r="KE70" s="22"/>
+      <c r="KF70" s="22"/>
+      <c r="KG70" s="22"/>
+      <c r="KH70" s="22"/>
+      <c r="KI70" s="22"/>
+      <c r="KJ70" s="22"/>
+      <c r="KK70" s="22"/>
+      <c r="KL70" s="22"/>
+      <c r="KM70" s="22"/>
+      <c r="KN70" s="22"/>
+      <c r="KO70" s="22"/>
+      <c r="KP70" s="22"/>
+      <c r="KQ70" s="22"/>
+      <c r="KR70" s="22"/>
+      <c r="KS70" s="22"/>
+      <c r="KT70" s="22"/>
+      <c r="KU70" s="22"/>
+      <c r="KV70" s="22"/>
+      <c r="KW70" s="22"/>
+      <c r="KX70" s="22"/>
+      <c r="KY70" s="22"/>
+      <c r="KZ70" s="22"/>
+      <c r="LA70" s="22"/>
+      <c r="LB70" s="22"/>
+      <c r="LC70" s="22"/>
+      <c r="LD70" s="22"/>
+      <c r="LE70" s="22"/>
+      <c r="LF70" s="22"/>
+      <c r="LG70" s="22"/>
+      <c r="LH70" s="22"/>
+      <c r="LI70" s="22"/>
+      <c r="LJ70" s="22"/>
+      <c r="LK70" s="22"/>
+      <c r="LL70" s="22"/>
+      <c r="LM70" s="22"/>
+      <c r="LN70" s="22"/>
+      <c r="LO70" s="22"/>
+      <c r="LP70" s="22"/>
+      <c r="LQ70" s="22"/>
+      <c r="LR70" s="22"/>
+      <c r="LS70" s="22"/>
+      <c r="LT70" s="22"/>
+      <c r="LU70" s="22"/>
+      <c r="LV70" s="22"/>
+      <c r="LW70" s="22"/>
+      <c r="LX70" s="22"/>
+      <c r="LY70" s="22"/>
+      <c r="LZ70" s="22"/>
+      <c r="MA70" s="22"/>
+      <c r="MB70" s="22"/>
+      <c r="MC70" s="22"/>
+      <c r="MD70" s="22"/>
+      <c r="ME70" s="22"/>
+      <c r="MF70" s="22"/>
+      <c r="MG70" s="22"/>
+      <c r="MH70" s="22"/>
+      <c r="MI70" s="22"/>
+      <c r="MJ70" s="22"/>
+      <c r="MK70" s="22"/>
+      <c r="ML70" s="22"/>
+      <c r="MM70" s="22"/>
+      <c r="MN70" s="22"/>
+      <c r="MO70" s="22"/>
+      <c r="MP70" s="22"/>
+      <c r="MQ70" s="22"/>
+      <c r="MR70" s="22"/>
+      <c r="MS70" s="22"/>
+      <c r="MT70" s="22"/>
+      <c r="MU70" s="22"/>
+      <c r="MV70" s="22"/>
+      <c r="MW70" s="22"/>
+      <c r="MX70" s="22"/>
+      <c r="MY70" s="22"/>
+      <c r="MZ70" s="22"/>
+      <c r="NA70" s="22"/>
+      <c r="NB70" s="22"/>
+      <c r="NC70" s="22"/>
+      <c r="ND70" s="22"/>
+      <c r="NE70" s="22"/>
+      <c r="NF70" s="22"/>
+      <c r="NG70" s="22"/>
+      <c r="NH70" s="22"/>
+      <c r="NI70" s="22"/>
+      <c r="NJ70" s="22"/>
+      <c r="NK70" s="22"/>
+      <c r="NL70" s="22"/>
+      <c r="NM70" s="22"/>
+      <c r="NN70" s="22"/>
+      <c r="NO70" s="22"/>
+      <c r="NP70" s="22"/>
+      <c r="NQ70" s="22"/>
+      <c r="NR70" s="22"/>
+      <c r="NS70" s="22"/>
+      <c r="NT70" s="22"/>
+      <c r="NU70" s="22"/>
+      <c r="NV70" s="22"/>
+      <c r="NW70" s="22"/>
+      <c r="NX70" s="22"/>
+      <c r="NY70" s="22"/>
+      <c r="NZ70" s="22"/>
+      <c r="OA70" s="22"/>
+      <c r="OB70" s="22"/>
+      <c r="OC70" s="22"/>
+      <c r="OD70" s="22"/>
+      <c r="OE70" s="22"/>
+      <c r="OF70" s="22"/>
+      <c r="OG70" s="22"/>
+      <c r="OH70" s="22"/>
+      <c r="OI70" s="22"/>
+      <c r="OJ70" s="22"/>
+      <c r="OK70" s="22"/>
+      <c r="OL70" s="22"/>
+      <c r="OM70" s="22"/>
+      <c r="ON70" s="22"/>
+      <c r="OO70" s="22"/>
+      <c r="OP70" s="22"/>
+      <c r="OQ70" s="22"/>
+      <c r="OR70" s="22"/>
+      <c r="OS70" s="22"/>
+      <c r="OT70" s="22"/>
+      <c r="OU70" s="22"/>
+      <c r="OV70" s="22"/>
+      <c r="OW70" s="22"/>
+      <c r="OX70" s="22"/>
+      <c r="OY70" s="22"/>
+      <c r="OZ70" s="22"/>
+      <c r="PA70" s="22"/>
+      <c r="PB70" s="22"/>
+      <c r="PC70" s="22"/>
+      <c r="PD70" s="22"/>
+      <c r="PE70" s="22"/>
+      <c r="PF70" s="22"/>
+      <c r="PG70" s="22"/>
+      <c r="PH70" s="22"/>
+      <c r="PI70" s="22"/>
+      <c r="PJ70" s="22"/>
+      <c r="PK70" s="22"/>
+      <c r="PL70" s="22"/>
+      <c r="PM70" s="22"/>
+      <c r="PN70" s="22"/>
+      <c r="PO70" s="22"/>
+      <c r="PP70" s="22"/>
+      <c r="PQ70" s="22"/>
+      <c r="PR70" s="22"/>
+      <c r="PS70" s="22"/>
+      <c r="PT70" s="22"/>
+      <c r="PU70" s="22"/>
+      <c r="PV70" s="22"/>
+      <c r="PW70" s="22"/>
+      <c r="PX70" s="22"/>
+      <c r="PY70" s="22"/>
+      <c r="PZ70" s="22"/>
+      <c r="QA70" s="22"/>
+      <c r="QB70" s="22"/>
+      <c r="QC70" s="22"/>
+      <c r="QD70" s="22"/>
+      <c r="QE70" s="22"/>
+      <c r="QF70" s="22"/>
+      <c r="QG70" s="22"/>
+      <c r="QH70" s="22"/>
+      <c r="QI70" s="22"/>
+      <c r="QJ70" s="22"/>
+      <c r="QK70" s="22"/>
+      <c r="QL70" s="22"/>
+      <c r="QM70" s="22"/>
+      <c r="QN70" s="22"/>
+      <c r="QO70" s="22"/>
+      <c r="QP70" s="22"/>
+      <c r="QQ70" s="22"/>
+      <c r="QR70" s="22"/>
+      <c r="QS70" s="22"/>
+      <c r="QT70" s="22"/>
+      <c r="QU70" s="22"/>
+      <c r="QV70" s="22"/>
+      <c r="QW70" s="22"/>
+      <c r="QX70" s="22"/>
+      <c r="QY70" s="22"/>
+      <c r="QZ70" s="22"/>
+      <c r="RA70" s="22"/>
+      <c r="RB70" s="22"/>
+      <c r="RC70" s="22"/>
+      <c r="RD70" s="22"/>
+      <c r="RE70" s="22"/>
+      <c r="RF70" s="22"/>
+      <c r="RG70" s="22"/>
+      <c r="RH70" s="22"/>
+      <c r="RI70" s="22"/>
+      <c r="RJ70" s="22"/>
+      <c r="RK70" s="22"/>
+      <c r="RL70" s="22"/>
+      <c r="RM70" s="22"/>
+      <c r="RN70" s="22"/>
+      <c r="RO70" s="22"/>
+      <c r="RP70" s="22"/>
+      <c r="RQ70" s="22"/>
+      <c r="RR70" s="22"/>
+      <c r="RS70" s="22"/>
+      <c r="RT70" s="22"/>
+      <c r="RU70" s="22"/>
+      <c r="RV70" s="22"/>
+      <c r="RW70" s="22"/>
+      <c r="RX70" s="22"/>
+      <c r="RY70" s="22"/>
+      <c r="RZ70" s="22"/>
+      <c r="SA70" s="22"/>
+      <c r="SB70" s="22"/>
+      <c r="SC70" s="22"/>
+      <c r="SD70" s="22"/>
+      <c r="SE70" s="22"/>
+      <c r="SF70" s="22"/>
+      <c r="SG70" s="22"/>
+      <c r="SH70" s="22"/>
+      <c r="SI70" s="22"/>
+      <c r="SJ70" s="22"/>
+      <c r="SK70" s="22"/>
+      <c r="SL70" s="22"/>
+      <c r="SM70" s="22"/>
+      <c r="SN70" s="22"/>
+      <c r="SO70" s="22"/>
+      <c r="SP70" s="22"/>
+      <c r="SQ70" s="22"/>
+      <c r="SR70" s="22"/>
+      <c r="SS70" s="22"/>
+      <c r="ST70" s="22"/>
+      <c r="SU70" s="22"/>
+      <c r="SV70" s="22"/>
+      <c r="SW70" s="22"/>
+      <c r="SX70" s="22"/>
+      <c r="SY70" s="22"/>
+      <c r="SZ70" s="22"/>
+      <c r="TA70" s="22"/>
+      <c r="TB70" s="22"/>
+      <c r="TC70" s="22"/>
+      <c r="TD70" s="22"/>
+      <c r="TE70" s="22"/>
+      <c r="TF70" s="22"/>
+      <c r="TG70" s="22"/>
+      <c r="TH70" s="22"/>
+      <c r="TI70" s="22"/>
+      <c r="TJ70" s="22"/>
+      <c r="TK70" s="22"/>
+      <c r="TL70" s="22"/>
+      <c r="TM70" s="22"/>
+      <c r="TN70" s="22"/>
+      <c r="TO70" s="22"/>
+      <c r="TP70" s="22"/>
+      <c r="TQ70" s="22"/>
+      <c r="TR70" s="22"/>
+      <c r="TS70" s="22"/>
+      <c r="TT70" s="22"/>
+      <c r="TU70" s="22"/>
+      <c r="TV70" s="22"/>
+      <c r="TW70" s="22"/>
+      <c r="TX70" s="22"/>
+      <c r="TY70" s="22"/>
+      <c r="TZ70" s="22"/>
+      <c r="UA70" s="22"/>
+      <c r="UB70" s="22"/>
+      <c r="UC70" s="22"/>
+      <c r="UD70" s="22"/>
+      <c r="UE70" s="22"/>
+      <c r="UF70" s="22"/>
+      <c r="UG70" s="22"/>
+      <c r="UH70" s="22"/>
+      <c r="UI70" s="22"/>
+      <c r="UJ70" s="22"/>
+      <c r="UK70" s="22"/>
+      <c r="UL70" s="22"/>
+      <c r="UM70" s="22"/>
+      <c r="UN70" s="22"/>
+      <c r="UO70" s="22"/>
+      <c r="UP70" s="22"/>
+      <c r="UQ70" s="22"/>
+      <c r="UR70" s="22"/>
+      <c r="US70" s="22"/>
+      <c r="UT70" s="22"/>
+      <c r="UU70" s="22"/>
+      <c r="UV70" s="22"/>
+      <c r="UW70" s="22"/>
+      <c r="UX70" s="22"/>
+      <c r="UY70" s="22"/>
+      <c r="UZ70" s="22"/>
+      <c r="VA70" s="22"/>
+      <c r="VB70" s="22"/>
+      <c r="VC70" s="22"/>
+      <c r="VD70" s="22"/>
+      <c r="VE70" s="22"/>
+      <c r="VF70" s="22"/>
+      <c r="VG70" s="22"/>
+      <c r="VH70" s="22"/>
+      <c r="VI70" s="22"/>
+      <c r="VJ70" s="22"/>
+      <c r="VK70" s="22"/>
+      <c r="VL70" s="22"/>
+      <c r="VM70" s="22"/>
+      <c r="VN70" s="22"/>
+      <c r="VO70" s="22"/>
+      <c r="VP70" s="22"/>
+      <c r="VQ70" s="22"/>
+      <c r="VR70" s="22"/>
+      <c r="VS70" s="22"/>
+      <c r="VT70" s="22"/>
+      <c r="VU70" s="22"/>
+      <c r="VV70" s="22"/>
+      <c r="VW70" s="22"/>
+      <c r="VX70" s="22"/>
+      <c r="VY70" s="22"/>
+      <c r="VZ70" s="22"/>
+      <c r="WA70" s="22"/>
+      <c r="WB70" s="22"/>
+      <c r="WC70" s="22"/>
+      <c r="WD70" s="22"/>
+      <c r="WE70" s="22"/>
+      <c r="WF70" s="22"/>
+      <c r="WG70" s="22"/>
+      <c r="WH70" s="22"/>
+      <c r="WI70" s="22"/>
+      <c r="WJ70" s="22"/>
+      <c r="WK70" s="22"/>
+      <c r="WL70" s="22"/>
+      <c r="WM70" s="22"/>
+      <c r="WN70" s="22"/>
+      <c r="WO70" s="22"/>
+      <c r="WP70" s="22"/>
+      <c r="WQ70" s="22"/>
+      <c r="WR70" s="22"/>
+      <c r="WS70" s="22"/>
+      <c r="WT70" s="22"/>
+      <c r="WU70" s="22"/>
+      <c r="WV70" s="22"/>
+      <c r="WW70" s="22"/>
+      <c r="WX70" s="22"/>
+      <c r="WY70" s="22"/>
+      <c r="WZ70" s="22"/>
+      <c r="XA70" s="22"/>
+      <c r="XB70" s="22"/>
+      <c r="XC70" s="22"/>
+      <c r="XD70" s="22"/>
+      <c r="XE70" s="22"/>
+      <c r="XF70" s="22"/>
+      <c r="XG70" s="22"/>
+      <c r="XH70" s="22"/>
+      <c r="XI70" s="22"/>
+      <c r="XJ70" s="22"/>
+      <c r="XK70" s="22"/>
+      <c r="XL70" s="22"/>
+      <c r="XM70" s="22"/>
+      <c r="XN70" s="22"/>
+      <c r="XO70" s="22"/>
+      <c r="XP70" s="22"/>
+      <c r="XQ70" s="22"/>
+      <c r="XR70" s="22"/>
+      <c r="XS70" s="22"/>
+      <c r="XT70" s="22"/>
+      <c r="XU70" s="22"/>
+      <c r="XV70" s="22"/>
+      <c r="XW70" s="22"/>
+      <c r="XX70" s="22"/>
+      <c r="XY70" s="22"/>
+      <c r="XZ70" s="22"/>
+      <c r="YA70" s="22"/>
+      <c r="YB70" s="22"/>
+      <c r="YC70" s="22"/>
+      <c r="YD70" s="22"/>
+      <c r="YE70" s="22"/>
+      <c r="YF70" s="22"/>
+      <c r="YG70" s="22"/>
+      <c r="YH70" s="22"/>
+      <c r="YI70" s="22"/>
+      <c r="YJ70" s="22"/>
+      <c r="YK70" s="22"/>
+      <c r="YL70" s="22"/>
+      <c r="YM70" s="22"/>
+      <c r="YN70" s="22"/>
+      <c r="YO70" s="22"/>
+      <c r="YP70" s="22"/>
+      <c r="YQ70" s="22"/>
+      <c r="YR70" s="22"/>
+      <c r="YS70" s="22"/>
+      <c r="YT70" s="22"/>
+      <c r="YU70" s="22"/>
+      <c r="YV70" s="22"/>
+      <c r="YW70" s="22"/>
+      <c r="YX70" s="22"/>
+      <c r="YY70" s="22"/>
+      <c r="YZ70" s="22"/>
+      <c r="ZA70" s="22"/>
+      <c r="ZB70" s="22"/>
+      <c r="ZC70" s="22"/>
+      <c r="ZD70" s="22"/>
+      <c r="ZE70" s="22"/>
+      <c r="ZF70" s="22"/>
+      <c r="ZG70" s="22"/>
+      <c r="ZH70" s="22"/>
+      <c r="ZI70" s="22"/>
+      <c r="ZJ70" s="22"/>
+      <c r="ZK70" s="22"/>
+      <c r="ZL70" s="22"/>
+      <c r="ZM70" s="22"/>
+      <c r="ZN70" s="22"/>
+      <c r="ZO70" s="22"/>
+      <c r="ZP70" s="22"/>
+      <c r="ZQ70" s="22"/>
+      <c r="ZR70" s="22"/>
+      <c r="ZS70" s="22"/>
+      <c r="ZT70" s="22"/>
+      <c r="ZU70" s="22"/>
+      <c r="ZV70" s="22"/>
+      <c r="ZW70" s="22"/>
+      <c r="ZX70" s="22"/>
+      <c r="ZY70" s="22"/>
+      <c r="ZZ70" s="22"/>
+      <c r="AAA70" s="22"/>
+      <c r="AAB70" s="22"/>
+      <c r="AAC70" s="22"/>
+      <c r="AAD70" s="22"/>
+      <c r="AAE70" s="22"/>
+      <c r="AAF70" s="22"/>
+      <c r="AAG70" s="22"/>
+      <c r="AAH70" s="22"/>
+      <c r="AAI70" s="22"/>
+      <c r="AAJ70" s="22"/>
+      <c r="AAK70" s="22"/>
+      <c r="AAL70" s="22"/>
+      <c r="AAM70" s="22"/>
+      <c r="AAN70" s="22"/>
+      <c r="AAO70" s="22"/>
+      <c r="AAP70" s="22"/>
+      <c r="AAQ70" s="22"/>
+      <c r="AAR70" s="22"/>
+      <c r="AAS70" s="22"/>
+      <c r="AAT70" s="22"/>
+      <c r="AAU70" s="22"/>
+      <c r="AAV70" s="22"/>
+      <c r="AAW70" s="22"/>
+      <c r="AAX70" s="22"/>
+      <c r="AAY70" s="22"/>
+      <c r="AAZ70" s="22"/>
+      <c r="ABA70" s="22"/>
+      <c r="ABB70" s="22"/>
+      <c r="ABC70" s="22"/>
+      <c r="ABD70" s="22"/>
+      <c r="ABE70" s="22"/>
+      <c r="ABF70" s="22"/>
+      <c r="ABG70" s="22"/>
+      <c r="ABH70" s="22"/>
+      <c r="ABI70" s="22"/>
+      <c r="ABJ70" s="22"/>
+      <c r="ABK70" s="22"/>
+      <c r="ABL70" s="22"/>
+      <c r="ABM70" s="22"/>
+      <c r="ABN70" s="22"/>
+      <c r="ABO70" s="22"/>
+      <c r="ABP70" s="22"/>
+      <c r="ABQ70" s="22"/>
+      <c r="ABR70" s="22"/>
+      <c r="ABS70" s="22"/>
+      <c r="ABT70" s="22"/>
+      <c r="ABU70" s="22"/>
+      <c r="ABV70" s="22"/>
+      <c r="ABW70" s="22"/>
+      <c r="ABX70" s="22"/>
+      <c r="ABY70" s="22"/>
+      <c r="ABZ70" s="22"/>
+      <c r="ACA70" s="22"/>
+      <c r="ACB70" s="22"/>
+      <c r="ACC70" s="22"/>
+      <c r="ACD70" s="22"/>
+      <c r="ACE70" s="22"/>
+      <c r="ACF70" s="22"/>
+      <c r="ACG70" s="22"/>
+      <c r="ACH70" s="22"/>
+      <c r="ACI70" s="22"/>
+      <c r="ACJ70" s="22"/>
+      <c r="ACK70" s="22"/>
+      <c r="ACL70" s="22"/>
+      <c r="ACM70" s="22"/>
+      <c r="ACN70" s="22"/>
+      <c r="ACO70" s="22"/>
+      <c r="ACP70" s="22"/>
+      <c r="ACQ70" s="22"/>
+      <c r="ACR70" s="22"/>
+      <c r="ACS70" s="22"/>
+      <c r="ACT70" s="22"/>
+      <c r="ACU70" s="22"/>
+      <c r="ACV70" s="22"/>
+      <c r="ACW70" s="22"/>
+      <c r="ACX70" s="22"/>
+      <c r="ACY70" s="22"/>
+      <c r="ACZ70" s="22"/>
+      <c r="ADA70" s="22"/>
+      <c r="ADB70" s="22"/>
+      <c r="ADC70" s="22"/>
+      <c r="ADD70" s="22"/>
+      <c r="ADE70" s="22"/>
+      <c r="ADF70" s="22"/>
+      <c r="ADG70" s="22"/>
+      <c r="ADH70" s="22"/>
+      <c r="ADI70" s="22"/>
+      <c r="ADJ70" s="22"/>
+      <c r="ADK70" s="22"/>
+      <c r="ADL70" s="22"/>
+      <c r="ADM70" s="22"/>
+      <c r="ADN70" s="22"/>
+      <c r="ADO70" s="22"/>
+      <c r="ADP70" s="22"/>
+      <c r="ADQ70" s="22"/>
+      <c r="ADR70" s="22"/>
+      <c r="ADS70" s="22"/>
+      <c r="ADT70" s="22"/>
+      <c r="ADU70" s="22"/>
+      <c r="ADV70" s="22"/>
+      <c r="ADW70" s="22"/>
+      <c r="ADX70" s="22"/>
+      <c r="ADY70" s="22"/>
+      <c r="ADZ70" s="22"/>
+      <c r="AEA70" s="22"/>
+      <c r="AEB70" s="22"/>
+      <c r="AEC70" s="22"/>
+      <c r="AED70" s="22"/>
+      <c r="AEE70" s="22"/>
+      <c r="AEF70" s="22"/>
+      <c r="AEG70" s="22"/>
+      <c r="AEH70" s="22"/>
+      <c r="AEI70" s="22"/>
+      <c r="AEJ70" s="22"/>
+      <c r="AEK70" s="22"/>
+      <c r="AEL70" s="22"/>
+      <c r="AEM70" s="22"/>
+      <c r="AEN70" s="22"/>
+      <c r="AEO70" s="22"/>
+      <c r="AEP70" s="22"/>
+      <c r="AEQ70" s="22"/>
+      <c r="AER70" s="22"/>
+      <c r="AES70" s="22"/>
+      <c r="AET70" s="22"/>
+      <c r="AEU70" s="22"/>
+      <c r="AEV70" s="22"/>
+      <c r="AEW70" s="22"/>
+      <c r="AEX70" s="22"/>
+      <c r="AEY70" s="22"/>
+      <c r="AEZ70" s="22"/>
+      <c r="AFA70" s="22"/>
+      <c r="AFB70" s="22"/>
+      <c r="AFC70" s="22"/>
+      <c r="AFD70" s="22"/>
+      <c r="AFE70" s="22"/>
+      <c r="AFF70" s="22"/>
+      <c r="AFG70" s="22"/>
+      <c r="AFH70" s="22"/>
+      <c r="AFI70" s="22"/>
+      <c r="AFJ70" s="22"/>
+      <c r="AFK70" s="22"/>
+      <c r="AFL70" s="22"/>
+      <c r="AFM70" s="22"/>
+      <c r="AFN70" s="22"/>
+      <c r="AFO70" s="22"/>
+      <c r="AFP70" s="22"/>
+      <c r="AFQ70" s="22"/>
+      <c r="AFR70" s="22"/>
+      <c r="AFS70" s="22"/>
+      <c r="AFT70" s="22"/>
+      <c r="AFU70" s="22"/>
+      <c r="AFV70" s="22"/>
+      <c r="AFW70" s="22"/>
+      <c r="AFX70" s="22"/>
+      <c r="AFY70" s="22"/>
+      <c r="AFZ70" s="22"/>
+      <c r="AGA70" s="22"/>
+      <c r="AGB70" s="22"/>
+      <c r="AGC70" s="22"/>
+      <c r="AGD70" s="22"/>
+      <c r="AGE70" s="22"/>
+      <c r="AGF70" s="22"/>
+      <c r="AGG70" s="22"/>
+      <c r="AGH70" s="22"/>
+      <c r="AGI70" s="22"/>
+      <c r="AGJ70" s="22"/>
+      <c r="AGK70" s="22"/>
+      <c r="AGL70" s="22"/>
+      <c r="AGM70" s="22"/>
+      <c r="AGN70" s="22"/>
+      <c r="AGO70" s="22"/>
+      <c r="AGP70" s="22"/>
+      <c r="AGQ70" s="22"/>
+      <c r="AGR70" s="22"/>
+      <c r="AGS70" s="22"/>
+      <c r="AGT70" s="22"/>
+      <c r="AGU70" s="22"/>
+      <c r="AGV70" s="22"/>
+      <c r="AGW70" s="22"/>
+      <c r="AGX70" s="22"/>
+      <c r="AGY70" s="22"/>
+      <c r="AGZ70" s="22"/>
+      <c r="AHA70" s="22"/>
+      <c r="AHB70" s="22"/>
+      <c r="AHC70" s="22"/>
+      <c r="AHD70" s="22"/>
+      <c r="AHE70" s="22"/>
+      <c r="AHF70" s="22"/>
+      <c r="AHG70" s="22"/>
+      <c r="AHH70" s="22"/>
+      <c r="AHI70" s="22"/>
+      <c r="AHJ70" s="22"/>
+      <c r="AHK70" s="22"/>
+      <c r="AHL70" s="22"/>
+      <c r="AHM70" s="22"/>
+      <c r="AHN70" s="22"/>
+      <c r="AHO70" s="22"/>
+      <c r="AHP70" s="22"/>
+      <c r="AHQ70" s="22"/>
+      <c r="AHR70" s="22"/>
+      <c r="AHS70" s="22"/>
+      <c r="AHT70" s="22"/>
+      <c r="AHU70" s="22"/>
+      <c r="AHV70" s="22"/>
+      <c r="AHW70" s="22"/>
+      <c r="AHX70" s="22"/>
+      <c r="AHY70" s="22"/>
+      <c r="AHZ70" s="22"/>
+      <c r="AIA70" s="22"/>
+      <c r="AIB70" s="22"/>
+      <c r="AIC70" s="22"/>
+      <c r="AID70" s="22"/>
+      <c r="AIE70" s="22"/>
+      <c r="AIF70" s="22"/>
+      <c r="AIG70" s="22"/>
+      <c r="AIH70" s="22"/>
+      <c r="AII70" s="22"/>
+      <c r="AIJ70" s="22"/>
+      <c r="AIK70" s="22"/>
+      <c r="AIL70" s="22"/>
+      <c r="AIM70" s="22"/>
+      <c r="AIN70" s="22"/>
+      <c r="AIO70" s="22"/>
+      <c r="AIP70" s="22"/>
+      <c r="AIQ70" s="22"/>
+      <c r="AIR70" s="22"/>
+      <c r="AIS70" s="22"/>
+      <c r="AIT70" s="22"/>
+      <c r="AIU70" s="22"/>
+      <c r="AIV70" s="22"/>
+      <c r="AIW70" s="22"/>
+      <c r="AIX70" s="22"/>
+      <c r="AIY70" s="22"/>
+      <c r="AIZ70" s="22"/>
+      <c r="AJA70" s="22"/>
+      <c r="AJB70" s="22"/>
+      <c r="AJC70" s="22"/>
+      <c r="AJD70" s="22"/>
+      <c r="AJE70" s="22"/>
+      <c r="AJF70" s="22"/>
+      <c r="AJG70" s="22"/>
+      <c r="AJH70" s="22"/>
+      <c r="AJI70" s="22"/>
+      <c r="AJJ70" s="22"/>
+      <c r="AJK70" s="22"/>
+      <c r="AJL70" s="22"/>
+      <c r="AJM70" s="22"/>
+      <c r="AJN70" s="22"/>
+      <c r="AJO70" s="22"/>
+      <c r="AJP70" s="22"/>
+      <c r="AJQ70" s="22"/>
+      <c r="AJR70" s="22"/>
+      <c r="AJS70" s="22"/>
+      <c r="AJT70" s="22"/>
+      <c r="AJU70" s="22"/>
+      <c r="AJV70" s="22"/>
+      <c r="AJW70" s="22"/>
+      <c r="AJX70" s="22"/>
+      <c r="AJY70" s="22"/>
+      <c r="AJZ70" s="22"/>
+      <c r="AKA70" s="22"/>
+      <c r="AKB70" s="22"/>
+      <c r="AKC70" s="22"/>
+      <c r="AKD70" s="22"/>
+      <c r="AKE70" s="22"/>
+      <c r="AKF70" s="22"/>
+      <c r="AKG70" s="22"/>
+      <c r="AKH70" s="22"/>
+      <c r="AKI70" s="22"/>
+      <c r="AKJ70" s="22"/>
+      <c r="AKK70" s="22"/>
+      <c r="AKL70" s="22"/>
+      <c r="AKM70" s="22"/>
+      <c r="AKN70" s="22"/>
+      <c r="AKO70" s="22"/>
+      <c r="AKP70" s="22"/>
+      <c r="AKQ70" s="22"/>
+      <c r="AKR70" s="22"/>
+      <c r="AKS70" s="22"/>
+      <c r="AKT70" s="22"/>
+      <c r="AKU70" s="22"/>
+      <c r="AKV70" s="22"/>
+      <c r="AKW70" s="22"/>
+      <c r="AKX70" s="22"/>
+      <c r="AKY70" s="22"/>
+      <c r="AKZ70" s="22"/>
+      <c r="ALA70" s="22"/>
+      <c r="ALB70" s="22"/>
+      <c r="ALC70" s="22"/>
+      <c r="ALD70" s="22"/>
+      <c r="ALE70" s="22"/>
+      <c r="ALF70" s="22"/>
+      <c r="ALG70" s="22"/>
+      <c r="ALH70" s="22"/>
+      <c r="ALI70" s="22"/>
+      <c r="ALJ70" s="22"/>
+      <c r="ALK70" s="22"/>
+      <c r="ALL70" s="22"/>
+      <c r="ALM70" s="22"/>
+      <c r="ALN70" s="22"/>
+      <c r="ALO70" s="22"/>
+      <c r="ALP70" s="22"/>
+      <c r="ALQ70" s="22"/>
+      <c r="ALR70" s="22"/>
+      <c r="ALS70" s="22"/>
+      <c r="ALT70" s="22"/>
+      <c r="ALU70" s="22"/>
+      <c r="ALV70" s="22"/>
+      <c r="ALW70" s="22"/>
+      <c r="ALX70" s="22"/>
+      <c r="ALY70" s="22"/>
+      <c r="ALZ70" s="22"/>
+      <c r="AMA70" s="22"/>
+      <c r="AMB70" s="22"/>
+      <c r="AMC70" s="22"/>
+      <c r="AMD70" s="22"/>
+      <c r="AME70" s="22"/>
+      <c r="AMF70" s="22"/>
+      <c r="AMG70" s="22"/>
+      <c r="AMH70" s="22"/>
+      <c r="AMI70" s="22"/>
+      <c r="AMJ70" s="22"/>
     </row>
-    <row r="70" spans="1:1024" x14ac:dyDescent="0.15">
-      <c r="A70" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="E70" s="34" t="s">
+    <row r="71" spans="1:17">
+      <c r="A71" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E71" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F70" s="38" t="s">
+      <c r="F71" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G70" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="I70" s="37" t="s">
+      <c r="G71" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I71" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J70" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="K70" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="L70" s="40" t="s">
+      <c r="J71" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q71" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="M70" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="N70" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="O70" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="P70" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q70" s="39" t="s">
+      <c r="B72" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N72" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="M73" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N74" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q74" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N75" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q75" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N76" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="36"/>
-      <c r="W70" s="36"/>
-      <c r="X70" s="36"/>
-      <c r="Y70" s="36"/>
-      <c r="Z70" s="36"/>
-      <c r="AA70" s="36"/>
-      <c r="AB70" s="36"/>
-      <c r="AC70" s="36"/>
-      <c r="AD70" s="36"/>
-      <c r="AE70" s="36"/>
-      <c r="AF70" s="36"/>
-      <c r="AG70" s="36"/>
-      <c r="AH70" s="36"/>
-      <c r="AI70" s="36"/>
-      <c r="AJ70" s="36"/>
-      <c r="AK70" s="36"/>
-      <c r="AL70" s="36"/>
-      <c r="AM70" s="36"/>
-      <c r="AN70" s="36"/>
-      <c r="AO70" s="36"/>
-      <c r="AP70" s="36"/>
-      <c r="AQ70" s="36"/>
-      <c r="AR70" s="36"/>
-      <c r="AS70" s="36"/>
-      <c r="AT70" s="36"/>
-      <c r="AU70" s="36"/>
-      <c r="AV70" s="36"/>
-      <c r="AW70" s="36"/>
-      <c r="AX70" s="36"/>
-      <c r="AY70" s="36"/>
-      <c r="AZ70" s="36"/>
-      <c r="BA70" s="36"/>
-      <c r="BB70" s="36"/>
-      <c r="BC70" s="36"/>
-      <c r="BD70" s="36"/>
-      <c r="BE70" s="36"/>
-      <c r="BF70" s="36"/>
-      <c r="BG70" s="36"/>
-      <c r="BH70" s="36"/>
-      <c r="BI70" s="36"/>
-      <c r="BJ70" s="36"/>
-      <c r="BK70" s="36"/>
-      <c r="BL70" s="36"/>
-      <c r="BM70" s="36"/>
-      <c r="BN70" s="36"/>
-      <c r="BO70" s="36"/>
-      <c r="BP70" s="36"/>
-      <c r="BQ70" s="36"/>
-      <c r="BR70" s="36"/>
-      <c r="BS70" s="36"/>
-      <c r="BT70" s="36"/>
-      <c r="BU70" s="36"/>
-      <c r="BV70" s="36"/>
-      <c r="BW70" s="36"/>
-      <c r="BX70" s="36"/>
-      <c r="BY70" s="36"/>
-      <c r="BZ70" s="36"/>
-      <c r="CA70" s="36"/>
-      <c r="CB70" s="36"/>
-      <c r="CC70" s="36"/>
-      <c r="CD70" s="36"/>
-      <c r="CE70" s="36"/>
-      <c r="CF70" s="36"/>
-      <c r="CG70" s="36"/>
-      <c r="CH70" s="36"/>
-      <c r="CI70" s="36"/>
-      <c r="CJ70" s="36"/>
-      <c r="CK70" s="36"/>
-      <c r="CL70" s="36"/>
-      <c r="CM70" s="36"/>
-      <c r="CN70" s="36"/>
-      <c r="CO70" s="36"/>
-      <c r="CP70" s="36"/>
-      <c r="CQ70" s="36"/>
-      <c r="CR70" s="36"/>
-      <c r="CS70" s="36"/>
-      <c r="CT70" s="36"/>
-      <c r="CU70" s="36"/>
-      <c r="CV70" s="36"/>
-      <c r="CW70" s="36"/>
-      <c r="CX70" s="36"/>
-      <c r="CY70" s="36"/>
-      <c r="CZ70" s="36"/>
-      <c r="DA70" s="36"/>
-      <c r="DB70" s="36"/>
-      <c r="DC70" s="36"/>
-      <c r="DD70" s="36"/>
-      <c r="DE70" s="36"/>
-      <c r="DF70" s="36"/>
-      <c r="DG70" s="36"/>
-      <c r="DH70" s="36"/>
-      <c r="DI70" s="36"/>
-      <c r="DJ70" s="36"/>
-      <c r="DK70" s="36"/>
-      <c r="DL70" s="36"/>
-      <c r="DM70" s="36"/>
-      <c r="DN70" s="36"/>
-      <c r="DO70" s="36"/>
-      <c r="DP70" s="36"/>
-      <c r="DQ70" s="36"/>
-      <c r="DR70" s="36"/>
-      <c r="DS70" s="36"/>
-      <c r="DT70" s="36"/>
-      <c r="DU70" s="36"/>
-      <c r="DV70" s="36"/>
-      <c r="DW70" s="36"/>
-      <c r="DX70" s="36"/>
-      <c r="DY70" s="36"/>
-      <c r="DZ70" s="36"/>
-      <c r="EA70" s="36"/>
-      <c r="EB70" s="36"/>
-      <c r="EC70" s="36"/>
-      <c r="ED70" s="36"/>
-      <c r="EE70" s="36"/>
-      <c r="EF70" s="36"/>
-      <c r="EG70" s="36"/>
-      <c r="EH70" s="36"/>
-      <c r="EI70" s="36"/>
-      <c r="EJ70" s="36"/>
-      <c r="EK70" s="36"/>
-      <c r="EL70" s="36"/>
-      <c r="EM70" s="36"/>
-      <c r="EN70" s="36"/>
-      <c r="EO70" s="36"/>
-      <c r="EP70" s="36"/>
-      <c r="EQ70" s="36"/>
-      <c r="ER70" s="36"/>
-      <c r="ES70" s="36"/>
-      <c r="ET70" s="36"/>
-      <c r="EU70" s="36"/>
-      <c r="EV70" s="36"/>
-      <c r="EW70" s="36"/>
-      <c r="EX70" s="36"/>
-      <c r="EY70" s="36"/>
-      <c r="EZ70" s="36"/>
-      <c r="FA70" s="36"/>
-      <c r="FB70" s="36"/>
-      <c r="FC70" s="36"/>
-      <c r="FD70" s="36"/>
-      <c r="FE70" s="36"/>
-      <c r="FF70" s="36"/>
-      <c r="FG70" s="36"/>
-      <c r="FH70" s="36"/>
-      <c r="FI70" s="36"/>
-      <c r="FJ70" s="36"/>
-      <c r="FK70" s="36"/>
-      <c r="FL70" s="36"/>
-      <c r="FM70" s="36"/>
-      <c r="FN70" s="36"/>
-      <c r="FO70" s="36"/>
-      <c r="FP70" s="36"/>
-      <c r="FQ70" s="36"/>
-      <c r="FR70" s="36"/>
-      <c r="FS70" s="36"/>
-      <c r="FT70" s="36"/>
-      <c r="FU70" s="36"/>
-      <c r="FV70" s="36"/>
-      <c r="FW70" s="36"/>
-      <c r="FX70" s="36"/>
-      <c r="FY70" s="36"/>
-      <c r="FZ70" s="36"/>
-      <c r="GA70" s="36"/>
-      <c r="GB70" s="36"/>
-      <c r="GC70" s="36"/>
-      <c r="GD70" s="36"/>
-      <c r="GE70" s="36"/>
-      <c r="GF70" s="36"/>
-      <c r="GG70" s="36"/>
-      <c r="GH70" s="36"/>
-      <c r="GI70" s="36"/>
-      <c r="GJ70" s="36"/>
-      <c r="GK70" s="36"/>
-      <c r="GL70" s="36"/>
-      <c r="GM70" s="36"/>
-      <c r="GN70" s="36"/>
-      <c r="GO70" s="36"/>
-      <c r="GP70" s="36"/>
-      <c r="GQ70" s="36"/>
-      <c r="GR70" s="36"/>
-      <c r="GS70" s="36"/>
-      <c r="GT70" s="36"/>
-      <c r="GU70" s="36"/>
-      <c r="GV70" s="36"/>
-      <c r="GW70" s="36"/>
-      <c r="GX70" s="36"/>
-      <c r="GY70" s="36"/>
-      <c r="GZ70" s="36"/>
-      <c r="HA70" s="36"/>
-      <c r="HB70" s="36"/>
-      <c r="HC70" s="36"/>
-      <c r="HD70" s="36"/>
-      <c r="HE70" s="36"/>
-      <c r="HF70" s="36"/>
-      <c r="HG70" s="36"/>
-      <c r="HH70" s="36"/>
-      <c r="HI70" s="36"/>
-      <c r="HJ70" s="36"/>
-      <c r="HK70" s="36"/>
-      <c r="HL70" s="36"/>
-      <c r="HM70" s="36"/>
-      <c r="HN70" s="36"/>
-      <c r="HO70" s="36"/>
-      <c r="HP70" s="36"/>
-      <c r="HQ70" s="36"/>
-      <c r="HR70" s="36"/>
-      <c r="HS70" s="36"/>
-      <c r="HT70" s="36"/>
-      <c r="HU70" s="36"/>
-      <c r="HV70" s="36"/>
-      <c r="HW70" s="36"/>
-      <c r="HX70" s="36"/>
-      <c r="HY70" s="36"/>
-      <c r="HZ70" s="36"/>
-      <c r="IA70" s="36"/>
-      <c r="IB70" s="36"/>
-      <c r="IC70" s="36"/>
-      <c r="ID70" s="36"/>
-      <c r="IE70" s="36"/>
-      <c r="IF70" s="36"/>
-      <c r="IG70" s="36"/>
-      <c r="IH70" s="36"/>
-      <c r="II70" s="36"/>
-      <c r="IJ70" s="36"/>
-      <c r="IK70" s="36"/>
-      <c r="IL70" s="36"/>
-      <c r="IM70" s="36"/>
-      <c r="IN70" s="36"/>
-      <c r="IO70" s="36"/>
-      <c r="IP70" s="36"/>
-      <c r="IQ70" s="36"/>
-      <c r="IR70" s="36"/>
-      <c r="IS70" s="36"/>
-      <c r="IT70" s="36"/>
-      <c r="IU70" s="36"/>
-      <c r="IV70" s="36"/>
-      <c r="IW70" s="36"/>
-      <c r="IX70" s="36"/>
-      <c r="IY70" s="36"/>
-      <c r="IZ70" s="36"/>
-      <c r="JA70" s="36"/>
-      <c r="JB70" s="36"/>
-      <c r="JC70" s="36"/>
-      <c r="JD70" s="36"/>
-      <c r="JE70" s="36"/>
-      <c r="JF70" s="36"/>
-      <c r="JG70" s="36"/>
-      <c r="JH70" s="36"/>
-      <c r="JI70" s="36"/>
-      <c r="JJ70" s="36"/>
-      <c r="JK70" s="36"/>
-      <c r="JL70" s="36"/>
-      <c r="JM70" s="36"/>
-      <c r="JN70" s="36"/>
-      <c r="JO70" s="36"/>
-      <c r="JP70" s="36"/>
-      <c r="JQ70" s="36"/>
-      <c r="JR70" s="36"/>
-      <c r="JS70" s="36"/>
-      <c r="JT70" s="36"/>
-      <c r="JU70" s="36"/>
-      <c r="JV70" s="36"/>
-      <c r="JW70" s="36"/>
-      <c r="JX70" s="36"/>
-      <c r="JY70" s="36"/>
-      <c r="JZ70" s="36"/>
-      <c r="KA70" s="36"/>
-      <c r="KB70" s="36"/>
-      <c r="KC70" s="36"/>
-      <c r="KD70" s="36"/>
-      <c r="KE70" s="36"/>
-      <c r="KF70" s="36"/>
-      <c r="KG70" s="36"/>
-      <c r="KH70" s="36"/>
-      <c r="KI70" s="36"/>
-      <c r="KJ70" s="36"/>
-      <c r="KK70" s="36"/>
-      <c r="KL70" s="36"/>
-      <c r="KM70" s="36"/>
-      <c r="KN70" s="36"/>
-      <c r="KO70" s="36"/>
-      <c r="KP70" s="36"/>
-      <c r="KQ70" s="36"/>
-      <c r="KR70" s="36"/>
-      <c r="KS70" s="36"/>
-      <c r="KT70" s="36"/>
-      <c r="KU70" s="36"/>
-      <c r="KV70" s="36"/>
-      <c r="KW70" s="36"/>
-      <c r="KX70" s="36"/>
-      <c r="KY70" s="36"/>
-      <c r="KZ70" s="36"/>
-      <c r="LA70" s="36"/>
-      <c r="LB70" s="36"/>
-      <c r="LC70" s="36"/>
-      <c r="LD70" s="36"/>
-      <c r="LE70" s="36"/>
-      <c r="LF70" s="36"/>
-      <c r="LG70" s="36"/>
-      <c r="LH70" s="36"/>
-      <c r="LI70" s="36"/>
-      <c r="LJ70" s="36"/>
-      <c r="LK70" s="36"/>
-      <c r="LL70" s="36"/>
-      <c r="LM70" s="36"/>
-      <c r="LN70" s="36"/>
-      <c r="LO70" s="36"/>
-      <c r="LP70" s="36"/>
-      <c r="LQ70" s="36"/>
-      <c r="LR70" s="36"/>
-      <c r="LS70" s="36"/>
-      <c r="LT70" s="36"/>
-      <c r="LU70" s="36"/>
-      <c r="LV70" s="36"/>
-      <c r="LW70" s="36"/>
-      <c r="LX70" s="36"/>
-      <c r="LY70" s="36"/>
-      <c r="LZ70" s="36"/>
-      <c r="MA70" s="36"/>
-      <c r="MB70" s="36"/>
-      <c r="MC70" s="36"/>
-      <c r="MD70" s="36"/>
-      <c r="ME70" s="36"/>
-      <c r="MF70" s="36"/>
-      <c r="MG70" s="36"/>
-      <c r="MH70" s="36"/>
-      <c r="MI70" s="36"/>
-      <c r="MJ70" s="36"/>
-      <c r="MK70" s="36"/>
-      <c r="ML70" s="36"/>
-      <c r="MM70" s="36"/>
-      <c r="MN70" s="36"/>
-      <c r="MO70" s="36"/>
-      <c r="MP70" s="36"/>
-      <c r="MQ70" s="36"/>
-      <c r="MR70" s="36"/>
-      <c r="MS70" s="36"/>
-      <c r="MT70" s="36"/>
-      <c r="MU70" s="36"/>
-      <c r="MV70" s="36"/>
-      <c r="MW70" s="36"/>
-      <c r="MX70" s="36"/>
-      <c r="MY70" s="36"/>
-      <c r="MZ70" s="36"/>
-      <c r="NA70" s="36"/>
-      <c r="NB70" s="36"/>
-      <c r="NC70" s="36"/>
-      <c r="ND70" s="36"/>
-      <c r="NE70" s="36"/>
-      <c r="NF70" s="36"/>
-      <c r="NG70" s="36"/>
-      <c r="NH70" s="36"/>
-      <c r="NI70" s="36"/>
-      <c r="NJ70" s="36"/>
-      <c r="NK70" s="36"/>
-      <c r="NL70" s="36"/>
-      <c r="NM70" s="36"/>
-      <c r="NN70" s="36"/>
-      <c r="NO70" s="36"/>
-      <c r="NP70" s="36"/>
-      <c r="NQ70" s="36"/>
-      <c r="NR70" s="36"/>
-      <c r="NS70" s="36"/>
-      <c r="NT70" s="36"/>
-      <c r="NU70" s="36"/>
-      <c r="NV70" s="36"/>
-      <c r="NW70" s="36"/>
-      <c r="NX70" s="36"/>
-      <c r="NY70" s="36"/>
-      <c r="NZ70" s="36"/>
-      <c r="OA70" s="36"/>
-      <c r="OB70" s="36"/>
-      <c r="OC70" s="36"/>
-      <c r="OD70" s="36"/>
-      <c r="OE70" s="36"/>
-      <c r="OF70" s="36"/>
-      <c r="OG70" s="36"/>
-      <c r="OH70" s="36"/>
-      <c r="OI70" s="36"/>
-      <c r="OJ70" s="36"/>
-      <c r="OK70" s="36"/>
-      <c r="OL70" s="36"/>
-      <c r="OM70" s="36"/>
-      <c r="ON70" s="36"/>
-      <c r="OO70" s="36"/>
-      <c r="OP70" s="36"/>
-      <c r="OQ70" s="36"/>
-      <c r="OR70" s="36"/>
-      <c r="OS70" s="36"/>
-      <c r="OT70" s="36"/>
-      <c r="OU70" s="36"/>
-      <c r="OV70" s="36"/>
-      <c r="OW70" s="36"/>
-      <c r="OX70" s="36"/>
-      <c r="OY70" s="36"/>
-      <c r="OZ70" s="36"/>
-      <c r="PA70" s="36"/>
-      <c r="PB70" s="36"/>
-      <c r="PC70" s="36"/>
-      <c r="PD70" s="36"/>
-      <c r="PE70" s="36"/>
-      <c r="PF70" s="36"/>
-      <c r="PG70" s="36"/>
-      <c r="PH70" s="36"/>
-      <c r="PI70" s="36"/>
-      <c r="PJ70" s="36"/>
-      <c r="PK70" s="36"/>
-      <c r="PL70" s="36"/>
-      <c r="PM70" s="36"/>
-      <c r="PN70" s="36"/>
-      <c r="PO70" s="36"/>
-      <c r="PP70" s="36"/>
-      <c r="PQ70" s="36"/>
-      <c r="PR70" s="36"/>
-      <c r="PS70" s="36"/>
-      <c r="PT70" s="36"/>
-      <c r="PU70" s="36"/>
-      <c r="PV70" s="36"/>
-      <c r="PW70" s="36"/>
-      <c r="PX70" s="36"/>
-      <c r="PY70" s="36"/>
-      <c r="PZ70" s="36"/>
-      <c r="QA70" s="36"/>
-      <c r="QB70" s="36"/>
-      <c r="QC70" s="36"/>
-      <c r="QD70" s="36"/>
-      <c r="QE70" s="36"/>
-      <c r="QF70" s="36"/>
-      <c r="QG70" s="36"/>
-      <c r="QH70" s="36"/>
-      <c r="QI70" s="36"/>
-      <c r="QJ70" s="36"/>
-      <c r="QK70" s="36"/>
-      <c r="QL70" s="36"/>
-      <c r="QM70" s="36"/>
-      <c r="QN70" s="36"/>
-      <c r="QO70" s="36"/>
-      <c r="QP70" s="36"/>
-      <c r="QQ70" s="36"/>
-      <c r="QR70" s="36"/>
-      <c r="QS70" s="36"/>
-      <c r="QT70" s="36"/>
-      <c r="QU70" s="36"/>
-      <c r="QV70" s="36"/>
-      <c r="QW70" s="36"/>
-      <c r="QX70" s="36"/>
-      <c r="QY70" s="36"/>
-      <c r="QZ70" s="36"/>
-      <c r="RA70" s="36"/>
-      <c r="RB70" s="36"/>
-      <c r="RC70" s="36"/>
-      <c r="RD70" s="36"/>
-      <c r="RE70" s="36"/>
-      <c r="RF70" s="36"/>
-      <c r="RG70" s="36"/>
-      <c r="RH70" s="36"/>
-      <c r="RI70" s="36"/>
-      <c r="RJ70" s="36"/>
-      <c r="RK70" s="36"/>
-      <c r="RL70" s="36"/>
-      <c r="RM70" s="36"/>
-      <c r="RN70" s="36"/>
-      <c r="RO70" s="36"/>
-      <c r="RP70" s="36"/>
-      <c r="RQ70" s="36"/>
-      <c r="RR70" s="36"/>
-      <c r="RS70" s="36"/>
-      <c r="RT70" s="36"/>
-      <c r="RU70" s="36"/>
-      <c r="RV70" s="36"/>
-      <c r="RW70" s="36"/>
-      <c r="RX70" s="36"/>
-      <c r="RY70" s="36"/>
-      <c r="RZ70" s="36"/>
-      <c r="SA70" s="36"/>
-      <c r="SB70" s="36"/>
-      <c r="SC70" s="36"/>
-      <c r="SD70" s="36"/>
-      <c r="SE70" s="36"/>
-      <c r="SF70" s="36"/>
-      <c r="SG70" s="36"/>
-      <c r="SH70" s="36"/>
-      <c r="SI70" s="36"/>
-      <c r="SJ70" s="36"/>
-      <c r="SK70" s="36"/>
-      <c r="SL70" s="36"/>
-      <c r="SM70" s="36"/>
-      <c r="SN70" s="36"/>
-      <c r="SO70" s="36"/>
-      <c r="SP70" s="36"/>
-      <c r="SQ70" s="36"/>
-      <c r="SR70" s="36"/>
-      <c r="SS70" s="36"/>
-      <c r="ST70" s="36"/>
-      <c r="SU70" s="36"/>
-      <c r="SV70" s="36"/>
-      <c r="SW70" s="36"/>
-      <c r="SX70" s="36"/>
-      <c r="SY70" s="36"/>
-      <c r="SZ70" s="36"/>
-      <c r="TA70" s="36"/>
-      <c r="TB70" s="36"/>
-      <c r="TC70" s="36"/>
-      <c r="TD70" s="36"/>
-      <c r="TE70" s="36"/>
-      <c r="TF70" s="36"/>
-      <c r="TG70" s="36"/>
-      <c r="TH70" s="36"/>
-      <c r="TI70" s="36"/>
-      <c r="TJ70" s="36"/>
-      <c r="TK70" s="36"/>
-      <c r="TL70" s="36"/>
-      <c r="TM70" s="36"/>
-      <c r="TN70" s="36"/>
-      <c r="TO70" s="36"/>
-      <c r="TP70" s="36"/>
-      <c r="TQ70" s="36"/>
-      <c r="TR70" s="36"/>
-      <c r="TS70" s="36"/>
-      <c r="TT70" s="36"/>
-      <c r="TU70" s="36"/>
-      <c r="TV70" s="36"/>
-      <c r="TW70" s="36"/>
-      <c r="TX70" s="36"/>
-      <c r="TY70" s="36"/>
-      <c r="TZ70" s="36"/>
-      <c r="UA70" s="36"/>
-      <c r="UB70" s="36"/>
-      <c r="UC70" s="36"/>
-      <c r="UD70" s="36"/>
-      <c r="UE70" s="36"/>
-      <c r="UF70" s="36"/>
-      <c r="UG70" s="36"/>
-      <c r="UH70" s="36"/>
-      <c r="UI70" s="36"/>
-      <c r="UJ70" s="36"/>
-      <c r="UK70" s="36"/>
-      <c r="UL70" s="36"/>
-      <c r="UM70" s="36"/>
-      <c r="UN70" s="36"/>
-      <c r="UO70" s="36"/>
-      <c r="UP70" s="36"/>
-      <c r="UQ70" s="36"/>
-      <c r="UR70" s="36"/>
-      <c r="US70" s="36"/>
-      <c r="UT70" s="36"/>
-      <c r="UU70" s="36"/>
-      <c r="UV70" s="36"/>
-      <c r="UW70" s="36"/>
-      <c r="UX70" s="36"/>
-      <c r="UY70" s="36"/>
-      <c r="UZ70" s="36"/>
-      <c r="VA70" s="36"/>
-      <c r="VB70" s="36"/>
-      <c r="VC70" s="36"/>
-      <c r="VD70" s="36"/>
-      <c r="VE70" s="36"/>
-      <c r="VF70" s="36"/>
-      <c r="VG70" s="36"/>
-      <c r="VH70" s="36"/>
-      <c r="VI70" s="36"/>
-      <c r="VJ70" s="36"/>
-      <c r="VK70" s="36"/>
-      <c r="VL70" s="36"/>
-      <c r="VM70" s="36"/>
-      <c r="VN70" s="36"/>
-      <c r="VO70" s="36"/>
-      <c r="VP70" s="36"/>
-      <c r="VQ70" s="36"/>
-      <c r="VR70" s="36"/>
-      <c r="VS70" s="36"/>
-      <c r="VT70" s="36"/>
-      <c r="VU70" s="36"/>
-      <c r="VV70" s="36"/>
-      <c r="VW70" s="36"/>
-      <c r="VX70" s="36"/>
-      <c r="VY70" s="36"/>
-      <c r="VZ70" s="36"/>
-      <c r="WA70" s="36"/>
-      <c r="WB70" s="36"/>
-      <c r="WC70" s="36"/>
-      <c r="WD70" s="36"/>
-      <c r="WE70" s="36"/>
-      <c r="WF70" s="36"/>
-      <c r="WG70" s="36"/>
-      <c r="WH70" s="36"/>
-      <c r="WI70" s="36"/>
-      <c r="WJ70" s="36"/>
-      <c r="WK70" s="36"/>
-      <c r="WL70" s="36"/>
-      <c r="WM70" s="36"/>
-      <c r="WN70" s="36"/>
-      <c r="WO70" s="36"/>
-      <c r="WP70" s="36"/>
-      <c r="WQ70" s="36"/>
-      <c r="WR70" s="36"/>
-      <c r="WS70" s="36"/>
-      <c r="WT70" s="36"/>
-      <c r="WU70" s="36"/>
-      <c r="WV70" s="36"/>
-      <c r="WW70" s="36"/>
-      <c r="WX70" s="36"/>
-      <c r="WY70" s="36"/>
-      <c r="WZ70" s="36"/>
-      <c r="XA70" s="36"/>
-      <c r="XB70" s="36"/>
-      <c r="XC70" s="36"/>
-      <c r="XD70" s="36"/>
-      <c r="XE70" s="36"/>
-      <c r="XF70" s="36"/>
-      <c r="XG70" s="36"/>
-      <c r="XH70" s="36"/>
-      <c r="XI70" s="36"/>
-      <c r="XJ70" s="36"/>
-      <c r="XK70" s="36"/>
-      <c r="XL70" s="36"/>
-      <c r="XM70" s="36"/>
-      <c r="XN70" s="36"/>
-      <c r="XO70" s="36"/>
-      <c r="XP70" s="36"/>
-      <c r="XQ70" s="36"/>
-      <c r="XR70" s="36"/>
-      <c r="XS70" s="36"/>
-      <c r="XT70" s="36"/>
-      <c r="XU70" s="36"/>
-      <c r="XV70" s="36"/>
-      <c r="XW70" s="36"/>
-      <c r="XX70" s="36"/>
-      <c r="XY70" s="36"/>
-      <c r="XZ70" s="36"/>
-      <c r="YA70" s="36"/>
-      <c r="YB70" s="36"/>
-      <c r="YC70" s="36"/>
-      <c r="YD70" s="36"/>
-      <c r="YE70" s="36"/>
-      <c r="YF70" s="36"/>
-      <c r="YG70" s="36"/>
-      <c r="YH70" s="36"/>
-      <c r="YI70" s="36"/>
-      <c r="YJ70" s="36"/>
-      <c r="YK70" s="36"/>
-      <c r="YL70" s="36"/>
-      <c r="YM70" s="36"/>
-      <c r="YN70" s="36"/>
-      <c r="YO70" s="36"/>
-      <c r="YP70" s="36"/>
-      <c r="YQ70" s="36"/>
-      <c r="YR70" s="36"/>
-      <c r="YS70" s="36"/>
-      <c r="YT70" s="36"/>
-      <c r="YU70" s="36"/>
-      <c r="YV70" s="36"/>
-      <c r="YW70" s="36"/>
-      <c r="YX70" s="36"/>
-      <c r="YY70" s="36"/>
-      <c r="YZ70" s="36"/>
-      <c r="ZA70" s="36"/>
-      <c r="ZB70" s="36"/>
-      <c r="ZC70" s="36"/>
-      <c r="ZD70" s="36"/>
-      <c r="ZE70" s="36"/>
-      <c r="ZF70" s="36"/>
-      <c r="ZG70" s="36"/>
-      <c r="ZH70" s="36"/>
-      <c r="ZI70" s="36"/>
-      <c r="ZJ70" s="36"/>
-      <c r="ZK70" s="36"/>
-      <c r="ZL70" s="36"/>
-      <c r="ZM70" s="36"/>
-      <c r="ZN70" s="36"/>
-      <c r="ZO70" s="36"/>
-      <c r="ZP70" s="36"/>
-      <c r="ZQ70" s="36"/>
-      <c r="ZR70" s="36"/>
-      <c r="ZS70" s="36"/>
-      <c r="ZT70" s="36"/>
-      <c r="ZU70" s="36"/>
-      <c r="ZV70" s="36"/>
-      <c r="ZW70" s="36"/>
-      <c r="ZX70" s="36"/>
-      <c r="ZY70" s="36"/>
-      <c r="ZZ70" s="36"/>
-      <c r="AAA70" s="36"/>
-      <c r="AAB70" s="36"/>
-      <c r="AAC70" s="36"/>
-      <c r="AAD70" s="36"/>
-      <c r="AAE70" s="36"/>
-      <c r="AAF70" s="36"/>
-      <c r="AAG70" s="36"/>
-      <c r="AAH70" s="36"/>
-      <c r="AAI70" s="36"/>
-      <c r="AAJ70" s="36"/>
-      <c r="AAK70" s="36"/>
-      <c r="AAL70" s="36"/>
-      <c r="AAM70" s="36"/>
-      <c r="AAN70" s="36"/>
-      <c r="AAO70" s="36"/>
-      <c r="AAP70" s="36"/>
-      <c r="AAQ70" s="36"/>
-      <c r="AAR70" s="36"/>
-      <c r="AAS70" s="36"/>
-      <c r="AAT70" s="36"/>
-      <c r="AAU70" s="36"/>
-      <c r="AAV70" s="36"/>
-      <c r="AAW70" s="36"/>
-      <c r="AAX70" s="36"/>
-      <c r="AAY70" s="36"/>
-      <c r="AAZ70" s="36"/>
-      <c r="ABA70" s="36"/>
-      <c r="ABB70" s="36"/>
-      <c r="ABC70" s="36"/>
-      <c r="ABD70" s="36"/>
-      <c r="ABE70" s="36"/>
-      <c r="ABF70" s="36"/>
-      <c r="ABG70" s="36"/>
-      <c r="ABH70" s="36"/>
-      <c r="ABI70" s="36"/>
-      <c r="ABJ70" s="36"/>
-      <c r="ABK70" s="36"/>
-      <c r="ABL70" s="36"/>
-      <c r="ABM70" s="36"/>
-      <c r="ABN70" s="36"/>
-      <c r="ABO70" s="36"/>
-      <c r="ABP70" s="36"/>
-      <c r="ABQ70" s="36"/>
-      <c r="ABR70" s="36"/>
-      <c r="ABS70" s="36"/>
-      <c r="ABT70" s="36"/>
-      <c r="ABU70" s="36"/>
-      <c r="ABV70" s="36"/>
-      <c r="ABW70" s="36"/>
-      <c r="ABX70" s="36"/>
-      <c r="ABY70" s="36"/>
-      <c r="ABZ70" s="36"/>
-      <c r="ACA70" s="36"/>
-      <c r="ACB70" s="36"/>
-      <c r="ACC70" s="36"/>
-      <c r="ACD70" s="36"/>
-      <c r="ACE70" s="36"/>
-      <c r="ACF70" s="36"/>
-      <c r="ACG70" s="36"/>
-      <c r="ACH70" s="36"/>
-      <c r="ACI70" s="36"/>
-      <c r="ACJ70" s="36"/>
-      <c r="ACK70" s="36"/>
-      <c r="ACL70" s="36"/>
-      <c r="ACM70" s="36"/>
-      <c r="ACN70" s="36"/>
-      <c r="ACO70" s="36"/>
-      <c r="ACP70" s="36"/>
-      <c r="ACQ70" s="36"/>
-      <c r="ACR70" s="36"/>
-      <c r="ACS70" s="36"/>
-      <c r="ACT70" s="36"/>
-      <c r="ACU70" s="36"/>
-      <c r="ACV70" s="36"/>
-      <c r="ACW70" s="36"/>
-      <c r="ACX70" s="36"/>
-      <c r="ACY70" s="36"/>
-      <c r="ACZ70" s="36"/>
-      <c r="ADA70" s="36"/>
-      <c r="ADB70" s="36"/>
-      <c r="ADC70" s="36"/>
-      <c r="ADD70" s="36"/>
-      <c r="ADE70" s="36"/>
-      <c r="ADF70" s="36"/>
-      <c r="ADG70" s="36"/>
-      <c r="ADH70" s="36"/>
-      <c r="ADI70" s="36"/>
-      <c r="ADJ70" s="36"/>
-      <c r="ADK70" s="36"/>
-      <c r="ADL70" s="36"/>
-      <c r="ADM70" s="36"/>
-      <c r="ADN70" s="36"/>
-      <c r="ADO70" s="36"/>
-      <c r="ADP70" s="36"/>
-      <c r="ADQ70" s="36"/>
-      <c r="ADR70" s="36"/>
-      <c r="ADS70" s="36"/>
-      <c r="ADT70" s="36"/>
-      <c r="ADU70" s="36"/>
-      <c r="ADV70" s="36"/>
-      <c r="ADW70" s="36"/>
-      <c r="ADX70" s="36"/>
-      <c r="ADY70" s="36"/>
-      <c r="ADZ70" s="36"/>
-      <c r="AEA70" s="36"/>
-      <c r="AEB70" s="36"/>
-      <c r="AEC70" s="36"/>
-      <c r="AED70" s="36"/>
-      <c r="AEE70" s="36"/>
-      <c r="AEF70" s="36"/>
-      <c r="AEG70" s="36"/>
-      <c r="AEH70" s="36"/>
-      <c r="AEI70" s="36"/>
-      <c r="AEJ70" s="36"/>
-      <c r="AEK70" s="36"/>
-      <c r="AEL70" s="36"/>
-      <c r="AEM70" s="36"/>
-      <c r="AEN70" s="36"/>
-      <c r="AEO70" s="36"/>
-      <c r="AEP70" s="36"/>
-      <c r="AEQ70" s="36"/>
-      <c r="AER70" s="36"/>
-      <c r="AES70" s="36"/>
-      <c r="AET70" s="36"/>
-      <c r="AEU70" s="36"/>
-      <c r="AEV70" s="36"/>
-      <c r="AEW70" s="36"/>
-      <c r="AEX70" s="36"/>
-      <c r="AEY70" s="36"/>
-      <c r="AEZ70" s="36"/>
-      <c r="AFA70" s="36"/>
-      <c r="AFB70" s="36"/>
-      <c r="AFC70" s="36"/>
-      <c r="AFD70" s="36"/>
-      <c r="AFE70" s="36"/>
-      <c r="AFF70" s="36"/>
-      <c r="AFG70" s="36"/>
-      <c r="AFH70" s="36"/>
-      <c r="AFI70" s="36"/>
-      <c r="AFJ70" s="36"/>
-      <c r="AFK70" s="36"/>
-      <c r="AFL70" s="36"/>
-      <c r="AFM70" s="36"/>
-      <c r="AFN70" s="36"/>
-      <c r="AFO70" s="36"/>
-      <c r="AFP70" s="36"/>
-      <c r="AFQ70" s="36"/>
-      <c r="AFR70" s="36"/>
-      <c r="AFS70" s="36"/>
-      <c r="AFT70" s="36"/>
-      <c r="AFU70" s="36"/>
-      <c r="AFV70" s="36"/>
-      <c r="AFW70" s="36"/>
-      <c r="AFX70" s="36"/>
-      <c r="AFY70" s="36"/>
-      <c r="AFZ70" s="36"/>
-      <c r="AGA70" s="36"/>
-      <c r="AGB70" s="36"/>
-      <c r="AGC70" s="36"/>
-      <c r="AGD70" s="36"/>
-      <c r="AGE70" s="36"/>
-      <c r="AGF70" s="36"/>
-      <c r="AGG70" s="36"/>
-      <c r="AGH70" s="36"/>
-      <c r="AGI70" s="36"/>
-      <c r="AGJ70" s="36"/>
-      <c r="AGK70" s="36"/>
-      <c r="AGL70" s="36"/>
-      <c r="AGM70" s="36"/>
-      <c r="AGN70" s="36"/>
-      <c r="AGO70" s="36"/>
-      <c r="AGP70" s="36"/>
-      <c r="AGQ70" s="36"/>
-      <c r="AGR70" s="36"/>
-      <c r="AGS70" s="36"/>
-      <c r="AGT70" s="36"/>
-      <c r="AGU70" s="36"/>
-      <c r="AGV70" s="36"/>
-      <c r="AGW70" s="36"/>
-      <c r="AGX70" s="36"/>
-      <c r="AGY70" s="36"/>
-      <c r="AGZ70" s="36"/>
-      <c r="AHA70" s="36"/>
-      <c r="AHB70" s="36"/>
-      <c r="AHC70" s="36"/>
-      <c r="AHD70" s="36"/>
-      <c r="AHE70" s="36"/>
-      <c r="AHF70" s="36"/>
-      <c r="AHG70" s="36"/>
-      <c r="AHH70" s="36"/>
-      <c r="AHI70" s="36"/>
-      <c r="AHJ70" s="36"/>
-      <c r="AHK70" s="36"/>
-      <c r="AHL70" s="36"/>
-      <c r="AHM70" s="36"/>
-      <c r="AHN70" s="36"/>
-      <c r="AHO70" s="36"/>
-      <c r="AHP70" s="36"/>
-      <c r="AHQ70" s="36"/>
-      <c r="AHR70" s="36"/>
-      <c r="AHS70" s="36"/>
-      <c r="AHT70" s="36"/>
-      <c r="AHU70" s="36"/>
-      <c r="AHV70" s="36"/>
-      <c r="AHW70" s="36"/>
-      <c r="AHX70" s="36"/>
-      <c r="AHY70" s="36"/>
-      <c r="AHZ70" s="36"/>
-      <c r="AIA70" s="36"/>
-      <c r="AIB70" s="36"/>
-      <c r="AIC70" s="36"/>
-      <c r="AID70" s="36"/>
-      <c r="AIE70" s="36"/>
-      <c r="AIF70" s="36"/>
-      <c r="AIG70" s="36"/>
-      <c r="AIH70" s="36"/>
-      <c r="AII70" s="36"/>
-      <c r="AIJ70" s="36"/>
-      <c r="AIK70" s="36"/>
-      <c r="AIL70" s="36"/>
-      <c r="AIM70" s="36"/>
-      <c r="AIN70" s="36"/>
-      <c r="AIO70" s="36"/>
-      <c r="AIP70" s="36"/>
-      <c r="AIQ70" s="36"/>
-      <c r="AIR70" s="36"/>
-      <c r="AIS70" s="36"/>
-      <c r="AIT70" s="36"/>
-      <c r="AIU70" s="36"/>
-      <c r="AIV70" s="36"/>
-      <c r="AIW70" s="36"/>
-      <c r="AIX70" s="36"/>
-      <c r="AIY70" s="36"/>
-      <c r="AIZ70" s="36"/>
-      <c r="AJA70" s="36"/>
-      <c r="AJB70" s="36"/>
-      <c r="AJC70" s="36"/>
-      <c r="AJD70" s="36"/>
-      <c r="AJE70" s="36"/>
-      <c r="AJF70" s="36"/>
-      <c r="AJG70" s="36"/>
-      <c r="AJH70" s="36"/>
-      <c r="AJI70" s="36"/>
-      <c r="AJJ70" s="36"/>
-      <c r="AJK70" s="36"/>
-      <c r="AJL70" s="36"/>
-      <c r="AJM70" s="36"/>
-      <c r="AJN70" s="36"/>
-      <c r="AJO70" s="36"/>
-      <c r="AJP70" s="36"/>
-      <c r="AJQ70" s="36"/>
-      <c r="AJR70" s="36"/>
-      <c r="AJS70" s="36"/>
-      <c r="AJT70" s="36"/>
-      <c r="AJU70" s="36"/>
-      <c r="AJV70" s="36"/>
-      <c r="AJW70" s="36"/>
-      <c r="AJX70" s="36"/>
-      <c r="AJY70" s="36"/>
-      <c r="AJZ70" s="36"/>
-      <c r="AKA70" s="36"/>
-      <c r="AKB70" s="36"/>
-      <c r="AKC70" s="36"/>
-      <c r="AKD70" s="36"/>
-      <c r="AKE70" s="36"/>
-      <c r="AKF70" s="36"/>
-      <c r="AKG70" s="36"/>
-      <c r="AKH70" s="36"/>
-      <c r="AKI70" s="36"/>
-      <c r="AKJ70" s="36"/>
-      <c r="AKK70" s="36"/>
-      <c r="AKL70" s="36"/>
-      <c r="AKM70" s="36"/>
-      <c r="AKN70" s="36"/>
-      <c r="AKO70" s="36"/>
-      <c r="AKP70" s="36"/>
-      <c r="AKQ70" s="36"/>
-      <c r="AKR70" s="36"/>
-      <c r="AKS70" s="36"/>
-      <c r="AKT70" s="36"/>
-      <c r="AKU70" s="36"/>
-      <c r="AKV70" s="36"/>
-      <c r="AKW70" s="36"/>
-      <c r="AKX70" s="36"/>
-      <c r="AKY70" s="36"/>
-      <c r="AKZ70" s="36"/>
-      <c r="ALA70" s="36"/>
-      <c r="ALB70" s="36"/>
-      <c r="ALC70" s="36"/>
-      <c r="ALD70" s="36"/>
-      <c r="ALE70" s="36"/>
-      <c r="ALF70" s="36"/>
-      <c r="ALG70" s="36"/>
-      <c r="ALH70" s="36"/>
-      <c r="ALI70" s="36"/>
-      <c r="ALJ70" s="36"/>
-      <c r="ALK70" s="36"/>
-      <c r="ALL70" s="36"/>
-      <c r="ALM70" s="36"/>
-      <c r="ALN70" s="36"/>
-      <c r="ALO70" s="36"/>
-      <c r="ALP70" s="36"/>
-      <c r="ALQ70" s="36"/>
-      <c r="ALR70" s="36"/>
-      <c r="ALS70" s="36"/>
-      <c r="ALT70" s="36"/>
-      <c r="ALU70" s="36"/>
-      <c r="ALV70" s="36"/>
-      <c r="ALW70" s="36"/>
-      <c r="ALX70" s="36"/>
-      <c r="ALY70" s="36"/>
-      <c r="ALZ70" s="36"/>
-      <c r="AMA70" s="36"/>
-      <c r="AMB70" s="36"/>
-      <c r="AMC70" s="36"/>
-      <c r="AMD70" s="36"/>
-      <c r="AME70" s="36"/>
-      <c r="AMF70" s="36"/>
-      <c r="AMG70" s="36"/>
-      <c r="AMH70" s="36"/>
-      <c r="AMI70" s="36"/>
-      <c r="AMJ70" s="36"/>
+      <c r="C77" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="M77" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N77" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q77" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="M78" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q78" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="M79" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N79" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q79" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="M80" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N80" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q80" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q81" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="M82" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N82" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q82" s="10" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <autoFilter ref="A1:Q70">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="Q22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q22" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP4/contrib/drivers/x86_64/Packages/cuda_11.6.1_510.47.03_linux.run"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="0.984251968503937" bottom="0.984251968503937" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
@@ -19400,14 +20709,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMJ10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -19415,18 +20725,17 @@
     <col min="4" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" ht="27" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R文档密级</oddHeader>
